--- a/tids plan.xlsx
+++ b/tids plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maius\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A0A0E7-DD9A-47D3-B4C3-B8DDF356DC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5B1EDD-3B5D-4A11-87E8-409C11D23CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{51BDBD2F-21D4-47AF-9E17-74A1F69E1583}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="47">
   <si>
     <t>Uge 1</t>
   </si>
@@ -177,6 +177,9 @@
   <si>
     <t>øv fremlæglse</t>
   </si>
+  <si>
+    <t>produkt raport</t>
+  </si>
 </sst>
 </file>
 
@@ -211,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,6 +428,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,12 +807,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -833,21 +848,11 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -858,19 +863,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -899,6 +895,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -906,15 +913,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -935,8 +933,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -945,15 +978,15 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF018C"/>
+      <color rgb="FFCEE4DE"/>
+      <color rgb="FFFAB8B8"/>
+      <color rgb="FFFAFCB6"/>
+      <color rgb="FFCC0066"/>
+      <color rgb="FFBFE9F3"/>
+      <color rgb="FFEDC5EB"/>
       <color rgb="FFFFFF00"/>
       <color rgb="FFFF00FF"/>
-      <color rgb="FFCC0066"/>
-      <color rgb="FFFAFCB6"/>
-      <color rgb="FFFAB8B8"/>
-      <color rgb="FFBFE9F3"/>
-      <color rgb="FFCEE4DE"/>
-      <color rgb="FFEDC5EB"/>
-      <color rgb="FFFF018C"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1434,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBB1DA4-112D-4BCD-9481-4893314C9708}">
-  <dimension ref="C10:DD50"/>
+  <dimension ref="C10:DD47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:DD47"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1448,416 +1481,416 @@
   <sheetData>
     <row r="10" spans="3:108" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="3:108" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="54"/>
-      <c r="D11" s="59" t="s">
+      <c r="C11" s="50"/>
+      <c r="D11" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="64" t="s">
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="91"/>
+      <c r="Y11" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="43"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="43"/>
-      <c r="AG11" s="43"/>
-      <c r="AH11" s="43"/>
-      <c r="AI11" s="43"/>
-      <c r="AJ11" s="43"/>
-      <c r="AK11" s="43"/>
-      <c r="AL11" s="43"/>
-      <c r="AM11" s="43"/>
-      <c r="AN11" s="43"/>
-      <c r="AO11" s="43"/>
-      <c r="AP11" s="43"/>
-      <c r="AQ11" s="43"/>
-      <c r="AR11" s="43"/>
-      <c r="AS11" s="65"/>
-      <c r="AT11" s="59" t="s">
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="102"/>
+      <c r="AF11" s="102"/>
+      <c r="AG11" s="102"/>
+      <c r="AH11" s="102"/>
+      <c r="AI11" s="102"/>
+      <c r="AJ11" s="102"/>
+      <c r="AK11" s="102"/>
+      <c r="AL11" s="102"/>
+      <c r="AM11" s="102"/>
+      <c r="AN11" s="102"/>
+      <c r="AO11" s="102"/>
+      <c r="AP11" s="102"/>
+      <c r="AQ11" s="102"/>
+      <c r="AR11" s="102"/>
+      <c r="AS11" s="103"/>
+      <c r="AT11" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="AU11" s="42"/>
-      <c r="AV11" s="42"/>
-      <c r="AW11" s="42"/>
-      <c r="AX11" s="42"/>
-      <c r="AY11" s="42"/>
-      <c r="AZ11" s="42"/>
-      <c r="BA11" s="42"/>
-      <c r="BB11" s="42"/>
-      <c r="BC11" s="42"/>
-      <c r="BD11" s="42"/>
-      <c r="BE11" s="42"/>
-      <c r="BF11" s="42"/>
-      <c r="BG11" s="42"/>
-      <c r="BH11" s="42"/>
-      <c r="BI11" s="42"/>
-      <c r="BJ11" s="42"/>
-      <c r="BK11" s="42"/>
-      <c r="BL11" s="42"/>
-      <c r="BM11" s="42"/>
-      <c r="BN11" s="44"/>
-      <c r="BO11" s="64" t="s">
+      <c r="AU11" s="90"/>
+      <c r="AV11" s="90"/>
+      <c r="AW11" s="90"/>
+      <c r="AX11" s="90"/>
+      <c r="AY11" s="90"/>
+      <c r="AZ11" s="90"/>
+      <c r="BA11" s="90"/>
+      <c r="BB11" s="90"/>
+      <c r="BC11" s="90"/>
+      <c r="BD11" s="90"/>
+      <c r="BE11" s="90"/>
+      <c r="BF11" s="90"/>
+      <c r="BG11" s="90"/>
+      <c r="BH11" s="90"/>
+      <c r="BI11" s="90"/>
+      <c r="BJ11" s="90"/>
+      <c r="BK11" s="90"/>
+      <c r="BL11" s="90"/>
+      <c r="BM11" s="90"/>
+      <c r="BN11" s="91"/>
+      <c r="BO11" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="BP11" s="43"/>
-      <c r="BQ11" s="43"/>
-      <c r="BR11" s="43"/>
-      <c r="BS11" s="43"/>
-      <c r="BT11" s="43"/>
-      <c r="BU11" s="43"/>
-      <c r="BV11" s="43"/>
-      <c r="BW11" s="43"/>
-      <c r="BX11" s="43"/>
-      <c r="BY11" s="43"/>
-      <c r="BZ11" s="43"/>
-      <c r="CA11" s="43"/>
-      <c r="CB11" s="43"/>
-      <c r="CC11" s="43"/>
-      <c r="CD11" s="43"/>
-      <c r="CE11" s="43"/>
-      <c r="CF11" s="43"/>
-      <c r="CG11" s="43"/>
-      <c r="CH11" s="43"/>
-      <c r="CI11" s="65"/>
-      <c r="CJ11" s="59" t="s">
+      <c r="BP11" s="102"/>
+      <c r="BQ11" s="102"/>
+      <c r="BR11" s="102"/>
+      <c r="BS11" s="102"/>
+      <c r="BT11" s="102"/>
+      <c r="BU11" s="102"/>
+      <c r="BV11" s="102"/>
+      <c r="BW11" s="102"/>
+      <c r="BX11" s="102"/>
+      <c r="BY11" s="102"/>
+      <c r="BZ11" s="102"/>
+      <c r="CA11" s="102"/>
+      <c r="CB11" s="102"/>
+      <c r="CC11" s="102"/>
+      <c r="CD11" s="102"/>
+      <c r="CE11" s="102"/>
+      <c r="CF11" s="102"/>
+      <c r="CG11" s="102"/>
+      <c r="CH11" s="102"/>
+      <c r="CI11" s="103"/>
+      <c r="CJ11" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="CK11" s="42"/>
-      <c r="CL11" s="42"/>
-      <c r="CM11" s="42"/>
-      <c r="CN11" s="42"/>
-      <c r="CO11" s="42"/>
-      <c r="CP11" s="42"/>
-      <c r="CQ11" s="42"/>
-      <c r="CR11" s="42"/>
-      <c r="CS11" s="42"/>
-      <c r="CT11" s="42"/>
-      <c r="CU11" s="42"/>
-      <c r="CV11" s="42"/>
-      <c r="CW11" s="42"/>
-      <c r="CX11" s="42"/>
-      <c r="CY11" s="42"/>
-      <c r="CZ11" s="42"/>
-      <c r="DA11" s="42"/>
-      <c r="DB11" s="42"/>
-      <c r="DC11" s="42"/>
-      <c r="DD11" s="44"/>
+      <c r="CK11" s="90"/>
+      <c r="CL11" s="90"/>
+      <c r="CM11" s="90"/>
+      <c r="CN11" s="90"/>
+      <c r="CO11" s="90"/>
+      <c r="CP11" s="90"/>
+      <c r="CQ11" s="90"/>
+      <c r="CR11" s="90"/>
+      <c r="CS11" s="90"/>
+      <c r="CT11" s="90"/>
+      <c r="CU11" s="90"/>
+      <c r="CV11" s="90"/>
+      <c r="CW11" s="90"/>
+      <c r="CX11" s="90"/>
+      <c r="CY11" s="90"/>
+      <c r="CZ11" s="90"/>
+      <c r="DA11" s="90"/>
+      <c r="DB11" s="90"/>
+      <c r="DC11" s="90"/>
+      <c r="DD11" s="91"/>
     </row>
     <row r="12" spans="3:108" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="55"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="96"/>
-      <c r="Y12" s="97"/>
-      <c r="Z12" s="98"/>
-      <c r="AA12" s="98"/>
-      <c r="AB12" s="98"/>
-      <c r="AC12" s="98"/>
-      <c r="AD12" s="98"/>
-      <c r="AE12" s="98"/>
-      <c r="AF12" s="98"/>
-      <c r="AG12" s="98"/>
-      <c r="AH12" s="98"/>
-      <c r="AI12" s="98"/>
-      <c r="AJ12" s="98"/>
-      <c r="AK12" s="98"/>
-      <c r="AL12" s="98"/>
-      <c r="AM12" s="98"/>
-      <c r="AN12" s="98"/>
-      <c r="AO12" s="98"/>
-      <c r="AP12" s="98"/>
-      <c r="AQ12" s="98"/>
-      <c r="AR12" s="98"/>
-      <c r="AS12" s="99"/>
-      <c r="AT12" s="94"/>
-      <c r="AU12" s="95"/>
-      <c r="AV12" s="95"/>
-      <c r="AW12" s="95"/>
-      <c r="AX12" s="95"/>
-      <c r="AY12" s="95"/>
-      <c r="AZ12" s="95"/>
-      <c r="BA12" s="95"/>
-      <c r="BB12" s="95"/>
-      <c r="BC12" s="95"/>
-      <c r="BD12" s="95"/>
-      <c r="BE12" s="95"/>
-      <c r="BF12" s="95"/>
-      <c r="BG12" s="95"/>
-      <c r="BH12" s="95"/>
-      <c r="BI12" s="95"/>
-      <c r="BJ12" s="95"/>
-      <c r="BK12" s="95"/>
-      <c r="BL12" s="95"/>
-      <c r="BM12" s="95"/>
-      <c r="BN12" s="96"/>
-      <c r="BO12" s="97"/>
-      <c r="BP12" s="98"/>
-      <c r="BQ12" s="98"/>
-      <c r="BR12" s="98"/>
-      <c r="BS12" s="98"/>
-      <c r="BT12" s="98"/>
-      <c r="BU12" s="98"/>
-      <c r="BV12" s="98"/>
-      <c r="BW12" s="98"/>
-      <c r="BX12" s="98"/>
-      <c r="BY12" s="98"/>
-      <c r="BZ12" s="98"/>
-      <c r="CA12" s="98"/>
-      <c r="CB12" s="98"/>
-      <c r="CC12" s="98"/>
-      <c r="CD12" s="98"/>
-      <c r="CE12" s="98"/>
-      <c r="CF12" s="98"/>
-      <c r="CG12" s="98"/>
-      <c r="CH12" s="98"/>
-      <c r="CI12" s="99"/>
-      <c r="CJ12" s="94"/>
-      <c r="CK12" s="95"/>
-      <c r="CL12" s="95"/>
-      <c r="CM12" s="95"/>
-      <c r="CN12" s="95"/>
-      <c r="CO12" s="95"/>
-      <c r="CP12" s="95"/>
-      <c r="CQ12" s="95"/>
-      <c r="CR12" s="95"/>
-      <c r="CS12" s="95"/>
-      <c r="CT12" s="95"/>
-      <c r="CU12" s="95"/>
-      <c r="CV12" s="95"/>
-      <c r="CW12" s="95"/>
-      <c r="CX12" s="95"/>
-      <c r="CY12" s="95"/>
-      <c r="CZ12" s="95"/>
-      <c r="DA12" s="95"/>
-      <c r="DB12" s="95"/>
-      <c r="DC12" s="95"/>
-      <c r="DD12" s="96"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="104"/>
+      <c r="Z12" s="105"/>
+      <c r="AA12" s="105"/>
+      <c r="AB12" s="105"/>
+      <c r="AC12" s="105"/>
+      <c r="AD12" s="105"/>
+      <c r="AE12" s="105"/>
+      <c r="AF12" s="105"/>
+      <c r="AG12" s="105"/>
+      <c r="AH12" s="105"/>
+      <c r="AI12" s="105"/>
+      <c r="AJ12" s="105"/>
+      <c r="AK12" s="105"/>
+      <c r="AL12" s="105"/>
+      <c r="AM12" s="105"/>
+      <c r="AN12" s="105"/>
+      <c r="AO12" s="105"/>
+      <c r="AP12" s="105"/>
+      <c r="AQ12" s="105"/>
+      <c r="AR12" s="105"/>
+      <c r="AS12" s="106"/>
+      <c r="AT12" s="92"/>
+      <c r="AU12" s="93"/>
+      <c r="AV12" s="93"/>
+      <c r="AW12" s="93"/>
+      <c r="AX12" s="93"/>
+      <c r="AY12" s="93"/>
+      <c r="AZ12" s="93"/>
+      <c r="BA12" s="93"/>
+      <c r="BB12" s="93"/>
+      <c r="BC12" s="93"/>
+      <c r="BD12" s="93"/>
+      <c r="BE12" s="93"/>
+      <c r="BF12" s="93"/>
+      <c r="BG12" s="93"/>
+      <c r="BH12" s="93"/>
+      <c r="BI12" s="93"/>
+      <c r="BJ12" s="93"/>
+      <c r="BK12" s="93"/>
+      <c r="BL12" s="93"/>
+      <c r="BM12" s="93"/>
+      <c r="BN12" s="94"/>
+      <c r="BO12" s="104"/>
+      <c r="BP12" s="105"/>
+      <c r="BQ12" s="105"/>
+      <c r="BR12" s="105"/>
+      <c r="BS12" s="105"/>
+      <c r="BT12" s="105"/>
+      <c r="BU12" s="105"/>
+      <c r="BV12" s="105"/>
+      <c r="BW12" s="105"/>
+      <c r="BX12" s="105"/>
+      <c r="BY12" s="105"/>
+      <c r="BZ12" s="105"/>
+      <c r="CA12" s="105"/>
+      <c r="CB12" s="105"/>
+      <c r="CC12" s="105"/>
+      <c r="CD12" s="105"/>
+      <c r="CE12" s="105"/>
+      <c r="CF12" s="105"/>
+      <c r="CG12" s="105"/>
+      <c r="CH12" s="105"/>
+      <c r="CI12" s="106"/>
+      <c r="CJ12" s="92"/>
+      <c r="CK12" s="93"/>
+      <c r="CL12" s="93"/>
+      <c r="CM12" s="93"/>
+      <c r="CN12" s="93"/>
+      <c r="CO12" s="93"/>
+      <c r="CP12" s="93"/>
+      <c r="CQ12" s="93"/>
+      <c r="CR12" s="93"/>
+      <c r="CS12" s="93"/>
+      <c r="CT12" s="93"/>
+      <c r="CU12" s="93"/>
+      <c r="CV12" s="93"/>
+      <c r="CW12" s="93"/>
+      <c r="CX12" s="93"/>
+      <c r="CY12" s="93"/>
+      <c r="CZ12" s="93"/>
+      <c r="DA12" s="93"/>
+      <c r="DB12" s="93"/>
+      <c r="DC12" s="93"/>
+      <c r="DD12" s="94"/>
     </row>
     <row r="13" spans="3:108" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="93"/>
-      <c r="D13" s="100" t="s">
+      <c r="C13" s="86"/>
+      <c r="D13" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="101"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="100" t="s">
+      <c r="E13" s="96"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="101"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="100" t="s">
+      <c r="H13" s="96"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="101"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="100" t="s">
+      <c r="K13" s="96"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="101"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="100" t="s">
+      <c r="N13" s="96"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="100" t="s">
+      <c r="Q13" s="96"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="101"/>
-      <c r="U13" s="102"/>
-      <c r="V13" s="100" t="s">
+      <c r="T13" s="96"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="W13" s="101"/>
-      <c r="X13" s="102"/>
-      <c r="Y13" s="103" t="s">
+      <c r="W13" s="96"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="Z13" s="104"/>
-      <c r="AA13" s="105"/>
-      <c r="AB13" s="103" t="s">
+      <c r="Z13" s="99"/>
+      <c r="AA13" s="100"/>
+      <c r="AB13" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="AC13" s="104"/>
-      <c r="AD13" s="105"/>
-      <c r="AE13" s="103" t="s">
+      <c r="AC13" s="99"/>
+      <c r="AD13" s="100"/>
+      <c r="AE13" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="AF13" s="104"/>
-      <c r="AG13" s="105"/>
-      <c r="AH13" s="103" t="s">
+      <c r="AF13" s="99"/>
+      <c r="AG13" s="100"/>
+      <c r="AH13" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="AI13" s="104"/>
-      <c r="AJ13" s="105"/>
-      <c r="AK13" s="103" t="s">
+      <c r="AI13" s="99"/>
+      <c r="AJ13" s="100"/>
+      <c r="AK13" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="AL13" s="104"/>
-      <c r="AM13" s="105"/>
-      <c r="AN13" s="103" t="s">
+      <c r="AL13" s="99"/>
+      <c r="AM13" s="100"/>
+      <c r="AN13" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="AO13" s="104"/>
-      <c r="AP13" s="105"/>
-      <c r="AQ13" s="103" t="s">
+      <c r="AO13" s="99"/>
+      <c r="AP13" s="100"/>
+      <c r="AQ13" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="AR13" s="104"/>
-      <c r="AS13" s="105"/>
-      <c r="AT13" s="100" t="s">
+      <c r="AR13" s="99"/>
+      <c r="AS13" s="100"/>
+      <c r="AT13" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="AU13" s="101"/>
-      <c r="AV13" s="102"/>
-      <c r="AW13" s="100" t="s">
+      <c r="AU13" s="96"/>
+      <c r="AV13" s="97"/>
+      <c r="AW13" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="AX13" s="101"/>
-      <c r="AY13" s="102"/>
-      <c r="AZ13" s="100" t="s">
+      <c r="AX13" s="96"/>
+      <c r="AY13" s="97"/>
+      <c r="AZ13" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="BA13" s="101"/>
-      <c r="BB13" s="102"/>
-      <c r="BC13" s="100" t="s">
+      <c r="BA13" s="96"/>
+      <c r="BB13" s="97"/>
+      <c r="BC13" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="BD13" s="101"/>
-      <c r="BE13" s="102"/>
-      <c r="BF13" s="100" t="s">
+      <c r="BD13" s="96"/>
+      <c r="BE13" s="97"/>
+      <c r="BF13" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="BG13" s="101"/>
-      <c r="BH13" s="102"/>
-      <c r="BI13" s="100" t="s">
+      <c r="BG13" s="96"/>
+      <c r="BH13" s="97"/>
+      <c r="BI13" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="BJ13" s="101"/>
-      <c r="BK13" s="102"/>
-      <c r="BL13" s="100" t="s">
+      <c r="BJ13" s="96"/>
+      <c r="BK13" s="97"/>
+      <c r="BL13" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="BM13" s="101"/>
-      <c r="BN13" s="102"/>
-      <c r="BO13" s="103" t="s">
+      <c r="BM13" s="96"/>
+      <c r="BN13" s="97"/>
+      <c r="BO13" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="BP13" s="104"/>
-      <c r="BQ13" s="105"/>
-      <c r="BR13" s="103" t="s">
+      <c r="BP13" s="99"/>
+      <c r="BQ13" s="100"/>
+      <c r="BR13" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="BS13" s="104"/>
-      <c r="BT13" s="105"/>
-      <c r="BU13" s="103" t="s">
+      <c r="BS13" s="99"/>
+      <c r="BT13" s="100"/>
+      <c r="BU13" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="BV13" s="104"/>
-      <c r="BW13" s="105"/>
-      <c r="BX13" s="103" t="s">
+      <c r="BV13" s="99"/>
+      <c r="BW13" s="100"/>
+      <c r="BX13" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="BY13" s="104"/>
-      <c r="BZ13" s="105"/>
-      <c r="CA13" s="103" t="s">
+      <c r="BY13" s="99"/>
+      <c r="BZ13" s="100"/>
+      <c r="CA13" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="CB13" s="104"/>
-      <c r="CC13" s="105"/>
-      <c r="CD13" s="103" t="s">
+      <c r="CB13" s="99"/>
+      <c r="CC13" s="100"/>
+      <c r="CD13" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="CE13" s="104"/>
-      <c r="CF13" s="105"/>
-      <c r="CG13" s="103" t="s">
+      <c r="CE13" s="99"/>
+      <c r="CF13" s="100"/>
+      <c r="CG13" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="CH13" s="104"/>
-      <c r="CI13" s="105"/>
-      <c r="CJ13" s="100" t="s">
+      <c r="CH13" s="99"/>
+      <c r="CI13" s="100"/>
+      <c r="CJ13" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="CK13" s="101"/>
-      <c r="CL13" s="102"/>
-      <c r="CM13" s="100" t="s">
+      <c r="CK13" s="96"/>
+      <c r="CL13" s="97"/>
+      <c r="CM13" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="CN13" s="101"/>
-      <c r="CO13" s="102"/>
-      <c r="CP13" s="100" t="s">
+      <c r="CN13" s="96"/>
+      <c r="CO13" s="97"/>
+      <c r="CP13" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="CQ13" s="101"/>
-      <c r="CR13" s="102"/>
-      <c r="CS13" s="100" t="s">
+      <c r="CQ13" s="96"/>
+      <c r="CR13" s="97"/>
+      <c r="CS13" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="CT13" s="101"/>
-      <c r="CU13" s="102"/>
-      <c r="CV13" s="100" t="s">
+      <c r="CT13" s="96"/>
+      <c r="CU13" s="97"/>
+      <c r="CV13" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="CW13" s="101"/>
-      <c r="CX13" s="102"/>
-      <c r="CY13" s="100" t="s">
+      <c r="CW13" s="96"/>
+      <c r="CX13" s="97"/>
+      <c r="CY13" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="CZ13" s="101"/>
-      <c r="DA13" s="102"/>
-      <c r="DB13" s="100" t="s">
+      <c r="CZ13" s="96"/>
+      <c r="DA13" s="97"/>
+      <c r="DB13" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="DC13" s="101"/>
-      <c r="DD13" s="102"/>
+      <c r="DC13" s="96"/>
+      <c r="DD13" s="97"/>
     </row>
     <row r="14" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
@@ -1875,8 +1908,8 @@
       <c r="U14" s="32"/>
       <c r="V14" s="32"/>
       <c r="W14" s="32"/>
-      <c r="X14" s="91"/>
-      <c r="Y14" s="45"/>
+      <c r="X14" s="84"/>
+      <c r="Y14" s="41"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
@@ -1896,8 +1929,8 @@
       <c r="AP14" s="3"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="3"/>
-      <c r="AS14" s="92"/>
-      <c r="AT14" s="81"/>
+      <c r="AS14" s="85"/>
+      <c r="AT14" s="74"/>
       <c r="AU14" s="32"/>
       <c r="AV14" s="32"/>
       <c r="AW14" s="32"/>
@@ -1917,8 +1950,8 @@
       <c r="BK14" s="32"/>
       <c r="BL14" s="32"/>
       <c r="BM14" s="32"/>
-      <c r="BN14" s="91"/>
-      <c r="BO14" s="45"/>
+      <c r="BN14" s="84"/>
+      <c r="BO14" s="41"/>
       <c r="BP14" s="3"/>
       <c r="BQ14" s="3"/>
       <c r="BR14" s="3"/>
@@ -1938,8 +1971,8 @@
       <c r="CF14" s="3"/>
       <c r="CG14" s="3"/>
       <c r="CH14" s="3"/>
-      <c r="CI14" s="92"/>
-      <c r="CJ14" s="81"/>
+      <c r="CI14" s="85"/>
+      <c r="CJ14" s="74"/>
       <c r="CK14" s="32"/>
       <c r="CL14" s="32"/>
       <c r="CM14" s="32"/>
@@ -1959,13 +1992,13 @@
       <c r="DA14" s="32"/>
       <c r="DB14" s="32"/>
       <c r="DC14" s="32"/>
-      <c r="DD14" s="91"/>
+      <c r="DD14" s="84"/>
     </row>
     <row r="15" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="60"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -1985,8 +2018,8 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="47"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="43"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -2006,8 +2039,8 @@
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="60"/>
+      <c r="AS15" s="59"/>
+      <c r="AT15" s="55"/>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
@@ -2027,8 +2060,8 @@
       <c r="BK15" s="2"/>
       <c r="BL15" s="2"/>
       <c r="BM15" s="2"/>
-      <c r="BN15" s="46"/>
-      <c r="BO15" s="47"/>
+      <c r="BN15" s="42"/>
+      <c r="BO15" s="43"/>
       <c r="BP15" s="1"/>
       <c r="BQ15" s="1"/>
       <c r="BR15" s="1"/>
@@ -2048,8 +2081,8 @@
       <c r="CF15" s="1"/>
       <c r="CG15" s="1"/>
       <c r="CH15" s="1"/>
-      <c r="CI15" s="66"/>
-      <c r="CJ15" s="60"/>
+      <c r="CI15" s="59"/>
+      <c r="CJ15" s="55"/>
       <c r="CK15" s="2"/>
       <c r="CL15" s="2"/>
       <c r="CM15" s="2"/>
@@ -2069,13 +2102,13 @@
       <c r="DA15" s="2"/>
       <c r="DB15" s="2"/>
       <c r="DC15" s="2"/>
-      <c r="DD15" s="46"/>
+      <c r="DD15" s="42"/>
     </row>
     <row r="16" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="60"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2095,8 +2128,8 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="47"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="43"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
@@ -2116,8 +2149,8 @@
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
       <c r="AR16" s="1"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="60"/>
+      <c r="AS16" s="59"/>
+      <c r="AT16" s="55"/>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -2137,8 +2170,8 @@
       <c r="BK16" s="2"/>
       <c r="BL16" s="2"/>
       <c r="BM16" s="2"/>
-      <c r="BN16" s="46"/>
-      <c r="BO16" s="47"/>
+      <c r="BN16" s="42"/>
+      <c r="BO16" s="43"/>
       <c r="BP16" s="1"/>
       <c r="BQ16" s="1"/>
       <c r="BR16" s="1"/>
@@ -2158,8 +2191,8 @@
       <c r="CF16" s="1"/>
       <c r="CG16" s="1"/>
       <c r="CH16" s="1"/>
-      <c r="CI16" s="66"/>
-      <c r="CJ16" s="60"/>
+      <c r="CI16" s="59"/>
+      <c r="CJ16" s="55"/>
       <c r="CK16" s="2"/>
       <c r="CL16" s="2"/>
       <c r="CM16" s="2"/>
@@ -2179,13 +2212,13 @@
       <c r="DA16" s="2"/>
       <c r="DB16" s="2"/>
       <c r="DC16" s="2"/>
-      <c r="DD16" s="46"/>
+      <c r="DD16" s="42"/>
     </row>
     <row r="17" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="60"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2205,8 +2238,8 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="47"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="43"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
@@ -2226,8 +2259,8 @@
       <c r="AP17" s="1"/>
       <c r="AQ17" s="1"/>
       <c r="AR17" s="1"/>
-      <c r="AS17" s="66"/>
-      <c r="AT17" s="60"/>
+      <c r="AS17" s="59"/>
+      <c r="AT17" s="55"/>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
@@ -2247,8 +2280,8 @@
       <c r="BK17" s="2"/>
       <c r="BL17" s="2"/>
       <c r="BM17" s="2"/>
-      <c r="BN17" s="46"/>
-      <c r="BO17" s="47"/>
+      <c r="BN17" s="42"/>
+      <c r="BO17" s="43"/>
       <c r="BP17" s="1"/>
       <c r="BQ17" s="1"/>
       <c r="BR17" s="1"/>
@@ -2268,8 +2301,8 @@
       <c r="CF17" s="1"/>
       <c r="CG17" s="1"/>
       <c r="CH17" s="1"/>
-      <c r="CI17" s="66"/>
-      <c r="CJ17" s="60"/>
+      <c r="CI17" s="59"/>
+      <c r="CJ17" s="55"/>
       <c r="CK17" s="2"/>
       <c r="CL17" s="2"/>
       <c r="CM17" s="2"/>
@@ -2289,13 +2322,13 @@
       <c r="DA17" s="2"/>
       <c r="DB17" s="2"/>
       <c r="DC17" s="2"/>
-      <c r="DD17" s="46"/>
+      <c r="DD17" s="42"/>
     </row>
     <row r="18" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="60"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2315,8 +2348,8 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="47"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="43"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -2336,8 +2369,8 @@
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1"/>
-      <c r="AS18" s="66"/>
-      <c r="AT18" s="60"/>
+      <c r="AS18" s="59"/>
+      <c r="AT18" s="55"/>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -2357,8 +2390,8 @@
       <c r="BK18" s="2"/>
       <c r="BL18" s="2"/>
       <c r="BM18" s="2"/>
-      <c r="BN18" s="46"/>
-      <c r="BO18" s="47"/>
+      <c r="BN18" s="42"/>
+      <c r="BO18" s="43"/>
       <c r="BP18" s="1"/>
       <c r="BQ18" s="1"/>
       <c r="BR18" s="1"/>
@@ -2378,8 +2411,8 @@
       <c r="CF18" s="1"/>
       <c r="CG18" s="1"/>
       <c r="CH18" s="1"/>
-      <c r="CI18" s="66"/>
-      <c r="CJ18" s="60"/>
+      <c r="CI18" s="59"/>
+      <c r="CJ18" s="55"/>
       <c r="CK18" s="2"/>
       <c r="CL18" s="2"/>
       <c r="CM18" s="2"/>
@@ -2399,13 +2432,13 @@
       <c r="DA18" s="2"/>
       <c r="DB18" s="2"/>
       <c r="DC18" s="2"/>
-      <c r="DD18" s="46"/>
+      <c r="DD18" s="42"/>
     </row>
     <row r="19" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="60"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2425,8 +2458,8 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="47"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="43"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -2446,8 +2479,8 @@
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1"/>
-      <c r="AS19" s="66"/>
-      <c r="AT19" s="60"/>
+      <c r="AS19" s="59"/>
+      <c r="AT19" s="55"/>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
@@ -2467,8 +2500,8 @@
       <c r="BK19" s="2"/>
       <c r="BL19" s="2"/>
       <c r="BM19" s="2"/>
-      <c r="BN19" s="46"/>
-      <c r="BO19" s="47"/>
+      <c r="BN19" s="42"/>
+      <c r="BO19" s="43"/>
       <c r="BP19" s="1"/>
       <c r="BQ19" s="1"/>
       <c r="BR19" s="1"/>
@@ -2488,8 +2521,8 @@
       <c r="CF19" s="1"/>
       <c r="CG19" s="1"/>
       <c r="CH19" s="1"/>
-      <c r="CI19" s="66"/>
-      <c r="CJ19" s="60"/>
+      <c r="CI19" s="59"/>
+      <c r="CJ19" s="55"/>
       <c r="CK19" s="2"/>
       <c r="CL19" s="2"/>
       <c r="CM19" s="2"/>
@@ -2509,13 +2542,13 @@
       <c r="DA19" s="2"/>
       <c r="DB19" s="2"/>
       <c r="DC19" s="2"/>
-      <c r="DD19" s="46"/>
+      <c r="DD19" s="42"/>
     </row>
     <row r="20" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="60"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2535,8 +2568,8 @@
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
-      <c r="X20" s="61"/>
-      <c r="Y20" s="47"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="43"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
@@ -2556,8 +2589,8 @@
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="60"/>
+      <c r="AS20" s="59"/>
+      <c r="AT20" s="55"/>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
@@ -2577,8 +2610,8 @@
       <c r="BK20" s="2"/>
       <c r="BL20" s="2"/>
       <c r="BM20" s="2"/>
-      <c r="BN20" s="46"/>
-      <c r="BO20" s="47"/>
+      <c r="BN20" s="42"/>
+      <c r="BO20" s="43"/>
       <c r="BP20" s="1"/>
       <c r="BQ20" s="1"/>
       <c r="BR20" s="1"/>
@@ -2598,8 +2631,8 @@
       <c r="CF20" s="1"/>
       <c r="CG20" s="1"/>
       <c r="CH20" s="1"/>
-      <c r="CI20" s="66"/>
-      <c r="CJ20" s="60"/>
+      <c r="CI20" s="59"/>
+      <c r="CJ20" s="55"/>
       <c r="CK20" s="2"/>
       <c r="CL20" s="2"/>
       <c r="CM20" s="2"/>
@@ -2619,13 +2652,13 @@
       <c r="DA20" s="2"/>
       <c r="DB20" s="2"/>
       <c r="DC20" s="2"/>
-      <c r="DD20" s="46"/>
+      <c r="DD20" s="42"/>
     </row>
     <row r="21" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="60"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2645,8 +2678,8 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="67"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="60"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
@@ -2666,8 +2699,8 @@
       <c r="AP21" s="12"/>
       <c r="AQ21" s="12"/>
       <c r="AR21" s="12"/>
-      <c r="AS21" s="68"/>
-      <c r="AT21" s="67"/>
+      <c r="AS21" s="61"/>
+      <c r="AT21" s="60"/>
       <c r="AU21" s="12"/>
       <c r="AV21" s="12"/>
       <c r="AW21" s="12"/>
@@ -2687,8 +2720,8 @@
       <c r="BK21" s="2"/>
       <c r="BL21" s="2"/>
       <c r="BM21" s="2"/>
-      <c r="BN21" s="46"/>
-      <c r="BO21" s="47"/>
+      <c r="BN21" s="42"/>
+      <c r="BO21" s="43"/>
       <c r="BP21" s="1"/>
       <c r="BQ21" s="1"/>
       <c r="BR21" s="1"/>
@@ -2708,8 +2741,8 @@
       <c r="CF21" s="1"/>
       <c r="CG21" s="1"/>
       <c r="CH21" s="1"/>
-      <c r="CI21" s="66"/>
-      <c r="CJ21" s="60"/>
+      <c r="CI21" s="59"/>
+      <c r="CJ21" s="55"/>
       <c r="CK21" s="2"/>
       <c r="CL21" s="2"/>
       <c r="CM21" s="2"/>
@@ -2729,13 +2762,13 @@
       <c r="DA21" s="2"/>
       <c r="DB21" s="2"/>
       <c r="DC21" s="2"/>
-      <c r="DD21" s="46"/>
+      <c r="DD21" s="42"/>
     </row>
     <row r="22" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="60"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2755,8 +2788,8 @@
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="69"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="62"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
       <c r="AB22" s="13"/>
@@ -2776,8 +2809,8 @@
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>
-      <c r="AS22" s="66"/>
-      <c r="AT22" s="60"/>
+      <c r="AS22" s="59"/>
+      <c r="AT22" s="55"/>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
@@ -2797,8 +2830,8 @@
       <c r="BK22" s="2"/>
       <c r="BL22" s="2"/>
       <c r="BM22" s="2"/>
-      <c r="BN22" s="46"/>
-      <c r="BO22" s="47"/>
+      <c r="BN22" s="42"/>
+      <c r="BO22" s="43"/>
       <c r="BP22" s="1"/>
       <c r="BQ22" s="1"/>
       <c r="BR22" s="1"/>
@@ -2818,8 +2851,8 @@
       <c r="CF22" s="1"/>
       <c r="CG22" s="1"/>
       <c r="CH22" s="1"/>
-      <c r="CI22" s="66"/>
-      <c r="CJ22" s="60"/>
+      <c r="CI22" s="59"/>
+      <c r="CJ22" s="55"/>
       <c r="CK22" s="2"/>
       <c r="CL22" s="2"/>
       <c r="CM22" s="2"/>
@@ -2839,13 +2872,13 @@
       <c r="DA22" s="2"/>
       <c r="DB22" s="2"/>
       <c r="DC22" s="2"/>
-      <c r="DD22" s="46"/>
+      <c r="DD22" s="42"/>
     </row>
     <row r="23" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="60"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2865,8 +2898,8 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="47"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="43"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
@@ -2886,8 +2919,8 @@
       <c r="AP23" s="14"/>
       <c r="AQ23" s="14"/>
       <c r="AR23" s="14"/>
-      <c r="AS23" s="70"/>
-      <c r="AT23" s="60"/>
+      <c r="AS23" s="63"/>
+      <c r="AT23" s="55"/>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
@@ -2907,8 +2940,8 @@
       <c r="BK23" s="2"/>
       <c r="BL23" s="2"/>
       <c r="BM23" s="2"/>
-      <c r="BN23" s="46"/>
-      <c r="BO23" s="47"/>
+      <c r="BN23" s="42"/>
+      <c r="BO23" s="43"/>
       <c r="BP23" s="1"/>
       <c r="BQ23" s="1"/>
       <c r="BR23" s="1"/>
@@ -2928,8 +2961,8 @@
       <c r="CF23" s="1"/>
       <c r="CG23" s="1"/>
       <c r="CH23" s="1"/>
-      <c r="CI23" s="66"/>
-      <c r="CJ23" s="60"/>
+      <c r="CI23" s="59"/>
+      <c r="CJ23" s="55"/>
       <c r="CK23" s="2"/>
       <c r="CL23" s="2"/>
       <c r="CM23" s="2"/>
@@ -2949,13 +2982,13 @@
       <c r="DA23" s="2"/>
       <c r="DB23" s="2"/>
       <c r="DC23" s="2"/>
-      <c r="DD23" s="46"/>
+      <c r="DD23" s="42"/>
     </row>
     <row r="24" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="60"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2975,8 +3008,8 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="47"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="43"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
@@ -2996,8 +3029,8 @@
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1"/>
       <c r="AR24" s="1"/>
-      <c r="AS24" s="66"/>
-      <c r="AT24" s="60"/>
+      <c r="AS24" s="59"/>
+      <c r="AT24" s="55"/>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
@@ -3017,8 +3050,8 @@
       <c r="BK24" s="2"/>
       <c r="BL24" s="2"/>
       <c r="BM24" s="2"/>
-      <c r="BN24" s="46"/>
-      <c r="BO24" s="47"/>
+      <c r="BN24" s="42"/>
+      <c r="BO24" s="43"/>
       <c r="BP24" s="1"/>
       <c r="BQ24" s="1"/>
       <c r="BR24" s="1"/>
@@ -3038,8 +3071,8 @@
       <c r="CF24" s="1"/>
       <c r="CG24" s="1"/>
       <c r="CH24" s="1"/>
-      <c r="CI24" s="66"/>
-      <c r="CJ24" s="60"/>
+      <c r="CI24" s="59"/>
+      <c r="CJ24" s="55"/>
       <c r="CK24" s="2"/>
       <c r="CL24" s="2"/>
       <c r="CM24" s="2"/>
@@ -3059,13 +3092,13 @@
       <c r="DA24" s="2"/>
       <c r="DB24" s="2"/>
       <c r="DC24" s="2"/>
-      <c r="DD24" s="46"/>
+      <c r="DD24" s="42"/>
     </row>
     <row r="25" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="60"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -3085,8 +3118,8 @@
       <c r="U25" s="16"/>
       <c r="V25" s="16"/>
       <c r="W25" s="16"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="47"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="43"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="16"/>
       <c r="AB25" s="16"/>
@@ -3106,8 +3139,8 @@
       <c r="AP25" s="16"/>
       <c r="AQ25" s="16"/>
       <c r="AR25" s="16"/>
-      <c r="AS25" s="62"/>
-      <c r="AT25" s="60"/>
+      <c r="AS25" s="57"/>
+      <c r="AT25" s="55"/>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
@@ -3127,8 +3160,8 @@
       <c r="BK25" s="2"/>
       <c r="BL25" s="2"/>
       <c r="BM25" s="2"/>
-      <c r="BN25" s="46"/>
-      <c r="BO25" s="47"/>
+      <c r="BN25" s="42"/>
+      <c r="BO25" s="43"/>
       <c r="BP25" s="1"/>
       <c r="BQ25" s="1"/>
       <c r="BR25" s="1"/>
@@ -3148,8 +3181,8 @@
       <c r="CF25" s="1"/>
       <c r="CG25" s="1"/>
       <c r="CH25" s="1"/>
-      <c r="CI25" s="66"/>
-      <c r="CJ25" s="60"/>
+      <c r="CI25" s="59"/>
+      <c r="CJ25" s="55"/>
       <c r="CK25" s="2"/>
       <c r="CL25" s="2"/>
       <c r="CM25" s="2"/>
@@ -3169,13 +3202,13 @@
       <c r="DA25" s="2"/>
       <c r="DB25" s="2"/>
       <c r="DC25" s="2"/>
-      <c r="DD25" s="46"/>
+      <c r="DD25" s="42"/>
     </row>
     <row r="26" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="60"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -3195,8 +3228,8 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="47"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="43"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="17"/>
       <c r="AB26" s="17"/>
@@ -3216,8 +3249,8 @@
       <c r="AP26" s="17"/>
       <c r="AQ26" s="17"/>
       <c r="AR26" s="17"/>
-      <c r="AS26" s="71"/>
-      <c r="AT26" s="60"/>
+      <c r="AS26" s="64"/>
+      <c r="AT26" s="55"/>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
@@ -3237,8 +3270,8 @@
       <c r="BK26" s="2"/>
       <c r="BL26" s="2"/>
       <c r="BM26" s="2"/>
-      <c r="BN26" s="46"/>
-      <c r="BO26" s="47"/>
+      <c r="BN26" s="42"/>
+      <c r="BO26" s="43"/>
       <c r="BP26" s="1"/>
       <c r="BQ26" s="1"/>
       <c r="BR26" s="1"/>
@@ -3258,8 +3291,8 @@
       <c r="CF26" s="1"/>
       <c r="CG26" s="1"/>
       <c r="CH26" s="1"/>
-      <c r="CI26" s="66"/>
-      <c r="CJ26" s="60"/>
+      <c r="CI26" s="59"/>
+      <c r="CJ26" s="55"/>
       <c r="CK26" s="2"/>
       <c r="CL26" s="2"/>
       <c r="CM26" s="2"/>
@@ -3279,13 +3312,13 @@
       <c r="DA26" s="2"/>
       <c r="DB26" s="2"/>
       <c r="DC26" s="2"/>
-      <c r="DD26" s="46"/>
+      <c r="DD26" s="42"/>
     </row>
     <row r="27" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="60"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -3305,8 +3338,8 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="47"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="43"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
@@ -3326,8 +3359,8 @@
       <c r="AP27" s="18"/>
       <c r="AQ27" s="18"/>
       <c r="AR27" s="18"/>
-      <c r="AS27" s="72"/>
-      <c r="AT27" s="60"/>
+      <c r="AS27" s="65"/>
+      <c r="AT27" s="55"/>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
@@ -3347,8 +3380,8 @@
       <c r="BK27" s="18"/>
       <c r="BL27" s="2"/>
       <c r="BM27" s="2"/>
-      <c r="BN27" s="46"/>
-      <c r="BO27" s="47"/>
+      <c r="BN27" s="42"/>
+      <c r="BO27" s="43"/>
       <c r="BP27" s="1"/>
       <c r="BQ27" s="1"/>
       <c r="BR27" s="1"/>
@@ -3368,8 +3401,8 @@
       <c r="CF27" s="1"/>
       <c r="CG27" s="1"/>
       <c r="CH27" s="1"/>
-      <c r="CI27" s="66"/>
-      <c r="CJ27" s="60"/>
+      <c r="CI27" s="59"/>
+      <c r="CJ27" s="55"/>
       <c r="CK27" s="2"/>
       <c r="CL27" s="2"/>
       <c r="CM27" s="2"/>
@@ -3389,13 +3422,13 @@
       <c r="DA27" s="2"/>
       <c r="DB27" s="2"/>
       <c r="DC27" s="2"/>
-      <c r="DD27" s="46"/>
+      <c r="DD27" s="42"/>
     </row>
     <row r="28" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="60"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -3415,8 +3448,8 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="47"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="43"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
@@ -3436,8 +3469,8 @@
       <c r="AP28" s="1"/>
       <c r="AQ28" s="1"/>
       <c r="AR28" s="1"/>
-      <c r="AS28" s="66"/>
-      <c r="AT28" s="75"/>
+      <c r="AS28" s="59"/>
+      <c r="AT28" s="68"/>
       <c r="AU28" s="19"/>
       <c r="AV28" s="19"/>
       <c r="AW28" s="19"/>
@@ -3457,8 +3490,8 @@
       <c r="BK28" s="2"/>
       <c r="BL28" s="2"/>
       <c r="BM28" s="2"/>
-      <c r="BN28" s="46"/>
-      <c r="BO28" s="47"/>
+      <c r="BN28" s="42"/>
+      <c r="BO28" s="43"/>
       <c r="BP28" s="1"/>
       <c r="BQ28" s="1"/>
       <c r="BR28" s="1"/>
@@ -3478,8 +3511,8 @@
       <c r="CF28" s="1"/>
       <c r="CG28" s="1"/>
       <c r="CH28" s="1"/>
-      <c r="CI28" s="66"/>
-      <c r="CJ28" s="60"/>
+      <c r="CI28" s="59"/>
+      <c r="CJ28" s="55"/>
       <c r="CK28" s="2"/>
       <c r="CL28" s="2"/>
       <c r="CM28" s="2"/>
@@ -3499,13 +3532,13 @@
       <c r="DA28" s="2"/>
       <c r="DB28" s="2"/>
       <c r="DC28" s="2"/>
-      <c r="DD28" s="46"/>
+      <c r="DD28" s="42"/>
     </row>
     <row r="29" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="60"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -3525,8 +3558,8 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="47"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="43"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
@@ -3546,8 +3579,8 @@
       <c r="AP29" s="1"/>
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
-      <c r="AS29" s="66"/>
-      <c r="AT29" s="60"/>
+      <c r="AS29" s="59"/>
+      <c r="AT29" s="55"/>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
@@ -3567,8 +3600,8 @@
       <c r="BK29" s="8"/>
       <c r="BL29" s="8"/>
       <c r="BM29" s="8"/>
-      <c r="BN29" s="76"/>
-      <c r="BO29" s="47"/>
+      <c r="BN29" s="69"/>
+      <c r="BO29" s="43"/>
       <c r="BP29" s="1"/>
       <c r="BQ29" s="1"/>
       <c r="BR29" s="1"/>
@@ -3588,8 +3621,8 @@
       <c r="CF29" s="1"/>
       <c r="CG29" s="1"/>
       <c r="CH29" s="1"/>
-      <c r="CI29" s="66"/>
-      <c r="CJ29" s="60"/>
+      <c r="CI29" s="59"/>
+      <c r="CJ29" s="55"/>
       <c r="CK29" s="2"/>
       <c r="CL29" s="2"/>
       <c r="CM29" s="2"/>
@@ -3609,13 +3642,13 @@
       <c r="DA29" s="2"/>
       <c r="DB29" s="2"/>
       <c r="DC29" s="2"/>
-      <c r="DD29" s="46"/>
+      <c r="DD29" s="42"/>
     </row>
     <row r="30" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="60"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -3635,8 +3668,8 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="47"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="43"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
@@ -3656,8 +3689,8 @@
       <c r="AP30" s="1"/>
       <c r="AQ30" s="1"/>
       <c r="AR30" s="1"/>
-      <c r="AS30" s="66"/>
-      <c r="AT30" s="60"/>
+      <c r="AS30" s="59"/>
+      <c r="AT30" s="55"/>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
@@ -3677,8 +3710,8 @@
       <c r="BK30" s="20"/>
       <c r="BL30" s="20"/>
       <c r="BM30" s="20"/>
-      <c r="BN30" s="77"/>
-      <c r="BO30" s="84"/>
+      <c r="BN30" s="70"/>
+      <c r="BO30" s="77"/>
       <c r="BP30" s="20"/>
       <c r="BQ30" s="20"/>
       <c r="BR30" s="1"/>
@@ -3698,8 +3731,8 @@
       <c r="CF30" s="1"/>
       <c r="CG30" s="1"/>
       <c r="CH30" s="1"/>
-      <c r="CI30" s="66"/>
-      <c r="CJ30" s="60"/>
+      <c r="CI30" s="59"/>
+      <c r="CJ30" s="55"/>
       <c r="CK30" s="2"/>
       <c r="CL30" s="2"/>
       <c r="CM30" s="2"/>
@@ -3719,13 +3752,13 @@
       <c r="DA30" s="2"/>
       <c r="DB30" s="2"/>
       <c r="DC30" s="2"/>
-      <c r="DD30" s="46"/>
+      <c r="DD30" s="42"/>
     </row>
     <row r="31" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="60"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -3745,8 +3778,8 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="47"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="43"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
@@ -3766,8 +3799,8 @@
       <c r="AP31" s="1"/>
       <c r="AQ31" s="1"/>
       <c r="AR31" s="1"/>
-      <c r="AS31" s="66"/>
-      <c r="AT31" s="60"/>
+      <c r="AS31" s="59"/>
+      <c r="AT31" s="55"/>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
@@ -3787,8 +3820,8 @@
       <c r="BK31" s="2"/>
       <c r="BL31" s="2"/>
       <c r="BM31" s="2"/>
-      <c r="BN31" s="46"/>
-      <c r="BO31" s="47"/>
+      <c r="BN31" s="42"/>
+      <c r="BO31" s="43"/>
       <c r="BP31" s="21"/>
       <c r="BQ31" s="21"/>
       <c r="BR31" s="21"/>
@@ -3808,8 +3841,8 @@
       <c r="CF31" s="1"/>
       <c r="CG31" s="1"/>
       <c r="CH31" s="1"/>
-      <c r="CI31" s="66"/>
-      <c r="CJ31" s="60"/>
+      <c r="CI31" s="59"/>
+      <c r="CJ31" s="55"/>
       <c r="CK31" s="2"/>
       <c r="CL31" s="2"/>
       <c r="CM31" s="2"/>
@@ -3829,13 +3862,13 @@
       <c r="DA31" s="2"/>
       <c r="DB31" s="2"/>
       <c r="DC31" s="2"/>
-      <c r="DD31" s="46"/>
+      <c r="DD31" s="42"/>
     </row>
     <row r="32" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="60"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -3855,8 +3888,8 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="47"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="43"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
@@ -3876,8 +3909,8 @@
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
-      <c r="AS32" s="66"/>
-      <c r="AT32" s="60"/>
+      <c r="AS32" s="59"/>
+      <c r="AT32" s="55"/>
       <c r="AU32" s="2"/>
       <c r="AV32" s="2"/>
       <c r="AW32" s="2"/>
@@ -3897,8 +3930,8 @@
       <c r="BK32" s="2"/>
       <c r="BL32" s="2"/>
       <c r="BM32" s="2"/>
-      <c r="BN32" s="46"/>
-      <c r="BO32" s="47"/>
+      <c r="BN32" s="42"/>
+      <c r="BO32" s="43"/>
       <c r="BP32" s="22"/>
       <c r="BQ32" s="22"/>
       <c r="BR32" s="22"/>
@@ -3918,8 +3951,8 @@
       <c r="CF32" s="1"/>
       <c r="CG32" s="1"/>
       <c r="CH32" s="1"/>
-      <c r="CI32" s="66"/>
-      <c r="CJ32" s="60"/>
+      <c r="CI32" s="59"/>
+      <c r="CJ32" s="55"/>
       <c r="CK32" s="2"/>
       <c r="CL32" s="2"/>
       <c r="CM32" s="2"/>
@@ -3939,13 +3972,13 @@
       <c r="DA32" s="2"/>
       <c r="DB32" s="2"/>
       <c r="DC32" s="2"/>
-      <c r="DD32" s="46"/>
+      <c r="DD32" s="42"/>
     </row>
     <row r="33" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="60"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -3965,8 +3998,8 @@
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="47"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="43"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
@@ -3978,7 +4011,7 @@
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
-      <c r="AK33" s="48"/>
+      <c r="AK33" s="44"/>
       <c r="AL33" s="38"/>
       <c r="AM33" s="38"/>
       <c r="AN33" s="1"/>
@@ -3986,8 +4019,8 @@
       <c r="AP33" s="1"/>
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
-      <c r="AS33" s="66"/>
-      <c r="AT33" s="78"/>
+      <c r="AS33" s="59"/>
+      <c r="AT33" s="71"/>
       <c r="AU33" s="24"/>
       <c r="AV33" s="2"/>
       <c r="AW33" s="2"/>
@@ -4007,8 +4040,8 @@
       <c r="BK33" s="2"/>
       <c r="BL33" s="2"/>
       <c r="BM33" s="2"/>
-      <c r="BN33" s="46"/>
-      <c r="BO33" s="47"/>
+      <c r="BN33" s="42"/>
+      <c r="BO33" s="43"/>
       <c r="BP33" s="1"/>
       <c r="BQ33" s="1"/>
       <c r="BR33" s="1"/>
@@ -4028,8 +4061,8 @@
       <c r="CF33" s="1"/>
       <c r="CG33" s="1"/>
       <c r="CH33" s="1"/>
-      <c r="CI33" s="66"/>
-      <c r="CJ33" s="60"/>
+      <c r="CI33" s="59"/>
+      <c r="CJ33" s="55"/>
       <c r="CK33" s="2"/>
       <c r="CL33" s="2"/>
       <c r="CM33" s="2"/>
@@ -4049,13 +4082,13 @@
       <c r="DA33" s="2"/>
       <c r="DB33" s="2"/>
       <c r="DC33" s="2"/>
-      <c r="DD33" s="46"/>
+      <c r="DD33" s="42"/>
     </row>
     <row r="34" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="60"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -4075,8 +4108,8 @@
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="47"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="43"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
@@ -4096,8 +4129,8 @@
       <c r="AP34" s="1"/>
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
-      <c r="AS34" s="66"/>
-      <c r="AT34" s="60"/>
+      <c r="AS34" s="59"/>
+      <c r="AT34" s="55"/>
       <c r="AU34" s="2"/>
       <c r="AV34" s="25"/>
       <c r="AW34" s="25"/>
@@ -4117,8 +4150,8 @@
       <c r="BK34" s="2"/>
       <c r="BL34" s="2"/>
       <c r="BM34" s="2"/>
-      <c r="BN34" s="46"/>
-      <c r="BO34" s="47"/>
+      <c r="BN34" s="42"/>
+      <c r="BO34" s="43"/>
       <c r="BP34" s="1"/>
       <c r="BQ34" s="1"/>
       <c r="BR34" s="1"/>
@@ -4138,8 +4171,8 @@
       <c r="CF34" s="1"/>
       <c r="CG34" s="1"/>
       <c r="CH34" s="1"/>
-      <c r="CI34" s="66"/>
-      <c r="CJ34" s="60"/>
+      <c r="CI34" s="59"/>
+      <c r="CJ34" s="55"/>
       <c r="CK34" s="2"/>
       <c r="CL34" s="2"/>
       <c r="CM34" s="2"/>
@@ -4159,13 +4192,13 @@
       <c r="DA34" s="2"/>
       <c r="DB34" s="2"/>
       <c r="DC34" s="2"/>
-      <c r="DD34" s="46"/>
+      <c r="DD34" s="42"/>
     </row>
     <row r="35" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="60"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -4185,8 +4218,8 @@
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="47"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="43"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
@@ -4206,8 +4239,8 @@
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
-      <c r="AS35" s="66"/>
-      <c r="AT35" s="60"/>
+      <c r="AS35" s="59"/>
+      <c r="AT35" s="55"/>
       <c r="AU35" s="2"/>
       <c r="AV35" s="2"/>
       <c r="AW35" s="2"/>
@@ -4227,8 +4260,8 @@
       <c r="BK35" s="2"/>
       <c r="BL35" s="2"/>
       <c r="BM35" s="2"/>
-      <c r="BN35" s="46"/>
-      <c r="BO35" s="47"/>
+      <c r="BN35" s="42"/>
+      <c r="BO35" s="43"/>
       <c r="BP35" s="1"/>
       <c r="BQ35" s="1"/>
       <c r="BR35" s="1"/>
@@ -4248,8 +4281,8 @@
       <c r="CF35" s="1"/>
       <c r="CG35" s="1"/>
       <c r="CH35" s="1"/>
-      <c r="CI35" s="66"/>
-      <c r="CJ35" s="60"/>
+      <c r="CI35" s="59"/>
+      <c r="CJ35" s="55"/>
       <c r="CK35" s="2"/>
       <c r="CL35" s="2"/>
       <c r="CM35" s="2"/>
@@ -4269,13 +4302,13 @@
       <c r="DA35" s="2"/>
       <c r="DB35" s="2"/>
       <c r="DC35" s="2"/>
-      <c r="DD35" s="46"/>
+      <c r="DD35" s="42"/>
     </row>
     <row r="36" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="60"/>
+      <c r="D36" s="55"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -4295,8 +4328,8 @@
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="47"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="43"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
@@ -4316,8 +4349,8 @@
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
-      <c r="AS36" s="66"/>
-      <c r="AT36" s="60"/>
+      <c r="AS36" s="59"/>
+      <c r="AT36" s="55"/>
       <c r="AU36" s="2"/>
       <c r="AV36" s="2"/>
       <c r="AW36" s="2"/>
@@ -4337,8 +4370,8 @@
       <c r="BK36" s="2"/>
       <c r="BL36" s="2"/>
       <c r="BM36" s="2"/>
-      <c r="BN36" s="46"/>
-      <c r="BO36" s="47"/>
+      <c r="BN36" s="42"/>
+      <c r="BO36" s="43"/>
       <c r="BP36" s="1"/>
       <c r="BQ36" s="1"/>
       <c r="BR36" s="1"/>
@@ -4358,8 +4391,8 @@
       <c r="CF36" s="1"/>
       <c r="CG36" s="1"/>
       <c r="CH36" s="1"/>
-      <c r="CI36" s="66"/>
-      <c r="CJ36" s="60"/>
+      <c r="CI36" s="59"/>
+      <c r="CJ36" s="55"/>
       <c r="CK36" s="2"/>
       <c r="CL36" s="2"/>
       <c r="CM36" s="2"/>
@@ -4379,13 +4412,13 @@
       <c r="DA36" s="2"/>
       <c r="DB36" s="2"/>
       <c r="DC36" s="2"/>
-      <c r="DD36" s="46"/>
+      <c r="DD36" s="42"/>
     </row>
     <row r="37" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="60"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -4405,8 +4438,8 @@
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="47"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="43"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
@@ -4426,8 +4459,8 @@
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
-      <c r="AS37" s="66"/>
-      <c r="AT37" s="79"/>
+      <c r="AS37" s="59"/>
+      <c r="AT37" s="72"/>
       <c r="AU37" s="30"/>
       <c r="AV37" s="30"/>
       <c r="AW37" s="31"/>
@@ -4447,8 +4480,8 @@
       <c r="BK37" s="2"/>
       <c r="BL37" s="2"/>
       <c r="BM37" s="2"/>
-      <c r="BN37" s="46"/>
-      <c r="BO37" s="47"/>
+      <c r="BN37" s="42"/>
+      <c r="BO37" s="43"/>
       <c r="BP37" s="1"/>
       <c r="BQ37" s="1"/>
       <c r="BR37" s="1"/>
@@ -4468,8 +4501,8 @@
       <c r="CF37" s="1"/>
       <c r="CG37" s="1"/>
       <c r="CH37" s="1"/>
-      <c r="CI37" s="66"/>
-      <c r="CJ37" s="60"/>
+      <c r="CI37" s="59"/>
+      <c r="CJ37" s="55"/>
       <c r="CK37" s="2"/>
       <c r="CL37" s="2"/>
       <c r="CM37" s="2"/>
@@ -4489,13 +4522,13 @@
       <c r="DA37" s="2"/>
       <c r="DB37" s="2"/>
       <c r="DC37" s="2"/>
-      <c r="DD37" s="46"/>
+      <c r="DD37" s="42"/>
     </row>
     <row r="38" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="60"/>
+      <c r="D38" s="55"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -4515,8 +4548,8 @@
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
-      <c r="X38" s="46"/>
-      <c r="Y38" s="47"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="43"/>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
@@ -4536,8 +4569,8 @@
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
-      <c r="AS38" s="66"/>
-      <c r="AT38" s="80"/>
+      <c r="AS38" s="59"/>
+      <c r="AT38" s="73"/>
       <c r="AU38" s="28"/>
       <c r="AV38" s="28"/>
       <c r="AW38" s="28"/>
@@ -4557,8 +4590,8 @@
       <c r="BK38" s="2"/>
       <c r="BL38" s="2"/>
       <c r="BM38" s="2"/>
-      <c r="BN38" s="46"/>
-      <c r="BO38" s="47"/>
+      <c r="BN38" s="42"/>
+      <c r="BO38" s="43"/>
       <c r="BP38" s="1"/>
       <c r="BQ38" s="1"/>
       <c r="BR38" s="1"/>
@@ -4578,8 +4611,8 @@
       <c r="CF38" s="1"/>
       <c r="CG38" s="1"/>
       <c r="CH38" s="1"/>
-      <c r="CI38" s="66"/>
-      <c r="CJ38" s="60"/>
+      <c r="CI38" s="59"/>
+      <c r="CJ38" s="55"/>
       <c r="CK38" s="2"/>
       <c r="CL38" s="2"/>
       <c r="CM38" s="2"/>
@@ -4599,13 +4632,13 @@
       <c r="DA38" s="2"/>
       <c r="DB38" s="2"/>
       <c r="DC38" s="2"/>
-      <c r="DD38" s="46"/>
+      <c r="DD38" s="42"/>
     </row>
     <row r="39" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="60"/>
+      <c r="D39" s="55"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -4625,8 +4658,8 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
-      <c r="X39" s="46"/>
-      <c r="Y39" s="47"/>
+      <c r="X39" s="42"/>
+      <c r="Y39" s="43"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
@@ -4646,8 +4679,8 @@
       <c r="AP39" s="1"/>
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
-      <c r="AS39" s="66"/>
-      <c r="AT39" s="81"/>
+      <c r="AS39" s="59"/>
+      <c r="AT39" s="74"/>
       <c r="AU39" s="32"/>
       <c r="AV39" s="32"/>
       <c r="AW39" s="32"/>
@@ -4667,8 +4700,8 @@
       <c r="BK39" s="2"/>
       <c r="BL39" s="2"/>
       <c r="BM39" s="2"/>
-      <c r="BN39" s="46"/>
-      <c r="BO39" s="47"/>
+      <c r="BN39" s="42"/>
+      <c r="BO39" s="43"/>
       <c r="BP39" s="1"/>
       <c r="BQ39" s="1"/>
       <c r="BR39" s="1"/>
@@ -4688,8 +4721,8 @@
       <c r="CF39" s="1"/>
       <c r="CG39" s="1"/>
       <c r="CH39" s="1"/>
-      <c r="CI39" s="66"/>
-      <c r="CJ39" s="60"/>
+      <c r="CI39" s="59"/>
+      <c r="CJ39" s="55"/>
       <c r="CK39" s="2"/>
       <c r="CL39" s="2"/>
       <c r="CM39" s="2"/>
@@ -4709,13 +4742,13 @@
       <c r="DA39" s="2"/>
       <c r="DB39" s="2"/>
       <c r="DC39" s="2"/>
-      <c r="DD39" s="46"/>
+      <c r="DD39" s="42"/>
     </row>
     <row r="40" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="60"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -4735,8 +4768,8 @@
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
-      <c r="X40" s="46"/>
-      <c r="Y40" s="47"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="43"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
@@ -4756,8 +4789,8 @@
       <c r="AP40" s="1"/>
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
-      <c r="AS40" s="66"/>
-      <c r="AT40" s="60"/>
+      <c r="AS40" s="59"/>
+      <c r="AT40" s="55"/>
       <c r="AU40" s="2"/>
       <c r="AV40" s="2"/>
       <c r="AW40" s="2"/>
@@ -4777,8 +4810,8 @@
       <c r="BK40" s="2"/>
       <c r="BL40" s="2"/>
       <c r="BM40" s="2"/>
-      <c r="BN40" s="46"/>
-      <c r="BO40" s="47"/>
+      <c r="BN40" s="42"/>
+      <c r="BO40" s="43"/>
       <c r="BP40" s="1"/>
       <c r="BQ40" s="1"/>
       <c r="BR40" s="1"/>
@@ -4798,8 +4831,8 @@
       <c r="CF40" s="1"/>
       <c r="CG40" s="1"/>
       <c r="CH40" s="1"/>
-      <c r="CI40" s="66"/>
-      <c r="CJ40" s="60"/>
+      <c r="CI40" s="59"/>
+      <c r="CJ40" s="55"/>
       <c r="CK40" s="2"/>
       <c r="CL40" s="2"/>
       <c r="CM40" s="2"/>
@@ -4819,13 +4852,13 @@
       <c r="DA40" s="2"/>
       <c r="DB40" s="2"/>
       <c r="DC40" s="2"/>
-      <c r="DD40" s="46"/>
+      <c r="DD40" s="42"/>
     </row>
     <row r="41" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="60"/>
+      <c r="D41" s="55"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -4845,8 +4878,8 @@
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
-      <c r="X41" s="46"/>
-      <c r="Y41" s="47"/>
+      <c r="X41" s="42"/>
+      <c r="Y41" s="43"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
@@ -4866,8 +4899,8 @@
       <c r="AP41" s="1"/>
       <c r="AQ41" s="1"/>
       <c r="AR41" s="1"/>
-      <c r="AS41" s="66"/>
-      <c r="AT41" s="60"/>
+      <c r="AS41" s="59"/>
+      <c r="AT41" s="55"/>
       <c r="AU41" s="2"/>
       <c r="AV41" s="2"/>
       <c r="AW41" s="2"/>
@@ -4887,8 +4920,8 @@
       <c r="BK41" s="2"/>
       <c r="BL41" s="2"/>
       <c r="BM41" s="2"/>
-      <c r="BN41" s="46"/>
-      <c r="BO41" s="47"/>
+      <c r="BN41" s="42"/>
+      <c r="BO41" s="43"/>
       <c r="BP41" s="1"/>
       <c r="BQ41" s="1"/>
       <c r="BR41" s="1"/>
@@ -4908,8 +4941,8 @@
       <c r="CF41" s="1"/>
       <c r="CG41" s="1"/>
       <c r="CH41" s="1"/>
-      <c r="CI41" s="66"/>
-      <c r="CJ41" s="60"/>
+      <c r="CI41" s="59"/>
+      <c r="CJ41" s="55"/>
       <c r="CK41" s="2"/>
       <c r="CL41" s="2"/>
       <c r="CM41" s="2"/>
@@ -4929,13 +4962,13 @@
       <c r="DA41" s="2"/>
       <c r="DB41" s="2"/>
       <c r="DC41" s="2"/>
-      <c r="DD41" s="46"/>
+      <c r="DD41" s="42"/>
     </row>
     <row r="42" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="60"/>
+      <c r="D42" s="55"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -4955,8 +4988,8 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="47"/>
+      <c r="X42" s="42"/>
+      <c r="Y42" s="43"/>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
@@ -4976,8 +5009,8 @@
       <c r="AP42" s="1"/>
       <c r="AQ42" s="1"/>
       <c r="AR42" s="1"/>
-      <c r="AS42" s="66"/>
-      <c r="AT42" s="60"/>
+      <c r="AS42" s="59"/>
+      <c r="AT42" s="55"/>
       <c r="AU42" s="2"/>
       <c r="AV42" s="2"/>
       <c r="AW42" s="2"/>
@@ -4997,8 +5030,8 @@
       <c r="BK42" s="2"/>
       <c r="BL42" s="2"/>
       <c r="BM42" s="2"/>
-      <c r="BN42" s="46"/>
-      <c r="BO42" s="47"/>
+      <c r="BN42" s="42"/>
+      <c r="BO42" s="43"/>
       <c r="BP42" s="1"/>
       <c r="BQ42" s="1"/>
       <c r="BR42" s="1"/>
@@ -5018,8 +5051,8 @@
       <c r="CF42" s="1"/>
       <c r="CG42" s="1"/>
       <c r="CH42" s="1"/>
-      <c r="CI42" s="66"/>
-      <c r="CJ42" s="60"/>
+      <c r="CI42" s="59"/>
+      <c r="CJ42" s="55"/>
       <c r="CK42" s="2"/>
       <c r="CL42" s="2"/>
       <c r="CM42" s="2"/>
@@ -5039,13 +5072,13 @@
       <c r="DA42" s="2"/>
       <c r="DB42" s="2"/>
       <c r="DC42" s="2"/>
-      <c r="DD42" s="46"/>
+      <c r="DD42" s="42"/>
     </row>
     <row r="43" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="60"/>
+      <c r="D43" s="55"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -5065,8 +5098,8 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
-      <c r="X43" s="46"/>
-      <c r="Y43" s="47"/>
+      <c r="X43" s="42"/>
+      <c r="Y43" s="43"/>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
@@ -5086,8 +5119,8 @@
       <c r="AP43" s="1"/>
       <c r="AQ43" s="1"/>
       <c r="AR43" s="1"/>
-      <c r="AS43" s="66"/>
-      <c r="AT43" s="60"/>
+      <c r="AS43" s="59"/>
+      <c r="AT43" s="55"/>
       <c r="AU43" s="2"/>
       <c r="AV43" s="2"/>
       <c r="AW43" s="2"/>
@@ -5107,8 +5140,8 @@
       <c r="BK43" s="36"/>
       <c r="BL43" s="2"/>
       <c r="BM43" s="2"/>
-      <c r="BN43" s="46"/>
-      <c r="BO43" s="47"/>
+      <c r="BN43" s="42"/>
+      <c r="BO43" s="43"/>
       <c r="BP43" s="1"/>
       <c r="BQ43" s="1"/>
       <c r="BR43" s="1"/>
@@ -5128,8 +5161,8 @@
       <c r="CF43" s="1"/>
       <c r="CG43" s="1"/>
       <c r="CH43" s="1"/>
-      <c r="CI43" s="66"/>
-      <c r="CJ43" s="60"/>
+      <c r="CI43" s="59"/>
+      <c r="CJ43" s="55"/>
       <c r="CK43" s="2"/>
       <c r="CL43" s="2"/>
       <c r="CM43" s="2"/>
@@ -5149,13 +5182,13 @@
       <c r="DA43" s="2"/>
       <c r="DB43" s="2"/>
       <c r="DC43" s="2"/>
-      <c r="DD43" s="46"/>
+      <c r="DD43" s="42"/>
     </row>
     <row r="44" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="60"/>
+      <c r="D44" s="55"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -5175,8 +5208,8 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
-      <c r="X44" s="46"/>
-      <c r="Y44" s="47"/>
+      <c r="X44" s="42"/>
+      <c r="Y44" s="43"/>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
@@ -5196,8 +5229,8 @@
       <c r="AP44" s="1"/>
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1"/>
-      <c r="AS44" s="66"/>
-      <c r="AT44" s="60"/>
+      <c r="AS44" s="59"/>
+      <c r="AT44" s="55"/>
       <c r="AU44" s="2"/>
       <c r="AV44" s="2"/>
       <c r="AW44" s="2"/>
@@ -5217,8 +5250,8 @@
       <c r="BK44" s="2"/>
       <c r="BL44" s="37"/>
       <c r="BM44" s="37"/>
-      <c r="BN44" s="82"/>
-      <c r="BO44" s="47"/>
+      <c r="BN44" s="75"/>
+      <c r="BO44" s="43"/>
       <c r="BP44" s="1"/>
       <c r="BQ44" s="1"/>
       <c r="BR44" s="1"/>
@@ -5238,8 +5271,8 @@
       <c r="CF44" s="1"/>
       <c r="CG44" s="1"/>
       <c r="CH44" s="1"/>
-      <c r="CI44" s="66"/>
-      <c r="CJ44" s="60"/>
+      <c r="CI44" s="59"/>
+      <c r="CJ44" s="55"/>
       <c r="CK44" s="2"/>
       <c r="CL44" s="2"/>
       <c r="CM44" s="2"/>
@@ -5259,13 +5292,13 @@
       <c r="DA44" s="2"/>
       <c r="DB44" s="2"/>
       <c r="DC44" s="2"/>
-      <c r="DD44" s="46"/>
+      <c r="DD44" s="42"/>
     </row>
     <row r="45" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="60"/>
+      <c r="D45" s="55"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -5285,8 +5318,8 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
-      <c r="X45" s="46"/>
-      <c r="Y45" s="47"/>
+      <c r="X45" s="42"/>
+      <c r="Y45" s="43"/>
       <c r="Z45" s="39"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
@@ -5306,8 +5339,8 @@
       <c r="AP45" s="1"/>
       <c r="AQ45" s="1"/>
       <c r="AR45" s="1"/>
-      <c r="AS45" s="73"/>
-      <c r="AT45" s="83"/>
+      <c r="AS45" s="66"/>
+      <c r="AT45" s="76"/>
       <c r="AU45" s="39"/>
       <c r="AV45" s="2"/>
       <c r="AW45" s="2"/>
@@ -5327,8 +5360,8 @@
       <c r="BK45" s="2"/>
       <c r="BL45" s="2"/>
       <c r="BM45" s="2"/>
-      <c r="BN45" s="73"/>
-      <c r="BO45" s="83"/>
+      <c r="BN45" s="66"/>
+      <c r="BO45" s="76"/>
       <c r="BP45" s="39"/>
       <c r="BQ45" s="1"/>
       <c r="BR45" s="1"/>
@@ -5348,8 +5381,8 @@
       <c r="CF45" s="1"/>
       <c r="CG45" s="1"/>
       <c r="CH45" s="1"/>
-      <c r="CI45" s="66"/>
-      <c r="CJ45" s="60"/>
+      <c r="CI45" s="59"/>
+      <c r="CJ45" s="55"/>
       <c r="CK45" s="2"/>
       <c r="CL45" s="2"/>
       <c r="CM45" s="2"/>
@@ -5369,13 +5402,13 @@
       <c r="DA45" s="2"/>
       <c r="DB45" s="2"/>
       <c r="DC45" s="2"/>
-      <c r="DD45" s="46"/>
+      <c r="DD45" s="42"/>
     </row>
     <row r="46" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="60"/>
+      <c r="D46" s="55"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -5395,8 +5428,8 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
-      <c r="X46" s="46"/>
-      <c r="Y46" s="47"/>
+      <c r="X46" s="42"/>
+      <c r="Y46" s="43"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
@@ -5416,8 +5449,8 @@
       <c r="AP46" s="1"/>
       <c r="AQ46" s="1"/>
       <c r="AR46" s="1"/>
-      <c r="AS46" s="66"/>
-      <c r="AT46" s="60"/>
+      <c r="AS46" s="59"/>
+      <c r="AT46" s="55"/>
       <c r="AU46" s="2"/>
       <c r="AV46" s="2"/>
       <c r="AW46" s="2"/>
@@ -5437,8 +5470,8 @@
       <c r="BK46" s="2"/>
       <c r="BL46" s="2"/>
       <c r="BM46" s="2"/>
-      <c r="BN46" s="46"/>
-      <c r="BO46" s="47"/>
+      <c r="BN46" s="42"/>
+      <c r="BO46" s="43"/>
       <c r="BP46" s="1"/>
       <c r="BQ46" s="1"/>
       <c r="BR46" s="1"/>
@@ -5453,15 +5486,15 @@
       <c r="CA46" s="1"/>
       <c r="CB46" s="1"/>
       <c r="CC46" s="1"/>
-      <c r="CD46" s="41"/>
-      <c r="CE46" s="41"/>
-      <c r="CF46" s="41"/>
-      <c r="CG46" s="41"/>
-      <c r="CH46" s="41"/>
-      <c r="CI46" s="85"/>
-      <c r="CJ46" s="87"/>
-      <c r="CK46" s="41"/>
-      <c r="CL46" s="41"/>
+      <c r="CD46" s="40"/>
+      <c r="CE46" s="40"/>
+      <c r="CF46" s="40"/>
+      <c r="CG46" s="40"/>
+      <c r="CH46" s="40"/>
+      <c r="CI46" s="78"/>
+      <c r="CJ46" s="80"/>
+      <c r="CK46" s="40"/>
+      <c r="CL46" s="40"/>
       <c r="CM46" s="2"/>
       <c r="CN46" s="2"/>
       <c r="CO46" s="2"/>
@@ -5479,142 +5512,125 @@
       <c r="DA46" s="2"/>
       <c r="DB46" s="2"/>
       <c r="DC46" s="2"/>
-      <c r="DD46" s="46"/>
+      <c r="DD46" s="42"/>
     </row>
     <row r="47" spans="3:108" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="50"/>
-      <c r="O47" s="50"/>
-      <c r="P47" s="50"/>
-      <c r="Q47" s="50"/>
-      <c r="R47" s="50"/>
-      <c r="S47" s="50"/>
-      <c r="T47" s="50"/>
-      <c r="U47" s="50"/>
-      <c r="V47" s="50"/>
-      <c r="W47" s="50"/>
-      <c r="X47" s="53"/>
-      <c r="Y47" s="49"/>
-      <c r="Z47" s="51"/>
-      <c r="AA47" s="51"/>
-      <c r="AB47" s="51"/>
-      <c r="AC47" s="51"/>
-      <c r="AD47" s="51"/>
-      <c r="AE47" s="51"/>
-      <c r="AF47" s="51"/>
-      <c r="AG47" s="51"/>
-      <c r="AH47" s="51"/>
-      <c r="AI47" s="51"/>
-      <c r="AJ47" s="51"/>
-      <c r="AK47" s="51"/>
-      <c r="AL47" s="51"/>
-      <c r="AM47" s="51"/>
-      <c r="AN47" s="51"/>
-      <c r="AO47" s="51"/>
-      <c r="AP47" s="51"/>
-      <c r="AQ47" s="51"/>
-      <c r="AR47" s="51"/>
-      <c r="AS47" s="74"/>
-      <c r="AT47" s="63"/>
-      <c r="AU47" s="50"/>
-      <c r="AV47" s="50"/>
-      <c r="AW47" s="50"/>
-      <c r="AX47" s="50"/>
-      <c r="AY47" s="50"/>
-      <c r="AZ47" s="50"/>
-      <c r="BA47" s="50"/>
-      <c r="BB47" s="50"/>
-      <c r="BC47" s="50"/>
-      <c r="BD47" s="50"/>
-      <c r="BE47" s="50"/>
-      <c r="BF47" s="50"/>
-      <c r="BG47" s="50"/>
-      <c r="BH47" s="50"/>
-      <c r="BI47" s="50"/>
-      <c r="BJ47" s="50"/>
-      <c r="BK47" s="50"/>
-      <c r="BL47" s="50"/>
-      <c r="BM47" s="50"/>
-      <c r="BN47" s="53"/>
-      <c r="BO47" s="49"/>
-      <c r="BP47" s="51"/>
-      <c r="BQ47" s="51"/>
-      <c r="BR47" s="51"/>
-      <c r="BS47" s="51"/>
-      <c r="BT47" s="51"/>
-      <c r="BU47" s="51"/>
-      <c r="BV47" s="51"/>
-      <c r="BW47" s="51"/>
-      <c r="BX47" s="51"/>
-      <c r="BY47" s="51"/>
-      <c r="BZ47" s="51"/>
-      <c r="CA47" s="51"/>
-      <c r="CB47" s="51"/>
-      <c r="CC47" s="51"/>
-      <c r="CD47" s="51"/>
-      <c r="CE47" s="51"/>
-      <c r="CF47" s="51"/>
-      <c r="CG47" s="52"/>
-      <c r="CH47" s="52"/>
-      <c r="CI47" s="86"/>
-      <c r="CJ47" s="88"/>
-      <c r="CK47" s="52"/>
-      <c r="CL47" s="52"/>
-      <c r="CM47" s="52"/>
-      <c r="CN47" s="52"/>
-      <c r="CO47" s="52"/>
-      <c r="CP47" s="50"/>
-      <c r="CQ47" s="50"/>
-      <c r="CR47" s="50"/>
-      <c r="CS47" s="50"/>
-      <c r="CT47" s="50"/>
-      <c r="CU47" s="50"/>
-      <c r="CV47" s="50"/>
-      <c r="CW47" s="50"/>
-      <c r="CX47" s="50"/>
-      <c r="CY47" s="50"/>
-      <c r="CZ47" s="50"/>
-      <c r="DA47" s="50"/>
-      <c r="DB47" s="50"/>
-      <c r="DC47" s="50"/>
-      <c r="DD47" s="53"/>
-    </row>
-    <row r="50" spans="71:71" x14ac:dyDescent="0.35">
-      <c r="BS50" s="40"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="46"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="46"/>
+      <c r="X47" s="49"/>
+      <c r="Y47" s="45"/>
+      <c r="Z47" s="47"/>
+      <c r="AA47" s="47"/>
+      <c r="AB47" s="47"/>
+      <c r="AC47" s="47"/>
+      <c r="AD47" s="47"/>
+      <c r="AE47" s="47"/>
+      <c r="AF47" s="47"/>
+      <c r="AG47" s="47"/>
+      <c r="AH47" s="47"/>
+      <c r="AI47" s="47"/>
+      <c r="AJ47" s="47"/>
+      <c r="AK47" s="47"/>
+      <c r="AL47" s="47"/>
+      <c r="AM47" s="47"/>
+      <c r="AN47" s="47"/>
+      <c r="AO47" s="47"/>
+      <c r="AP47" s="47"/>
+      <c r="AQ47" s="47"/>
+      <c r="AR47" s="47"/>
+      <c r="AS47" s="67"/>
+      <c r="AT47" s="58"/>
+      <c r="AU47" s="46"/>
+      <c r="AV47" s="46"/>
+      <c r="AW47" s="46"/>
+      <c r="AX47" s="46"/>
+      <c r="AY47" s="46"/>
+      <c r="AZ47" s="46"/>
+      <c r="BA47" s="46"/>
+      <c r="BB47" s="46"/>
+      <c r="BC47" s="46"/>
+      <c r="BD47" s="46"/>
+      <c r="BE47" s="46"/>
+      <c r="BF47" s="46"/>
+      <c r="BG47" s="46"/>
+      <c r="BH47" s="46"/>
+      <c r="BI47" s="46"/>
+      <c r="BJ47" s="46"/>
+      <c r="BK47" s="46"/>
+      <c r="BL47" s="46"/>
+      <c r="BM47" s="46"/>
+      <c r="BN47" s="49"/>
+      <c r="BO47" s="45"/>
+      <c r="BP47" s="47"/>
+      <c r="BQ47" s="47"/>
+      <c r="BR47" s="47"/>
+      <c r="BS47" s="47"/>
+      <c r="BT47" s="47"/>
+      <c r="BU47" s="47"/>
+      <c r="BV47" s="47"/>
+      <c r="BW47" s="47"/>
+      <c r="BX47" s="47"/>
+      <c r="BY47" s="47"/>
+      <c r="BZ47" s="47"/>
+      <c r="CA47" s="47"/>
+      <c r="CB47" s="47"/>
+      <c r="CC47" s="47"/>
+      <c r="CD47" s="47"/>
+      <c r="CE47" s="47"/>
+      <c r="CF47" s="47"/>
+      <c r="CG47" s="48"/>
+      <c r="CH47" s="48"/>
+      <c r="CI47" s="79"/>
+      <c r="CJ47" s="81"/>
+      <c r="CK47" s="48"/>
+      <c r="CL47" s="48"/>
+      <c r="CM47" s="48"/>
+      <c r="CN47" s="48"/>
+      <c r="CO47" s="48"/>
+      <c r="CP47" s="46"/>
+      <c r="CQ47" s="46"/>
+      <c r="CR47" s="46"/>
+      <c r="CS47" s="46"/>
+      <c r="CT47" s="46"/>
+      <c r="CU47" s="46"/>
+      <c r="CV47" s="46"/>
+      <c r="CW47" s="46"/>
+      <c r="CX47" s="46"/>
+      <c r="CY47" s="46"/>
+      <c r="CZ47" s="46"/>
+      <c r="DA47" s="46"/>
+      <c r="DB47" s="46"/>
+      <c r="DC47" s="46"/>
+      <c r="DD47" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="CJ11:DD12"/>
-    <mergeCell ref="CJ13:CL13"/>
-    <mergeCell ref="CM13:CO13"/>
-    <mergeCell ref="CP13:CR13"/>
-    <mergeCell ref="CS13:CU13"/>
-    <mergeCell ref="CV13:CX13"/>
-    <mergeCell ref="CY13:DA13"/>
-    <mergeCell ref="DB13:DD13"/>
-    <mergeCell ref="CA13:CC13"/>
-    <mergeCell ref="CD13:CF13"/>
-    <mergeCell ref="CG13:CI13"/>
-    <mergeCell ref="AT11:BN12"/>
-    <mergeCell ref="BO11:CI12"/>
-    <mergeCell ref="BL13:BN13"/>
-    <mergeCell ref="BO13:BQ13"/>
-    <mergeCell ref="BR13:BT13"/>
-    <mergeCell ref="BU13:BW13"/>
-    <mergeCell ref="BX13:BZ13"/>
-    <mergeCell ref="BC13:BE13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:R13"/>
     <mergeCell ref="D11:X12"/>
     <mergeCell ref="Y11:AS12"/>
     <mergeCell ref="BF13:BH13"/>
@@ -5631,11 +5647,25 @@
     <mergeCell ref="AB13:AD13"/>
     <mergeCell ref="AE13:AG13"/>
     <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="CA13:CC13"/>
+    <mergeCell ref="CD13:CF13"/>
+    <mergeCell ref="CG13:CI13"/>
+    <mergeCell ref="AT11:BN12"/>
+    <mergeCell ref="BO11:CI12"/>
+    <mergeCell ref="BL13:BN13"/>
+    <mergeCell ref="BO13:BQ13"/>
+    <mergeCell ref="BR13:BT13"/>
+    <mergeCell ref="BU13:BW13"/>
+    <mergeCell ref="BX13:BZ13"/>
+    <mergeCell ref="BC13:BE13"/>
+    <mergeCell ref="CJ11:DD12"/>
+    <mergeCell ref="CJ13:CL13"/>
+    <mergeCell ref="CM13:CO13"/>
+    <mergeCell ref="CP13:CR13"/>
+    <mergeCell ref="CS13:CU13"/>
+    <mergeCell ref="CV13:CX13"/>
+    <mergeCell ref="CY13:DA13"/>
+    <mergeCell ref="DB13:DD13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5647,8 +5677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625F224F-3EB0-436A-9277-708D05AA5922}">
   <dimension ref="C5:DD42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W75" sqref="W75"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R62" sqref="R62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5659,416 +5689,416 @@
   <sheetData>
     <row r="5" spans="3:108" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C6" s="54"/>
-      <c r="D6" s="59" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="64" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="91"/>
+      <c r="Y6" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="43"/>
-      <c r="AF6" s="43"/>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="43"/>
-      <c r="AI6" s="43"/>
-      <c r="AJ6" s="43"/>
-      <c r="AK6" s="43"/>
-      <c r="AL6" s="43"/>
-      <c r="AM6" s="43"/>
-      <c r="AN6" s="43"/>
-      <c r="AO6" s="43"/>
-      <c r="AP6" s="43"/>
-      <c r="AQ6" s="43"/>
-      <c r="AR6" s="43"/>
-      <c r="AS6" s="65"/>
-      <c r="AT6" s="59" t="s">
+      <c r="Z6" s="102"/>
+      <c r="AA6" s="102"/>
+      <c r="AB6" s="102"/>
+      <c r="AC6" s="102"/>
+      <c r="AD6" s="102"/>
+      <c r="AE6" s="102"/>
+      <c r="AF6" s="102"/>
+      <c r="AG6" s="102"/>
+      <c r="AH6" s="102"/>
+      <c r="AI6" s="102"/>
+      <c r="AJ6" s="102"/>
+      <c r="AK6" s="102"/>
+      <c r="AL6" s="102"/>
+      <c r="AM6" s="102"/>
+      <c r="AN6" s="102"/>
+      <c r="AO6" s="102"/>
+      <c r="AP6" s="102"/>
+      <c r="AQ6" s="102"/>
+      <c r="AR6" s="102"/>
+      <c r="AS6" s="103"/>
+      <c r="AT6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="AU6" s="42"/>
-      <c r="AV6" s="42"/>
-      <c r="AW6" s="42"/>
-      <c r="AX6" s="42"/>
-      <c r="AY6" s="42"/>
-      <c r="AZ6" s="42"/>
-      <c r="BA6" s="42"/>
-      <c r="BB6" s="42"/>
-      <c r="BC6" s="42"/>
-      <c r="BD6" s="42"/>
-      <c r="BE6" s="42"/>
-      <c r="BF6" s="42"/>
-      <c r="BG6" s="42"/>
-      <c r="BH6" s="42"/>
-      <c r="BI6" s="42"/>
-      <c r="BJ6" s="42"/>
-      <c r="BK6" s="42"/>
-      <c r="BL6" s="42"/>
-      <c r="BM6" s="42"/>
-      <c r="BN6" s="44"/>
-      <c r="BO6" s="64" t="s">
+      <c r="AU6" s="90"/>
+      <c r="AV6" s="90"/>
+      <c r="AW6" s="90"/>
+      <c r="AX6" s="90"/>
+      <c r="AY6" s="90"/>
+      <c r="AZ6" s="90"/>
+      <c r="BA6" s="90"/>
+      <c r="BB6" s="90"/>
+      <c r="BC6" s="90"/>
+      <c r="BD6" s="90"/>
+      <c r="BE6" s="90"/>
+      <c r="BF6" s="90"/>
+      <c r="BG6" s="90"/>
+      <c r="BH6" s="90"/>
+      <c r="BI6" s="90"/>
+      <c r="BJ6" s="90"/>
+      <c r="BK6" s="90"/>
+      <c r="BL6" s="90"/>
+      <c r="BM6" s="90"/>
+      <c r="BN6" s="91"/>
+      <c r="BO6" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="BP6" s="43"/>
-      <c r="BQ6" s="43"/>
-      <c r="BR6" s="43"/>
-      <c r="BS6" s="43"/>
-      <c r="BT6" s="43"/>
-      <c r="BU6" s="43"/>
-      <c r="BV6" s="43"/>
-      <c r="BW6" s="43"/>
-      <c r="BX6" s="43"/>
-      <c r="BY6" s="43"/>
-      <c r="BZ6" s="43"/>
-      <c r="CA6" s="43"/>
-      <c r="CB6" s="43"/>
-      <c r="CC6" s="43"/>
-      <c r="CD6" s="43"/>
-      <c r="CE6" s="43"/>
-      <c r="CF6" s="43"/>
-      <c r="CG6" s="43"/>
-      <c r="CH6" s="43"/>
-      <c r="CI6" s="65"/>
-      <c r="CJ6" s="59" t="s">
+      <c r="BP6" s="102"/>
+      <c r="BQ6" s="102"/>
+      <c r="BR6" s="102"/>
+      <c r="BS6" s="102"/>
+      <c r="BT6" s="102"/>
+      <c r="BU6" s="102"/>
+      <c r="BV6" s="102"/>
+      <c r="BW6" s="102"/>
+      <c r="BX6" s="102"/>
+      <c r="BY6" s="102"/>
+      <c r="BZ6" s="102"/>
+      <c r="CA6" s="102"/>
+      <c r="CB6" s="102"/>
+      <c r="CC6" s="102"/>
+      <c r="CD6" s="102"/>
+      <c r="CE6" s="102"/>
+      <c r="CF6" s="102"/>
+      <c r="CG6" s="102"/>
+      <c r="CH6" s="102"/>
+      <c r="CI6" s="103"/>
+      <c r="CJ6" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="CK6" s="42"/>
-      <c r="CL6" s="42"/>
-      <c r="CM6" s="42"/>
-      <c r="CN6" s="42"/>
-      <c r="CO6" s="42"/>
-      <c r="CP6" s="42"/>
-      <c r="CQ6" s="42"/>
-      <c r="CR6" s="42"/>
-      <c r="CS6" s="42"/>
-      <c r="CT6" s="42"/>
-      <c r="CU6" s="42"/>
-      <c r="CV6" s="42"/>
-      <c r="CW6" s="42"/>
-      <c r="CX6" s="42"/>
-      <c r="CY6" s="42"/>
-      <c r="CZ6" s="42"/>
-      <c r="DA6" s="42"/>
-      <c r="DB6" s="42"/>
-      <c r="DC6" s="42"/>
-      <c r="DD6" s="44"/>
+      <c r="CK6" s="90"/>
+      <c r="CL6" s="90"/>
+      <c r="CM6" s="90"/>
+      <c r="CN6" s="90"/>
+      <c r="CO6" s="90"/>
+      <c r="CP6" s="90"/>
+      <c r="CQ6" s="90"/>
+      <c r="CR6" s="90"/>
+      <c r="CS6" s="90"/>
+      <c r="CT6" s="90"/>
+      <c r="CU6" s="90"/>
+      <c r="CV6" s="90"/>
+      <c r="CW6" s="90"/>
+      <c r="CX6" s="90"/>
+      <c r="CY6" s="90"/>
+      <c r="CZ6" s="90"/>
+      <c r="DA6" s="90"/>
+      <c r="DB6" s="90"/>
+      <c r="DC6" s="90"/>
+      <c r="DD6" s="91"/>
     </row>
     <row r="7" spans="3:108" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="55"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="95"/>
-      <c r="U7" s="95"/>
-      <c r="V7" s="95"/>
-      <c r="W7" s="95"/>
-      <c r="X7" s="96"/>
-      <c r="Y7" s="97"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="98"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="98"/>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="98"/>
-      <c r="AL7" s="98"/>
-      <c r="AM7" s="98"/>
-      <c r="AN7" s="98"/>
-      <c r="AO7" s="98"/>
-      <c r="AP7" s="98"/>
-      <c r="AQ7" s="98"/>
-      <c r="AR7" s="98"/>
-      <c r="AS7" s="99"/>
-      <c r="AT7" s="94"/>
-      <c r="AU7" s="95"/>
-      <c r="AV7" s="95"/>
-      <c r="AW7" s="95"/>
-      <c r="AX7" s="95"/>
-      <c r="AY7" s="95"/>
-      <c r="AZ7" s="95"/>
-      <c r="BA7" s="95"/>
-      <c r="BB7" s="95"/>
-      <c r="BC7" s="95"/>
-      <c r="BD7" s="95"/>
-      <c r="BE7" s="95"/>
-      <c r="BF7" s="95"/>
-      <c r="BG7" s="95"/>
-      <c r="BH7" s="95"/>
-      <c r="BI7" s="95"/>
-      <c r="BJ7" s="95"/>
-      <c r="BK7" s="95"/>
-      <c r="BL7" s="95"/>
-      <c r="BM7" s="95"/>
-      <c r="BN7" s="96"/>
-      <c r="BO7" s="97"/>
-      <c r="BP7" s="98"/>
-      <c r="BQ7" s="98"/>
-      <c r="BR7" s="98"/>
-      <c r="BS7" s="98"/>
-      <c r="BT7" s="98"/>
-      <c r="BU7" s="98"/>
-      <c r="BV7" s="98"/>
-      <c r="BW7" s="98"/>
-      <c r="BX7" s="98"/>
-      <c r="BY7" s="98"/>
-      <c r="BZ7" s="98"/>
-      <c r="CA7" s="98"/>
-      <c r="CB7" s="98"/>
-      <c r="CC7" s="98"/>
-      <c r="CD7" s="98"/>
-      <c r="CE7" s="98"/>
-      <c r="CF7" s="98"/>
-      <c r="CG7" s="98"/>
-      <c r="CH7" s="98"/>
-      <c r="CI7" s="99"/>
-      <c r="CJ7" s="94"/>
-      <c r="CK7" s="95"/>
-      <c r="CL7" s="95"/>
-      <c r="CM7" s="95"/>
-      <c r="CN7" s="95"/>
-      <c r="CO7" s="95"/>
-      <c r="CP7" s="95"/>
-      <c r="CQ7" s="95"/>
-      <c r="CR7" s="95"/>
-      <c r="CS7" s="95"/>
-      <c r="CT7" s="95"/>
-      <c r="CU7" s="95"/>
-      <c r="CV7" s="95"/>
-      <c r="CW7" s="95"/>
-      <c r="CX7" s="95"/>
-      <c r="CY7" s="95"/>
-      <c r="CZ7" s="95"/>
-      <c r="DA7" s="95"/>
-      <c r="DB7" s="95"/>
-      <c r="DC7" s="95"/>
-      <c r="DD7" s="96"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="104"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="105"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="105"/>
+      <c r="AE7" s="105"/>
+      <c r="AF7" s="105"/>
+      <c r="AG7" s="105"/>
+      <c r="AH7" s="105"/>
+      <c r="AI7" s="105"/>
+      <c r="AJ7" s="105"/>
+      <c r="AK7" s="105"/>
+      <c r="AL7" s="105"/>
+      <c r="AM7" s="105"/>
+      <c r="AN7" s="105"/>
+      <c r="AO7" s="105"/>
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="105"/>
+      <c r="AR7" s="105"/>
+      <c r="AS7" s="106"/>
+      <c r="AT7" s="92"/>
+      <c r="AU7" s="93"/>
+      <c r="AV7" s="93"/>
+      <c r="AW7" s="93"/>
+      <c r="AX7" s="93"/>
+      <c r="AY7" s="93"/>
+      <c r="AZ7" s="93"/>
+      <c r="BA7" s="93"/>
+      <c r="BB7" s="93"/>
+      <c r="BC7" s="93"/>
+      <c r="BD7" s="93"/>
+      <c r="BE7" s="93"/>
+      <c r="BF7" s="93"/>
+      <c r="BG7" s="93"/>
+      <c r="BH7" s="93"/>
+      <c r="BI7" s="93"/>
+      <c r="BJ7" s="93"/>
+      <c r="BK7" s="93"/>
+      <c r="BL7" s="93"/>
+      <c r="BM7" s="93"/>
+      <c r="BN7" s="94"/>
+      <c r="BO7" s="104"/>
+      <c r="BP7" s="105"/>
+      <c r="BQ7" s="105"/>
+      <c r="BR7" s="105"/>
+      <c r="BS7" s="105"/>
+      <c r="BT7" s="105"/>
+      <c r="BU7" s="105"/>
+      <c r="BV7" s="105"/>
+      <c r="BW7" s="105"/>
+      <c r="BX7" s="105"/>
+      <c r="BY7" s="105"/>
+      <c r="BZ7" s="105"/>
+      <c r="CA7" s="105"/>
+      <c r="CB7" s="105"/>
+      <c r="CC7" s="105"/>
+      <c r="CD7" s="105"/>
+      <c r="CE7" s="105"/>
+      <c r="CF7" s="105"/>
+      <c r="CG7" s="105"/>
+      <c r="CH7" s="105"/>
+      <c r="CI7" s="106"/>
+      <c r="CJ7" s="92"/>
+      <c r="CK7" s="93"/>
+      <c r="CL7" s="93"/>
+      <c r="CM7" s="93"/>
+      <c r="CN7" s="93"/>
+      <c r="CO7" s="93"/>
+      <c r="CP7" s="93"/>
+      <c r="CQ7" s="93"/>
+      <c r="CR7" s="93"/>
+      <c r="CS7" s="93"/>
+      <c r="CT7" s="93"/>
+      <c r="CU7" s="93"/>
+      <c r="CV7" s="93"/>
+      <c r="CW7" s="93"/>
+      <c r="CX7" s="93"/>
+      <c r="CY7" s="93"/>
+      <c r="CZ7" s="93"/>
+      <c r="DA7" s="93"/>
+      <c r="DB7" s="93"/>
+      <c r="DC7" s="93"/>
+      <c r="DD7" s="94"/>
     </row>
     <row r="8" spans="3:108" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="93"/>
-      <c r="D8" s="100" t="s">
+      <c r="C8" s="86"/>
+      <c r="D8" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="101"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="100" t="s">
+      <c r="E8" s="96"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="101"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="100" t="s">
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="101"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="100" t="s">
+      <c r="K8" s="96"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="101"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="100" t="s">
+      <c r="N8" s="96"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="100" t="s">
+      <c r="Q8" s="96"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="T8" s="101"/>
-      <c r="U8" s="102"/>
-      <c r="V8" s="100" t="s">
+      <c r="T8" s="96"/>
+      <c r="U8" s="97"/>
+      <c r="V8" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="W8" s="101"/>
-      <c r="X8" s="102"/>
-      <c r="Y8" s="103" t="s">
+      <c r="W8" s="96"/>
+      <c r="X8" s="97"/>
+      <c r="Y8" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="Z8" s="104"/>
-      <c r="AA8" s="105"/>
-      <c r="AB8" s="103" t="s">
+      <c r="Z8" s="99"/>
+      <c r="AA8" s="100"/>
+      <c r="AB8" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="AC8" s="104"/>
-      <c r="AD8" s="105"/>
-      <c r="AE8" s="103" t="s">
+      <c r="AC8" s="99"/>
+      <c r="AD8" s="100"/>
+      <c r="AE8" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="AF8" s="104"/>
-      <c r="AG8" s="105"/>
-      <c r="AH8" s="103" t="s">
+      <c r="AF8" s="99"/>
+      <c r="AG8" s="100"/>
+      <c r="AH8" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="AI8" s="104"/>
-      <c r="AJ8" s="105"/>
-      <c r="AK8" s="103" t="s">
+      <c r="AI8" s="99"/>
+      <c r="AJ8" s="100"/>
+      <c r="AK8" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="AL8" s="104"/>
-      <c r="AM8" s="105"/>
-      <c r="AN8" s="103" t="s">
+      <c r="AL8" s="99"/>
+      <c r="AM8" s="100"/>
+      <c r="AN8" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="AO8" s="104"/>
-      <c r="AP8" s="105"/>
-      <c r="AQ8" s="103" t="s">
+      <c r="AO8" s="99"/>
+      <c r="AP8" s="100"/>
+      <c r="AQ8" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="AR8" s="104"/>
-      <c r="AS8" s="105"/>
-      <c r="AT8" s="100" t="s">
+      <c r="AR8" s="99"/>
+      <c r="AS8" s="100"/>
+      <c r="AT8" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="AU8" s="101"/>
-      <c r="AV8" s="102"/>
-      <c r="AW8" s="100" t="s">
+      <c r="AU8" s="96"/>
+      <c r="AV8" s="97"/>
+      <c r="AW8" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="AX8" s="101"/>
-      <c r="AY8" s="102"/>
-      <c r="AZ8" s="100" t="s">
+      <c r="AX8" s="96"/>
+      <c r="AY8" s="97"/>
+      <c r="AZ8" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="BA8" s="101"/>
-      <c r="BB8" s="102"/>
-      <c r="BC8" s="100" t="s">
+      <c r="BA8" s="96"/>
+      <c r="BB8" s="97"/>
+      <c r="BC8" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="BD8" s="101"/>
-      <c r="BE8" s="102"/>
-      <c r="BF8" s="100" t="s">
+      <c r="BD8" s="96"/>
+      <c r="BE8" s="97"/>
+      <c r="BF8" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="BG8" s="101"/>
-      <c r="BH8" s="102"/>
-      <c r="BI8" s="100" t="s">
+      <c r="BG8" s="96"/>
+      <c r="BH8" s="97"/>
+      <c r="BI8" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="BJ8" s="101"/>
-      <c r="BK8" s="102"/>
-      <c r="BL8" s="100" t="s">
+      <c r="BJ8" s="96"/>
+      <c r="BK8" s="97"/>
+      <c r="BL8" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="BM8" s="101"/>
-      <c r="BN8" s="102"/>
-      <c r="BO8" s="103" t="s">
+      <c r="BM8" s="96"/>
+      <c r="BN8" s="97"/>
+      <c r="BO8" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="BP8" s="104"/>
-      <c r="BQ8" s="105"/>
-      <c r="BR8" s="103" t="s">
+      <c r="BP8" s="99"/>
+      <c r="BQ8" s="100"/>
+      <c r="BR8" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="BS8" s="104"/>
-      <c r="BT8" s="105"/>
-      <c r="BU8" s="103" t="s">
+      <c r="BS8" s="99"/>
+      <c r="BT8" s="100"/>
+      <c r="BU8" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="BV8" s="104"/>
-      <c r="BW8" s="105"/>
-      <c r="BX8" s="103" t="s">
+      <c r="BV8" s="99"/>
+      <c r="BW8" s="100"/>
+      <c r="BX8" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="BY8" s="104"/>
-      <c r="BZ8" s="105"/>
-      <c r="CA8" s="103" t="s">
+      <c r="BY8" s="99"/>
+      <c r="BZ8" s="100"/>
+      <c r="CA8" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="CB8" s="104"/>
-      <c r="CC8" s="105"/>
-      <c r="CD8" s="103" t="s">
+      <c r="CB8" s="99"/>
+      <c r="CC8" s="100"/>
+      <c r="CD8" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="CE8" s="104"/>
-      <c r="CF8" s="105"/>
-      <c r="CG8" s="103" t="s">
+      <c r="CE8" s="99"/>
+      <c r="CF8" s="100"/>
+      <c r="CG8" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="CH8" s="104"/>
-      <c r="CI8" s="105"/>
-      <c r="CJ8" s="100" t="s">
+      <c r="CH8" s="99"/>
+      <c r="CI8" s="100"/>
+      <c r="CJ8" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="CK8" s="101"/>
-      <c r="CL8" s="102"/>
-      <c r="CM8" s="100" t="s">
+      <c r="CK8" s="96"/>
+      <c r="CL8" s="97"/>
+      <c r="CM8" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="CN8" s="101"/>
-      <c r="CO8" s="102"/>
-      <c r="CP8" s="100" t="s">
+      <c r="CN8" s="96"/>
+      <c r="CO8" s="97"/>
+      <c r="CP8" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="CQ8" s="101"/>
-      <c r="CR8" s="102"/>
-      <c r="CS8" s="100" t="s">
+      <c r="CQ8" s="96"/>
+      <c r="CR8" s="97"/>
+      <c r="CS8" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="CT8" s="101"/>
-      <c r="CU8" s="102"/>
-      <c r="CV8" s="100" t="s">
+      <c r="CT8" s="96"/>
+      <c r="CU8" s="97"/>
+      <c r="CV8" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="CW8" s="101"/>
-      <c r="CX8" s="102"/>
-      <c r="CY8" s="100" t="s">
+      <c r="CW8" s="96"/>
+      <c r="CX8" s="97"/>
+      <c r="CY8" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="CZ8" s="101"/>
-      <c r="DA8" s="102"/>
-      <c r="DB8" s="100" t="s">
+      <c r="CZ8" s="96"/>
+      <c r="DA8" s="97"/>
+      <c r="DB8" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="DC8" s="101"/>
-      <c r="DD8" s="102"/>
+      <c r="DC8" s="96"/>
+      <c r="DD8" s="97"/>
     </row>
     <row r="9" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
@@ -6086,8 +6116,8 @@
       <c r="U9" s="32"/>
       <c r="V9" s="32"/>
       <c r="W9" s="32"/>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="45"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="41"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
@@ -6107,8 +6137,8 @@
       <c r="AP9" s="3"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
-      <c r="AS9" s="92"/>
-      <c r="AT9" s="81"/>
+      <c r="AS9" s="85"/>
+      <c r="AT9" s="74"/>
       <c r="AU9" s="32"/>
       <c r="AV9" s="32"/>
       <c r="AW9" s="32"/>
@@ -6128,8 +6158,8 @@
       <c r="BK9" s="32"/>
       <c r="BL9" s="32"/>
       <c r="BM9" s="32"/>
-      <c r="BN9" s="91"/>
-      <c r="BO9" s="45"/>
+      <c r="BN9" s="84"/>
+      <c r="BO9" s="41"/>
       <c r="BP9" s="3"/>
       <c r="BQ9" s="3"/>
       <c r="BR9" s="3"/>
@@ -6149,8 +6179,8 @@
       <c r="CF9" s="3"/>
       <c r="CG9" s="3"/>
       <c r="CH9" s="3"/>
-      <c r="CI9" s="92"/>
-      <c r="CJ9" s="81"/>
+      <c r="CI9" s="85"/>
+      <c r="CJ9" s="74"/>
       <c r="CK9" s="32"/>
       <c r="CL9" s="32"/>
       <c r="CM9" s="32"/>
@@ -6170,15 +6200,15 @@
       <c r="DA9" s="32"/>
       <c r="DB9" s="32"/>
       <c r="DC9" s="32"/>
-      <c r="DD9" s="91"/>
+      <c r="DD9" s="84"/>
     </row>
     <row r="10" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -6196,8 +6226,8 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="47"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="43"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
@@ -6217,8 +6247,8 @@
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
-      <c r="AS10" s="66"/>
-      <c r="AT10" s="60"/>
+      <c r="AS10" s="59"/>
+      <c r="AT10" s="55"/>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -6238,8 +6268,8 @@
       <c r="BK10" s="2"/>
       <c r="BL10" s="2"/>
       <c r="BM10" s="2"/>
-      <c r="BN10" s="46"/>
-      <c r="BO10" s="47"/>
+      <c r="BN10" s="42"/>
+      <c r="BO10" s="43"/>
       <c r="BP10" s="1"/>
       <c r="BQ10" s="1"/>
       <c r="BR10" s="1"/>
@@ -6259,8 +6289,8 @@
       <c r="CF10" s="1"/>
       <c r="CG10" s="1"/>
       <c r="CH10" s="1"/>
-      <c r="CI10" s="66"/>
-      <c r="CJ10" s="60"/>
+      <c r="CI10" s="59"/>
+      <c r="CJ10" s="55"/>
       <c r="CK10" s="2"/>
       <c r="CL10" s="2"/>
       <c r="CM10" s="2"/>
@@ -6280,42 +6310,42 @@
       <c r="DA10" s="2"/>
       <c r="DB10" s="2"/>
       <c r="DC10" s="2"/>
-      <c r="DD10" s="46"/>
+      <c r="DD10" s="42"/>
     </row>
     <row r="11" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="60"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="47"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="43"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
@@ -6327,8 +6357,8 @@
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
-      <c r="AS11" s="66"/>
-      <c r="AT11" s="60"/>
+      <c r="AS11" s="59"/>
+      <c r="AT11" s="55"/>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -6348,8 +6378,8 @@
       <c r="BK11" s="2"/>
       <c r="BL11" s="2"/>
       <c r="BM11" s="2"/>
-      <c r="BN11" s="46"/>
-      <c r="BO11" s="47"/>
+      <c r="BN11" s="42"/>
+      <c r="BO11" s="43"/>
       <c r="BP11" s="1"/>
       <c r="BQ11" s="1"/>
       <c r="BR11" s="1"/>
@@ -6369,8 +6399,8 @@
       <c r="CF11" s="1"/>
       <c r="CG11" s="1"/>
       <c r="CH11" s="1"/>
-      <c r="CI11" s="66"/>
-      <c r="CJ11" s="60"/>
+      <c r="CI11" s="59"/>
+      <c r="CJ11" s="55"/>
       <c r="CK11" s="2"/>
       <c r="CL11" s="2"/>
       <c r="CM11" s="2"/>
@@ -6390,15 +6420,15 @@
       <c r="DA11" s="2"/>
       <c r="DB11" s="2"/>
       <c r="DC11" s="2"/>
-      <c r="DD11" s="46"/>
+      <c r="DD11" s="42"/>
     </row>
     <row r="12" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -6416,8 +6446,8 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="47"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="43"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -6437,8 +6467,8 @@
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
-      <c r="AS12" s="66"/>
-      <c r="AT12" s="60"/>
+      <c r="AS12" s="59"/>
+      <c r="AT12" s="55"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -6458,8 +6488,8 @@
       <c r="BK12" s="2"/>
       <c r="BL12" s="2"/>
       <c r="BM12" s="2"/>
-      <c r="BN12" s="46"/>
-      <c r="BO12" s="47"/>
+      <c r="BN12" s="42"/>
+      <c r="BO12" s="43"/>
       <c r="BP12" s="1"/>
       <c r="BQ12" s="1"/>
       <c r="BR12" s="1"/>
@@ -6479,8 +6509,8 @@
       <c r="CF12" s="1"/>
       <c r="CG12" s="1"/>
       <c r="CH12" s="1"/>
-      <c r="CI12" s="66"/>
-      <c r="CJ12" s="60"/>
+      <c r="CI12" s="59"/>
+      <c r="CJ12" s="55"/>
       <c r="CK12" s="2"/>
       <c r="CL12" s="2"/>
       <c r="CM12" s="2"/>
@@ -6500,18 +6530,18 @@
       <c r="DA12" s="2"/>
       <c r="DB12" s="2"/>
       <c r="DC12" s="2"/>
-      <c r="DD12" s="46"/>
+      <c r="DD12" s="42"/>
     </row>
     <row r="13" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -6526,8 +6556,8 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="47"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="43"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -6547,8 +6577,8 @@
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
-      <c r="AS13" s="66"/>
-      <c r="AT13" s="60"/>
+      <c r="AS13" s="59"/>
+      <c r="AT13" s="55"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
@@ -6568,8 +6598,8 @@
       <c r="BK13" s="2"/>
       <c r="BL13" s="2"/>
       <c r="BM13" s="2"/>
-      <c r="BN13" s="46"/>
-      <c r="BO13" s="47"/>
+      <c r="BN13" s="42"/>
+      <c r="BO13" s="43"/>
       <c r="BP13" s="1"/>
       <c r="BQ13" s="1"/>
       <c r="BR13" s="1"/>
@@ -6589,8 +6619,8 @@
       <c r="CF13" s="1"/>
       <c r="CG13" s="1"/>
       <c r="CH13" s="1"/>
-      <c r="CI13" s="66"/>
-      <c r="CJ13" s="60"/>
+      <c r="CI13" s="59"/>
+      <c r="CJ13" s="55"/>
       <c r="CK13" s="2"/>
       <c r="CL13" s="2"/>
       <c r="CM13" s="2"/>
@@ -6610,13 +6640,13 @@
       <c r="DA13" s="2"/>
       <c r="DB13" s="2"/>
       <c r="DC13" s="2"/>
-      <c r="DD13" s="46"/>
+      <c r="DD13" s="42"/>
     </row>
     <row r="14" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="60"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -6625,9 +6655,9 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -6636,8 +6666,8 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="47"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="43"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -6657,10 +6687,10 @@
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
-      <c r="AS14" s="66"/>
-      <c r="AT14" s="60"/>
-      <c r="AU14" s="2"/>
-      <c r="AV14" s="2"/>
+      <c r="AS14" s="59"/>
+      <c r="AT14" s="115"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="10"/>
       <c r="AW14" s="2"/>
       <c r="AX14" s="2"/>
       <c r="AY14" s="2"/>
@@ -6678,8 +6708,8 @@
       <c r="BK14" s="2"/>
       <c r="BL14" s="2"/>
       <c r="BM14" s="2"/>
-      <c r="BN14" s="46"/>
-      <c r="BO14" s="47"/>
+      <c r="BN14" s="42"/>
+      <c r="BO14" s="43"/>
       <c r="BP14" s="1"/>
       <c r="BQ14" s="1"/>
       <c r="BR14" s="1"/>
@@ -6699,8 +6729,8 @@
       <c r="CF14" s="1"/>
       <c r="CG14" s="1"/>
       <c r="CH14" s="1"/>
-      <c r="CI14" s="66"/>
-      <c r="CJ14" s="60"/>
+      <c r="CI14" s="59"/>
+      <c r="CJ14" s="55"/>
       <c r="CK14" s="2"/>
       <c r="CL14" s="2"/>
       <c r="CM14" s="2"/>
@@ -6720,13 +6750,13 @@
       <c r="DA14" s="2"/>
       <c r="DB14" s="2"/>
       <c r="DC14" s="2"/>
-      <c r="DD14" s="46"/>
+      <c r="DD14" s="42"/>
     </row>
     <row r="15" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="60"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -6738,16 +6768,16 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="47"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="43"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -6767,8 +6797,8 @@
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="60"/>
+      <c r="AS15" s="59"/>
+      <c r="AT15" s="55"/>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
@@ -6788,8 +6818,8 @@
       <c r="BK15" s="2"/>
       <c r="BL15" s="2"/>
       <c r="BM15" s="2"/>
-      <c r="BN15" s="46"/>
-      <c r="BO15" s="47"/>
+      <c r="BN15" s="42"/>
+      <c r="BO15" s="43"/>
       <c r="BP15" s="1"/>
       <c r="BQ15" s="1"/>
       <c r="BR15" s="1"/>
@@ -6809,8 +6839,8 @@
       <c r="CF15" s="1"/>
       <c r="CG15" s="1"/>
       <c r="CH15" s="1"/>
-      <c r="CI15" s="66"/>
-      <c r="CJ15" s="60"/>
+      <c r="CI15" s="59"/>
+      <c r="CJ15" s="55"/>
       <c r="CK15" s="2"/>
       <c r="CL15" s="2"/>
       <c r="CM15" s="2"/>
@@ -6830,13 +6860,13 @@
       <c r="DA15" s="2"/>
       <c r="DB15" s="2"/>
       <c r="DC15" s="2"/>
-      <c r="DD15" s="46"/>
+      <c r="DD15" s="42"/>
     </row>
     <row r="16" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="60"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -6856,8 +6886,8 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="47"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="43"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
@@ -6866,21 +6896,21 @@
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
       <c r="AR16" s="1"/>
-      <c r="AS16" s="66"/>
+      <c r="AS16" s="59"/>
       <c r="AT16" s="60"/>
-      <c r="AU16" s="2"/>
-      <c r="AV16" s="2"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
       <c r="AW16" s="2"/>
       <c r="AX16" s="2"/>
       <c r="AY16" s="2"/>
@@ -6898,8 +6928,8 @@
       <c r="BK16" s="2"/>
       <c r="BL16" s="2"/>
       <c r="BM16" s="2"/>
-      <c r="BN16" s="46"/>
-      <c r="BO16" s="47"/>
+      <c r="BN16" s="42"/>
+      <c r="BO16" s="43"/>
       <c r="BP16" s="1"/>
       <c r="BQ16" s="1"/>
       <c r="BR16" s="1"/>
@@ -6919,8 +6949,8 @@
       <c r="CF16" s="1"/>
       <c r="CG16" s="1"/>
       <c r="CH16" s="1"/>
-      <c r="CI16" s="66"/>
-      <c r="CJ16" s="60"/>
+      <c r="CI16" s="59"/>
+      <c r="CJ16" s="55"/>
       <c r="CK16" s="2"/>
       <c r="CL16" s="2"/>
       <c r="CM16" s="2"/>
@@ -6940,21 +6970,21 @@
       <c r="DA16" s="2"/>
       <c r="DB16" s="2"/>
       <c r="DC16" s="2"/>
-      <c r="DD16" s="46"/>
+      <c r="DD16" s="42"/>
     </row>
     <row r="17" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="60"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -6966,19 +6996,19 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="47"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="43"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
@@ -6987,8 +7017,8 @@
       <c r="AP17" s="1"/>
       <c r="AQ17" s="1"/>
       <c r="AR17" s="1"/>
-      <c r="AS17" s="66"/>
-      <c r="AT17" s="60"/>
+      <c r="AS17" s="59"/>
+      <c r="AT17" s="55"/>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
@@ -7008,8 +7038,8 @@
       <c r="BK17" s="2"/>
       <c r="BL17" s="2"/>
       <c r="BM17" s="2"/>
-      <c r="BN17" s="46"/>
-      <c r="BO17" s="47"/>
+      <c r="BN17" s="42"/>
+      <c r="BO17" s="43"/>
       <c r="BP17" s="1"/>
       <c r="BQ17" s="1"/>
       <c r="BR17" s="1"/>
@@ -7029,8 +7059,8 @@
       <c r="CF17" s="1"/>
       <c r="CG17" s="1"/>
       <c r="CH17" s="1"/>
-      <c r="CI17" s="66"/>
-      <c r="CJ17" s="60"/>
+      <c r="CI17" s="59"/>
+      <c r="CJ17" s="55"/>
       <c r="CK17" s="2"/>
       <c r="CL17" s="2"/>
       <c r="CM17" s="2"/>
@@ -7050,21 +7080,21 @@
       <c r="DA17" s="2"/>
       <c r="DB17" s="2"/>
       <c r="DC17" s="2"/>
-      <c r="DD17" s="46"/>
+      <c r="DD17" s="42"/>
     </row>
     <row r="18" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="60"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -7076,19 +7106,19 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="47"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="43"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
@@ -7097,8 +7127,8 @@
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1"/>
-      <c r="AS18" s="66"/>
-      <c r="AT18" s="60"/>
+      <c r="AS18" s="59"/>
+      <c r="AT18" s="55"/>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -7118,8 +7148,8 @@
       <c r="BK18" s="2"/>
       <c r="BL18" s="2"/>
       <c r="BM18" s="2"/>
-      <c r="BN18" s="46"/>
-      <c r="BO18" s="47"/>
+      <c r="BN18" s="42"/>
+      <c r="BO18" s="43"/>
       <c r="BP18" s="1"/>
       <c r="BQ18" s="1"/>
       <c r="BR18" s="1"/>
@@ -7139,8 +7169,8 @@
       <c r="CF18" s="1"/>
       <c r="CG18" s="1"/>
       <c r="CH18" s="1"/>
-      <c r="CI18" s="66"/>
-      <c r="CJ18" s="60"/>
+      <c r="CI18" s="59"/>
+      <c r="CJ18" s="55"/>
       <c r="CK18" s="2"/>
       <c r="CL18" s="2"/>
       <c r="CM18" s="2"/>
@@ -7160,13 +7190,13 @@
       <c r="DA18" s="2"/>
       <c r="DB18" s="2"/>
       <c r="DC18" s="2"/>
-      <c r="DD18" s="46"/>
+      <c r="DD18" s="42"/>
     </row>
     <row r="19" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="60"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -7186,8 +7216,8 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="47"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="43"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -7196,19 +7226,19 @@
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
-      <c r="AO19" s="1"/>
-      <c r="AP19" s="1"/>
-      <c r="AQ19" s="1"/>
-      <c r="AR19" s="1"/>
-      <c r="AS19" s="66"/>
-      <c r="AT19" s="60"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
+      <c r="AQ19" s="15"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="116"/>
+      <c r="AT19" s="55"/>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
@@ -7228,8 +7258,8 @@
       <c r="BK19" s="2"/>
       <c r="BL19" s="2"/>
       <c r="BM19" s="2"/>
-      <c r="BN19" s="46"/>
-      <c r="BO19" s="47"/>
+      <c r="BN19" s="42"/>
+      <c r="BO19" s="43"/>
       <c r="BP19" s="1"/>
       <c r="BQ19" s="1"/>
       <c r="BR19" s="1"/>
@@ -7249,8 +7279,8 @@
       <c r="CF19" s="1"/>
       <c r="CG19" s="1"/>
       <c r="CH19" s="1"/>
-      <c r="CI19" s="66"/>
-      <c r="CJ19" s="60"/>
+      <c r="CI19" s="59"/>
+      <c r="CJ19" s="55"/>
       <c r="CK19" s="2"/>
       <c r="CL19" s="2"/>
       <c r="CM19" s="2"/>
@@ -7270,13 +7300,13 @@
       <c r="DA19" s="2"/>
       <c r="DB19" s="2"/>
       <c r="DC19" s="2"/>
-      <c r="DD19" s="46"/>
+      <c r="DD19" s="42"/>
     </row>
     <row r="20" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="60"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -7294,12 +7324,12 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="111"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
@@ -7317,8 +7347,8 @@
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="60"/>
+      <c r="AS20" s="59"/>
+      <c r="AT20" s="55"/>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
@@ -7338,8 +7368,8 @@
       <c r="BK20" s="2"/>
       <c r="BL20" s="2"/>
       <c r="BM20" s="2"/>
-      <c r="BN20" s="46"/>
-      <c r="BO20" s="47"/>
+      <c r="BN20" s="42"/>
+      <c r="BO20" s="43"/>
       <c r="BP20" s="1"/>
       <c r="BQ20" s="1"/>
       <c r="BR20" s="1"/>
@@ -7359,8 +7389,8 @@
       <c r="CF20" s="1"/>
       <c r="CG20" s="1"/>
       <c r="CH20" s="1"/>
-      <c r="CI20" s="66"/>
-      <c r="CJ20" s="60"/>
+      <c r="CI20" s="59"/>
+      <c r="CJ20" s="55"/>
       <c r="CK20" s="2"/>
       <c r="CL20" s="2"/>
       <c r="CM20" s="2"/>
@@ -7380,13 +7410,13 @@
       <c r="DA20" s="2"/>
       <c r="DB20" s="2"/>
       <c r="DC20" s="2"/>
-      <c r="DD20" s="46"/>
+      <c r="DD20" s="42"/>
     </row>
     <row r="21" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="60"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -7406,13 +7436,13 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="112"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
@@ -7427,8 +7457,8 @@
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="60"/>
+      <c r="AS21" s="59"/>
+      <c r="AT21" s="55"/>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
@@ -7448,8 +7478,8 @@
       <c r="BK21" s="2"/>
       <c r="BL21" s="2"/>
       <c r="BM21" s="2"/>
-      <c r="BN21" s="46"/>
-      <c r="BO21" s="47"/>
+      <c r="BN21" s="42"/>
+      <c r="BO21" s="43"/>
       <c r="BP21" s="1"/>
       <c r="BQ21" s="1"/>
       <c r="BR21" s="1"/>
@@ -7469,8 +7499,8 @@
       <c r="CF21" s="1"/>
       <c r="CG21" s="1"/>
       <c r="CH21" s="1"/>
-      <c r="CI21" s="66"/>
-      <c r="CJ21" s="60"/>
+      <c r="CI21" s="59"/>
+      <c r="CJ21" s="55"/>
       <c r="CK21" s="2"/>
       <c r="CL21" s="2"/>
       <c r="CM21" s="2"/>
@@ -7490,13 +7520,13 @@
       <c r="DA21" s="2"/>
       <c r="DB21" s="2"/>
       <c r="DC21" s="2"/>
-      <c r="DD21" s="46"/>
+      <c r="DD21" s="42"/>
     </row>
     <row r="22" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="60"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -7516,8 +7546,8 @@
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="47"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="43"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -7532,21 +7562,21 @@
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
-      <c r="AP22" s="1"/>
-      <c r="AQ22" s="1"/>
-      <c r="AR22" s="1"/>
-      <c r="AS22" s="66"/>
-      <c r="AT22" s="60"/>
+      <c r="AN22" s="18"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="18"/>
+      <c r="AR22" s="18"/>
+      <c r="AS22" s="65"/>
+      <c r="AT22" s="55"/>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
       <c r="AX22" s="2"/>
       <c r="AY22" s="2"/>
-      <c r="AZ22" s="2"/>
-      <c r="BA22" s="2"/>
-      <c r="BB22" s="2"/>
+      <c r="AZ22" s="18"/>
+      <c r="BA22" s="18"/>
+      <c r="BB22" s="18"/>
       <c r="BC22" s="2"/>
       <c r="BD22" s="2"/>
       <c r="BE22" s="2"/>
@@ -7558,8 +7588,8 @@
       <c r="BK22" s="2"/>
       <c r="BL22" s="2"/>
       <c r="BM22" s="2"/>
-      <c r="BN22" s="46"/>
-      <c r="BO22" s="47"/>
+      <c r="BN22" s="42"/>
+      <c r="BO22" s="43"/>
       <c r="BP22" s="1"/>
       <c r="BQ22" s="1"/>
       <c r="BR22" s="1"/>
@@ -7579,8 +7609,8 @@
       <c r="CF22" s="1"/>
       <c r="CG22" s="1"/>
       <c r="CH22" s="1"/>
-      <c r="CI22" s="66"/>
-      <c r="CJ22" s="60"/>
+      <c r="CI22" s="59"/>
+      <c r="CJ22" s="55"/>
       <c r="CK22" s="2"/>
       <c r="CL22" s="2"/>
       <c r="CM22" s="2"/>
@@ -7600,34 +7630,34 @@
       <c r="DA22" s="2"/>
       <c r="DB22" s="2"/>
       <c r="DC22" s="2"/>
-      <c r="DD22" s="46"/>
+      <c r="DD22" s="42"/>
     </row>
     <row r="23" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="60"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="110"/>
+      <c r="R23" s="110"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="47"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="43"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
@@ -7647,8 +7677,8 @@
       <c r="AP23" s="1"/>
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1"/>
-      <c r="AS23" s="66"/>
-      <c r="AT23" s="60"/>
+      <c r="AS23" s="59"/>
+      <c r="AT23" s="55"/>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
@@ -7668,8 +7698,8 @@
       <c r="BK23" s="2"/>
       <c r="BL23" s="2"/>
       <c r="BM23" s="2"/>
-      <c r="BN23" s="46"/>
-      <c r="BO23" s="47"/>
+      <c r="BN23" s="42"/>
+      <c r="BO23" s="43"/>
       <c r="BP23" s="1"/>
       <c r="BQ23" s="1"/>
       <c r="BR23" s="1"/>
@@ -7689,8 +7719,8 @@
       <c r="CF23" s="1"/>
       <c r="CG23" s="1"/>
       <c r="CH23" s="1"/>
-      <c r="CI23" s="66"/>
-      <c r="CJ23" s="60"/>
+      <c r="CI23" s="59"/>
+      <c r="CJ23" s="55"/>
       <c r="CK23" s="2"/>
       <c r="CL23" s="2"/>
       <c r="CM23" s="2"/>
@@ -7710,13 +7740,13 @@
       <c r="DA23" s="2"/>
       <c r="DB23" s="2"/>
       <c r="DC23" s="2"/>
-      <c r="DD23" s="46"/>
+      <c r="DD23" s="42"/>
     </row>
     <row r="24" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="60"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -7731,42 +7761,42 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="1"/>
-      <c r="AP24" s="1"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="113"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="8"/>
+      <c r="AP24" s="8"/>
       <c r="AQ24" s="1"/>
       <c r="AR24" s="1"/>
-      <c r="AS24" s="66"/>
-      <c r="AT24" s="60"/>
+      <c r="AS24" s="59"/>
+      <c r="AT24" s="55"/>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
-      <c r="AW24" s="2"/>
-      <c r="AX24" s="2"/>
-      <c r="AY24" s="2"/>
-      <c r="AZ24" s="2"/>
-      <c r="BA24" s="2"/>
-      <c r="BB24" s="2"/>
+      <c r="AW24" s="8"/>
+      <c r="AX24" s="8"/>
+      <c r="AY24" s="8"/>
+      <c r="AZ24" s="8"/>
+      <c r="BA24" s="8"/>
+      <c r="BB24" s="8"/>
       <c r="BC24" s="2"/>
       <c r="BD24" s="2"/>
       <c r="BE24" s="2"/>
@@ -7778,8 +7808,8 @@
       <c r="BK24" s="2"/>
       <c r="BL24" s="2"/>
       <c r="BM24" s="2"/>
-      <c r="BN24" s="46"/>
-      <c r="BO24" s="47"/>
+      <c r="BN24" s="42"/>
+      <c r="BO24" s="43"/>
       <c r="BP24" s="1"/>
       <c r="BQ24" s="1"/>
       <c r="BR24" s="1"/>
@@ -7799,8 +7829,8 @@
       <c r="CF24" s="1"/>
       <c r="CG24" s="1"/>
       <c r="CH24" s="1"/>
-      <c r="CI24" s="66"/>
-      <c r="CJ24" s="60"/>
+      <c r="CI24" s="59"/>
+      <c r="CJ24" s="55"/>
       <c r="CK24" s="2"/>
       <c r="CL24" s="2"/>
       <c r="CM24" s="2"/>
@@ -7820,18 +7850,18 @@
       <c r="DA24" s="2"/>
       <c r="DB24" s="2"/>
       <c r="DC24" s="2"/>
-      <c r="DD24" s="46"/>
+      <c r="DD24" s="42"/>
     </row>
     <row r="25" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="60"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -7846,8 +7876,8 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="47"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="43"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
@@ -7867,29 +7897,29 @@
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
       <c r="AR25" s="1"/>
-      <c r="AS25" s="66"/>
-      <c r="AT25" s="60"/>
+      <c r="AS25" s="59"/>
+      <c r="AT25" s="55"/>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
       <c r="AX25" s="2"/>
       <c r="AY25" s="2"/>
-      <c r="AZ25" s="2"/>
-      <c r="BA25" s="2"/>
-      <c r="BB25" s="2"/>
+      <c r="AZ25" s="20"/>
+      <c r="BA25" s="20"/>
+      <c r="BB25" s="20"/>
       <c r="BC25" s="2"/>
       <c r="BD25" s="2"/>
       <c r="BE25" s="2"/>
-      <c r="BF25" s="2"/>
-      <c r="BG25" s="2"/>
-      <c r="BH25" s="2"/>
+      <c r="BF25" s="20"/>
+      <c r="BG25" s="20"/>
+      <c r="BH25" s="20"/>
       <c r="BI25" s="2"/>
       <c r="BJ25" s="2"/>
       <c r="BK25" s="2"/>
       <c r="BL25" s="2"/>
       <c r="BM25" s="2"/>
-      <c r="BN25" s="46"/>
-      <c r="BO25" s="47"/>
+      <c r="BN25" s="42"/>
+      <c r="BO25" s="43"/>
       <c r="BP25" s="1"/>
       <c r="BQ25" s="1"/>
       <c r="BR25" s="1"/>
@@ -7909,8 +7939,8 @@
       <c r="CF25" s="1"/>
       <c r="CG25" s="1"/>
       <c r="CH25" s="1"/>
-      <c r="CI25" s="66"/>
-      <c r="CJ25" s="60"/>
+      <c r="CI25" s="59"/>
+      <c r="CJ25" s="55"/>
       <c r="CK25" s="2"/>
       <c r="CL25" s="2"/>
       <c r="CM25" s="2"/>
@@ -7930,18 +7960,18 @@
       <c r="DA25" s="2"/>
       <c r="DB25" s="2"/>
       <c r="DC25" s="2"/>
-      <c r="DD25" s="46"/>
+      <c r="DD25" s="42"/>
     </row>
     <row r="26" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="60"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -7956,8 +7986,8 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="47"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="43"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
@@ -7973,33 +8003,33 @@
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
-      <c r="AO26" s="1"/>
-      <c r="AP26" s="1"/>
-      <c r="AQ26" s="1"/>
-      <c r="AR26" s="1"/>
-      <c r="AS26" s="66"/>
-      <c r="AT26" s="60"/>
-      <c r="AU26" s="2"/>
-      <c r="AV26" s="2"/>
+      <c r="AO26" s="21"/>
+      <c r="AP26" s="21"/>
+      <c r="AQ26" s="21"/>
+      <c r="AR26" s="21"/>
+      <c r="AS26" s="117"/>
+      <c r="AT26" s="118"/>
+      <c r="AU26" s="21"/>
+      <c r="AV26" s="21"/>
       <c r="AW26" s="2"/>
       <c r="AX26" s="2"/>
       <c r="AY26" s="2"/>
-      <c r="AZ26" s="2"/>
-      <c r="BA26" s="2"/>
-      <c r="BB26" s="2"/>
-      <c r="BC26" s="2"/>
-      <c r="BD26" s="2"/>
-      <c r="BE26" s="2"/>
+      <c r="AZ26" s="21"/>
+      <c r="BA26" s="21"/>
+      <c r="BB26" s="21"/>
+      <c r="BC26" s="21"/>
+      <c r="BD26" s="21"/>
+      <c r="BE26" s="21"/>
       <c r="BF26" s="2"/>
       <c r="BG26" s="2"/>
       <c r="BH26" s="2"/>
-      <c r="BI26" s="2"/>
-      <c r="BJ26" s="2"/>
-      <c r="BK26" s="2"/>
-      <c r="BL26" s="2"/>
-      <c r="BM26" s="2"/>
-      <c r="BN26" s="46"/>
-      <c r="BO26" s="47"/>
+      <c r="BI26" s="21"/>
+      <c r="BJ26" s="21"/>
+      <c r="BK26" s="21"/>
+      <c r="BL26" s="21"/>
+      <c r="BM26" s="21"/>
+      <c r="BN26" s="117"/>
+      <c r="BO26" s="43"/>
       <c r="BP26" s="1"/>
       <c r="BQ26" s="1"/>
       <c r="BR26" s="1"/>
@@ -8019,8 +8049,8 @@
       <c r="CF26" s="1"/>
       <c r="CG26" s="1"/>
       <c r="CH26" s="1"/>
-      <c r="CI26" s="66"/>
-      <c r="CJ26" s="60"/>
+      <c r="CI26" s="59"/>
+      <c r="CJ26" s="55"/>
       <c r="CK26" s="2"/>
       <c r="CL26" s="2"/>
       <c r="CM26" s="2"/>
@@ -8040,13 +8070,13 @@
       <c r="DA26" s="2"/>
       <c r="DB26" s="2"/>
       <c r="DC26" s="2"/>
-      <c r="DD26" s="46"/>
+      <c r="DD26" s="42"/>
     </row>
     <row r="27" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C27" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="60"/>
+      <c r="C27" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="55"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -8066,8 +8096,8 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="47"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="43"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
@@ -8087,14 +8117,14 @@
       <c r="AP27" s="1"/>
       <c r="AQ27" s="1"/>
       <c r="AR27" s="1"/>
-      <c r="AS27" s="66"/>
-      <c r="AT27" s="60"/>
+      <c r="AS27" s="59"/>
+      <c r="AT27" s="55"/>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
       <c r="AX27" s="2"/>
       <c r="AY27" s="2"/>
-      <c r="AZ27" s="2"/>
+      <c r="AZ27" s="119"/>
       <c r="BA27" s="2"/>
       <c r="BB27" s="2"/>
       <c r="BC27" s="2"/>
@@ -8103,13 +8133,13 @@
       <c r="BF27" s="2"/>
       <c r="BG27" s="2"/>
       <c r="BH27" s="2"/>
-      <c r="BI27" s="2"/>
-      <c r="BJ27" s="2"/>
-      <c r="BK27" s="2"/>
-      <c r="BL27" s="2"/>
-      <c r="BM27" s="2"/>
-      <c r="BN27" s="46"/>
-      <c r="BO27" s="47"/>
+      <c r="BI27" s="22"/>
+      <c r="BJ27" s="22"/>
+      <c r="BK27" s="22"/>
+      <c r="BL27" s="22"/>
+      <c r="BM27" s="22"/>
+      <c r="BN27" s="125"/>
+      <c r="BO27" s="43"/>
       <c r="BP27" s="1"/>
       <c r="BQ27" s="1"/>
       <c r="BR27" s="1"/>
@@ -8129,8 +8159,8 @@
       <c r="CF27" s="1"/>
       <c r="CG27" s="1"/>
       <c r="CH27" s="1"/>
-      <c r="CI27" s="66"/>
-      <c r="CJ27" s="60"/>
+      <c r="CI27" s="59"/>
+      <c r="CJ27" s="55"/>
       <c r="CK27" s="2"/>
       <c r="CL27" s="2"/>
       <c r="CM27" s="2"/>
@@ -8150,13 +8180,13 @@
       <c r="DA27" s="2"/>
       <c r="DB27" s="2"/>
       <c r="DC27" s="2"/>
-      <c r="DD27" s="46"/>
+      <c r="DD27" s="42"/>
     </row>
     <row r="28" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="60"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -8176,8 +8206,8 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="47"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="43"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
@@ -8192,13 +8222,13 @@
       <c r="AK28" s="4"/>
       <c r="AL28" s="1"/>
       <c r="AM28" s="1"/>
-      <c r="AN28" s="1"/>
-      <c r="AO28" s="1"/>
-      <c r="AP28" s="1"/>
+      <c r="AN28" s="38"/>
+      <c r="AO28" s="38"/>
+      <c r="AP28" s="38"/>
       <c r="AQ28" s="1"/>
       <c r="AR28" s="1"/>
-      <c r="AS28" s="66"/>
-      <c r="AT28" s="106"/>
+      <c r="AS28" s="59"/>
+      <c r="AT28" s="87"/>
       <c r="AU28" s="23"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
@@ -8218,8 +8248,8 @@
       <c r="BK28" s="2"/>
       <c r="BL28" s="2"/>
       <c r="BM28" s="2"/>
-      <c r="BN28" s="46"/>
-      <c r="BO28" s="47"/>
+      <c r="BN28" s="42"/>
+      <c r="BO28" s="43"/>
       <c r="BP28" s="1"/>
       <c r="BQ28" s="1"/>
       <c r="BR28" s="1"/>
@@ -8239,8 +8269,8 @@
       <c r="CF28" s="1"/>
       <c r="CG28" s="1"/>
       <c r="CH28" s="1"/>
-      <c r="CI28" s="66"/>
-      <c r="CJ28" s="60"/>
+      <c r="CI28" s="59"/>
+      <c r="CJ28" s="55"/>
       <c r="CK28" s="2"/>
       <c r="CL28" s="2"/>
       <c r="CM28" s="2"/>
@@ -8260,13 +8290,13 @@
       <c r="DA28" s="2"/>
       <c r="DB28" s="2"/>
       <c r="DC28" s="2"/>
-      <c r="DD28" s="46"/>
+      <c r="DD28" s="42"/>
     </row>
     <row r="29" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="60"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -8286,8 +8316,8 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="47"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="43"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
@@ -8307,16 +8337,16 @@
       <c r="AP29" s="1"/>
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
-      <c r="AS29" s="66"/>
-      <c r="AT29" s="60"/>
+      <c r="AS29" s="59"/>
+      <c r="AT29" s="55"/>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
-      <c r="AW29" s="2"/>
-      <c r="AX29" s="2"/>
-      <c r="AY29" s="2"/>
-      <c r="AZ29" s="2"/>
-      <c r="BA29" s="2"/>
-      <c r="BB29" s="2"/>
+      <c r="AW29" s="25"/>
+      <c r="AX29" s="25"/>
+      <c r="AY29" s="25"/>
+      <c r="AZ29" s="25"/>
+      <c r="BA29" s="25"/>
+      <c r="BB29" s="25"/>
       <c r="BC29" s="2"/>
       <c r="BD29" s="2"/>
       <c r="BE29" s="2"/>
@@ -8328,8 +8358,8 @@
       <c r="BK29" s="2"/>
       <c r="BL29" s="2"/>
       <c r="BM29" s="2"/>
-      <c r="BN29" s="46"/>
-      <c r="BO29" s="47"/>
+      <c r="BN29" s="42"/>
+      <c r="BO29" s="43"/>
       <c r="BP29" s="1"/>
       <c r="BQ29" s="1"/>
       <c r="BR29" s="1"/>
@@ -8349,8 +8379,8 @@
       <c r="CF29" s="1"/>
       <c r="CG29" s="1"/>
       <c r="CH29" s="1"/>
-      <c r="CI29" s="66"/>
-      <c r="CJ29" s="60"/>
+      <c r="CI29" s="59"/>
+      <c r="CJ29" s="55"/>
       <c r="CK29" s="2"/>
       <c r="CL29" s="2"/>
       <c r="CM29" s="2"/>
@@ -8370,13 +8400,13 @@
       <c r="DA29" s="2"/>
       <c r="DB29" s="2"/>
       <c r="DC29" s="2"/>
-      <c r="DD29" s="46"/>
+      <c r="DD29" s="42"/>
     </row>
     <row r="30" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="60"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -8396,8 +8426,8 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="47"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="43"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
@@ -8415,18 +8445,18 @@
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
       <c r="AP30" s="1"/>
-      <c r="AQ30" s="1"/>
-      <c r="AR30" s="1"/>
-      <c r="AS30" s="66"/>
-      <c r="AT30" s="60"/>
+      <c r="AQ30" s="122"/>
+      <c r="AR30" s="122"/>
+      <c r="AS30" s="123"/>
+      <c r="AT30" s="55"/>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
       <c r="AX30" s="2"/>
       <c r="AY30" s="2"/>
-      <c r="AZ30" s="2"/>
-      <c r="BA30" s="2"/>
-      <c r="BB30" s="2"/>
+      <c r="AZ30" s="26"/>
+      <c r="BA30" s="26"/>
+      <c r="BB30" s="26"/>
       <c r="BC30" s="2"/>
       <c r="BD30" s="2"/>
       <c r="BE30" s="2"/>
@@ -8438,8 +8468,8 @@
       <c r="BK30" s="2"/>
       <c r="BL30" s="2"/>
       <c r="BM30" s="2"/>
-      <c r="BN30" s="46"/>
-      <c r="BO30" s="47"/>
+      <c r="BN30" s="42"/>
+      <c r="BO30" s="43"/>
       <c r="BP30" s="1"/>
       <c r="BQ30" s="1"/>
       <c r="BR30" s="1"/>
@@ -8459,8 +8489,8 @@
       <c r="CF30" s="1"/>
       <c r="CG30" s="1"/>
       <c r="CH30" s="1"/>
-      <c r="CI30" s="66"/>
-      <c r="CJ30" s="60"/>
+      <c r="CI30" s="59"/>
+      <c r="CJ30" s="55"/>
       <c r="CK30" s="2"/>
       <c r="CL30" s="2"/>
       <c r="CM30" s="2"/>
@@ -8480,13 +8510,13 @@
       <c r="DA30" s="2"/>
       <c r="DB30" s="2"/>
       <c r="DC30" s="2"/>
-      <c r="DD30" s="46"/>
+      <c r="DD30" s="42"/>
     </row>
     <row r="31" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="60"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -8498,16 +8528,16 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="47"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="43"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
@@ -8525,10 +8555,10 @@
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
       <c r="AP31" s="1"/>
-      <c r="AQ31" s="1"/>
-      <c r="AR31" s="1"/>
-      <c r="AS31" s="66"/>
-      <c r="AT31" s="60"/>
+      <c r="AQ31" s="28"/>
+      <c r="AR31" s="28"/>
+      <c r="AS31" s="124"/>
+      <c r="AT31" s="55"/>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
@@ -8548,8 +8578,8 @@
       <c r="BK31" s="2"/>
       <c r="BL31" s="2"/>
       <c r="BM31" s="2"/>
-      <c r="BN31" s="46"/>
-      <c r="BO31" s="47"/>
+      <c r="BN31" s="42"/>
+      <c r="BO31" s="43"/>
       <c r="BP31" s="1"/>
       <c r="BQ31" s="1"/>
       <c r="BR31" s="1"/>
@@ -8569,8 +8599,8 @@
       <c r="CF31" s="1"/>
       <c r="CG31" s="1"/>
       <c r="CH31" s="1"/>
-      <c r="CI31" s="66"/>
-      <c r="CJ31" s="60"/>
+      <c r="CI31" s="59"/>
+      <c r="CJ31" s="55"/>
       <c r="CK31" s="2"/>
       <c r="CL31" s="2"/>
       <c r="CM31" s="2"/>
@@ -8590,13 +8620,13 @@
       <c r="DA31" s="2"/>
       <c r="DB31" s="2"/>
       <c r="DC31" s="2"/>
-      <c r="DD31" s="46"/>
+      <c r="DD31" s="42"/>
     </row>
     <row r="32" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="60"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -8616,8 +8646,8 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="47"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="43"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
@@ -8637,8 +8667,8 @@
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
-      <c r="AS32" s="66"/>
-      <c r="AT32" s="107"/>
+      <c r="AS32" s="59"/>
+      <c r="AT32" s="88"/>
       <c r="AU32" s="31"/>
       <c r="AV32" s="31"/>
       <c r="AW32" s="31"/>
@@ -8658,8 +8688,8 @@
       <c r="BK32" s="2"/>
       <c r="BL32" s="2"/>
       <c r="BM32" s="2"/>
-      <c r="BN32" s="46"/>
-      <c r="BO32" s="47"/>
+      <c r="BN32" s="42"/>
+      <c r="BO32" s="43"/>
       <c r="BP32" s="1"/>
       <c r="BQ32" s="1"/>
       <c r="BR32" s="1"/>
@@ -8679,8 +8709,8 @@
       <c r="CF32" s="1"/>
       <c r="CG32" s="1"/>
       <c r="CH32" s="1"/>
-      <c r="CI32" s="66"/>
-      <c r="CJ32" s="60"/>
+      <c r="CI32" s="59"/>
+      <c r="CJ32" s="55"/>
       <c r="CK32" s="2"/>
       <c r="CL32" s="2"/>
       <c r="CM32" s="2"/>
@@ -8700,13 +8730,13 @@
       <c r="DA32" s="2"/>
       <c r="DB32" s="2"/>
       <c r="DC32" s="2"/>
-      <c r="DD32" s="46"/>
+      <c r="DD32" s="42"/>
     </row>
     <row r="33" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="60"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -8726,8 +8756,8 @@
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="47"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="43"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
@@ -8747,8 +8777,8 @@
       <c r="AP33" s="1"/>
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
-      <c r="AS33" s="66"/>
-      <c r="AT33" s="60"/>
+      <c r="AS33" s="59"/>
+      <c r="AT33" s="55"/>
       <c r="AU33" s="2"/>
       <c r="AV33" s="2"/>
       <c r="AW33" s="2"/>
@@ -8768,8 +8798,8 @@
       <c r="BK33" s="2"/>
       <c r="BL33" s="2"/>
       <c r="BM33" s="2"/>
-      <c r="BN33" s="46"/>
-      <c r="BO33" s="47"/>
+      <c r="BN33" s="42"/>
+      <c r="BO33" s="43"/>
       <c r="BP33" s="1"/>
       <c r="BQ33" s="1"/>
       <c r="BR33" s="1"/>
@@ -8789,8 +8819,8 @@
       <c r="CF33" s="1"/>
       <c r="CG33" s="1"/>
       <c r="CH33" s="1"/>
-      <c r="CI33" s="66"/>
-      <c r="CJ33" s="60"/>
+      <c r="CI33" s="59"/>
+      <c r="CJ33" s="55"/>
       <c r="CK33" s="2"/>
       <c r="CL33" s="2"/>
       <c r="CM33" s="2"/>
@@ -8810,13 +8840,13 @@
       <c r="DA33" s="2"/>
       <c r="DB33" s="2"/>
       <c r="DC33" s="2"/>
-      <c r="DD33" s="46"/>
+      <c r="DD33" s="42"/>
     </row>
     <row r="34" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="60"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -8836,8 +8866,8 @@
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="47"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="43"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
@@ -8855,10 +8885,10 @@
       <c r="AN34" s="1"/>
       <c r="AO34" s="1"/>
       <c r="AP34" s="1"/>
-      <c r="AQ34" s="1"/>
-      <c r="AR34" s="1"/>
-      <c r="AS34" s="66"/>
-      <c r="AT34" s="81"/>
+      <c r="AQ34" s="120"/>
+      <c r="AR34" s="120"/>
+      <c r="AS34" s="121"/>
+      <c r="AT34" s="74"/>
       <c r="AU34" s="32"/>
       <c r="AV34" s="32"/>
       <c r="AW34" s="32"/>
@@ -8878,8 +8908,8 @@
       <c r="BK34" s="2"/>
       <c r="BL34" s="2"/>
       <c r="BM34" s="2"/>
-      <c r="BN34" s="46"/>
-      <c r="BO34" s="47"/>
+      <c r="BN34" s="42"/>
+      <c r="BO34" s="43"/>
       <c r="BP34" s="1"/>
       <c r="BQ34" s="1"/>
       <c r="BR34" s="1"/>
@@ -8899,8 +8929,8 @@
       <c r="CF34" s="1"/>
       <c r="CG34" s="1"/>
       <c r="CH34" s="1"/>
-      <c r="CI34" s="66"/>
-      <c r="CJ34" s="60"/>
+      <c r="CI34" s="59"/>
+      <c r="CJ34" s="55"/>
       <c r="CK34" s="2"/>
       <c r="CL34" s="2"/>
       <c r="CM34" s="2"/>
@@ -8920,13 +8950,13 @@
       <c r="DA34" s="2"/>
       <c r="DB34" s="2"/>
       <c r="DC34" s="2"/>
-      <c r="DD34" s="46"/>
+      <c r="DD34" s="42"/>
     </row>
     <row r="35" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="60"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -8946,8 +8976,8 @@
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="47"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="43"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
@@ -8967,8 +8997,8 @@
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
-      <c r="AS35" s="66"/>
-      <c r="AT35" s="60"/>
+      <c r="AS35" s="59"/>
+      <c r="AT35" s="55"/>
       <c r="AU35" s="2"/>
       <c r="AV35" s="2"/>
       <c r="AW35" s="2"/>
@@ -8977,9 +9007,9 @@
       <c r="AZ35" s="2"/>
       <c r="BA35" s="2"/>
       <c r="BB35" s="2"/>
-      <c r="BC35" s="2"/>
-      <c r="BD35" s="2"/>
-      <c r="BE35" s="2"/>
+      <c r="BC35" s="33"/>
+      <c r="BD35" s="33"/>
+      <c r="BE35" s="33"/>
       <c r="BF35" s="2"/>
       <c r="BG35" s="2"/>
       <c r="BH35" s="2"/>
@@ -8988,8 +9018,8 @@
       <c r="BK35" s="2"/>
       <c r="BL35" s="2"/>
       <c r="BM35" s="2"/>
-      <c r="BN35" s="46"/>
-      <c r="BO35" s="47"/>
+      <c r="BN35" s="42"/>
+      <c r="BO35" s="43"/>
       <c r="BP35" s="1"/>
       <c r="BQ35" s="1"/>
       <c r="BR35" s="1"/>
@@ -9009,8 +9039,8 @@
       <c r="CF35" s="1"/>
       <c r="CG35" s="1"/>
       <c r="CH35" s="1"/>
-      <c r="CI35" s="66"/>
-      <c r="CJ35" s="60"/>
+      <c r="CI35" s="59"/>
+      <c r="CJ35" s="55"/>
       <c r="CK35" s="2"/>
       <c r="CL35" s="2"/>
       <c r="CM35" s="2"/>
@@ -9030,13 +9060,13 @@
       <c r="DA35" s="2"/>
       <c r="DB35" s="2"/>
       <c r="DC35" s="2"/>
-      <c r="DD35" s="46"/>
+      <c r="DD35" s="42"/>
     </row>
     <row r="36" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="60"/>
+      <c r="D36" s="55"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -9045,9 +9075,9 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -9056,8 +9086,8 @@
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="47"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="43"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
@@ -9075,21 +9105,21 @@
       <c r="AN36" s="1"/>
       <c r="AO36" s="1"/>
       <c r="AP36" s="1"/>
-      <c r="AQ36" s="1"/>
-      <c r="AR36" s="1"/>
-      <c r="AS36" s="66"/>
-      <c r="AT36" s="60"/>
+      <c r="AQ36" s="34"/>
+      <c r="AR36" s="34"/>
+      <c r="AS36" s="114"/>
+      <c r="AT36" s="119"/>
       <c r="AU36" s="2"/>
-      <c r="AV36" s="2"/>
+      <c r="AV36" s="55"/>
       <c r="AW36" s="2"/>
       <c r="AX36" s="2"/>
       <c r="AY36" s="2"/>
       <c r="AZ36" s="2"/>
       <c r="BA36" s="2"/>
       <c r="BB36" s="2"/>
-      <c r="BC36" s="2"/>
-      <c r="BD36" s="2"/>
-      <c r="BE36" s="2"/>
+      <c r="BC36" s="34"/>
+      <c r="BD36" s="34"/>
+      <c r="BE36" s="34"/>
       <c r="BF36" s="2"/>
       <c r="BG36" s="2"/>
       <c r="BH36" s="2"/>
@@ -9098,8 +9128,8 @@
       <c r="BK36" s="2"/>
       <c r="BL36" s="2"/>
       <c r="BM36" s="2"/>
-      <c r="BN36" s="46"/>
-      <c r="BO36" s="47"/>
+      <c r="BN36" s="42"/>
+      <c r="BO36" s="43"/>
       <c r="BP36" s="1"/>
       <c r="BQ36" s="1"/>
       <c r="BR36" s="1"/>
@@ -9119,8 +9149,8 @@
       <c r="CF36" s="1"/>
       <c r="CG36" s="1"/>
       <c r="CH36" s="1"/>
-      <c r="CI36" s="66"/>
-      <c r="CJ36" s="60"/>
+      <c r="CI36" s="59"/>
+      <c r="CJ36" s="55"/>
       <c r="CK36" s="2"/>
       <c r="CL36" s="2"/>
       <c r="CM36" s="2"/>
@@ -9140,13 +9170,13 @@
       <c r="DA36" s="2"/>
       <c r="DB36" s="2"/>
       <c r="DC36" s="2"/>
-      <c r="DD36" s="46"/>
+      <c r="DD36" s="42"/>
     </row>
     <row r="37" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="60"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -9166,8 +9196,8 @@
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="47"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="43"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
@@ -9187,8 +9217,8 @@
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
-      <c r="AS37" s="66"/>
-      <c r="AT37" s="60"/>
+      <c r="AS37" s="59"/>
+      <c r="AT37" s="55"/>
       <c r="AU37" s="2"/>
       <c r="AV37" s="2"/>
       <c r="AW37" s="2"/>
@@ -9197,9 +9227,9 @@
       <c r="AZ37" s="2"/>
       <c r="BA37" s="2"/>
       <c r="BB37" s="2"/>
-      <c r="BC37" s="2"/>
-      <c r="BD37" s="2"/>
-      <c r="BE37" s="2"/>
+      <c r="BC37" s="35"/>
+      <c r="BD37" s="35"/>
+      <c r="BE37" s="35"/>
       <c r="BF37" s="2"/>
       <c r="BG37" s="2"/>
       <c r="BH37" s="2"/>
@@ -9208,8 +9238,8 @@
       <c r="BK37" s="2"/>
       <c r="BL37" s="2"/>
       <c r="BM37" s="2"/>
-      <c r="BN37" s="46"/>
-      <c r="BO37" s="47"/>
+      <c r="BN37" s="42"/>
+      <c r="BO37" s="43"/>
       <c r="BP37" s="1"/>
       <c r="BQ37" s="1"/>
       <c r="BR37" s="1"/>
@@ -9229,8 +9259,8 @@
       <c r="CF37" s="1"/>
       <c r="CG37" s="1"/>
       <c r="CH37" s="1"/>
-      <c r="CI37" s="66"/>
-      <c r="CJ37" s="60"/>
+      <c r="CI37" s="59"/>
+      <c r="CJ37" s="55"/>
       <c r="CK37" s="2"/>
       <c r="CL37" s="2"/>
       <c r="CM37" s="2"/>
@@ -9250,13 +9280,13 @@
       <c r="DA37" s="2"/>
       <c r="DB37" s="2"/>
       <c r="DC37" s="2"/>
-      <c r="DD37" s="46"/>
+      <c r="DD37" s="42"/>
     </row>
     <row r="38" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="60"/>
+      <c r="D38" s="55"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -9276,8 +9306,8 @@
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
-      <c r="X38" s="46"/>
-      <c r="Y38" s="47"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="43"/>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
@@ -9297,8 +9327,8 @@
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
-      <c r="AS38" s="66"/>
-      <c r="AT38" s="60"/>
+      <c r="AS38" s="59"/>
+      <c r="AT38" s="55"/>
       <c r="AU38" s="2"/>
       <c r="AV38" s="2"/>
       <c r="AW38" s="2"/>
@@ -9310,16 +9340,16 @@
       <c r="BC38" s="2"/>
       <c r="BD38" s="2"/>
       <c r="BE38" s="2"/>
-      <c r="BF38" s="2"/>
-      <c r="BG38" s="2"/>
-      <c r="BH38" s="2"/>
+      <c r="BF38" s="36"/>
+      <c r="BG38" s="36"/>
+      <c r="BH38" s="36"/>
       <c r="BI38" s="2"/>
       <c r="BJ38" s="2"/>
       <c r="BK38" s="2"/>
       <c r="BL38" s="2"/>
       <c r="BM38" s="2"/>
-      <c r="BN38" s="46"/>
-      <c r="BO38" s="47"/>
+      <c r="BN38" s="42"/>
+      <c r="BO38" s="43"/>
       <c r="BP38" s="1"/>
       <c r="BQ38" s="1"/>
       <c r="BR38" s="1"/>
@@ -9339,8 +9369,8 @@
       <c r="CF38" s="1"/>
       <c r="CG38" s="1"/>
       <c r="CH38" s="1"/>
-      <c r="CI38" s="66"/>
-      <c r="CJ38" s="60"/>
+      <c r="CI38" s="59"/>
+      <c r="CJ38" s="55"/>
       <c r="CK38" s="2"/>
       <c r="CL38" s="2"/>
       <c r="CM38" s="2"/>
@@ -9360,13 +9390,13 @@
       <c r="DA38" s="2"/>
       <c r="DB38" s="2"/>
       <c r="DC38" s="2"/>
-      <c r="DD38" s="46"/>
+      <c r="DD38" s="42"/>
     </row>
     <row r="39" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="60"/>
+      <c r="D39" s="55"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -9386,8 +9416,8 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
-      <c r="X39" s="46"/>
-      <c r="Y39" s="47"/>
+      <c r="X39" s="42"/>
+      <c r="Y39" s="43"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
@@ -9407,8 +9437,8 @@
       <c r="AP39" s="1"/>
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
-      <c r="AS39" s="66"/>
-      <c r="AT39" s="60"/>
+      <c r="AS39" s="59"/>
+      <c r="AT39" s="55"/>
       <c r="AU39" s="2"/>
       <c r="AV39" s="2"/>
       <c r="AW39" s="2"/>
@@ -9420,16 +9450,16 @@
       <c r="BC39" s="2"/>
       <c r="BD39" s="2"/>
       <c r="BE39" s="2"/>
-      <c r="BF39" s="2"/>
-      <c r="BG39" s="2"/>
-      <c r="BH39" s="2"/>
+      <c r="BF39" s="37"/>
+      <c r="BG39" s="37"/>
+      <c r="BH39" s="37"/>
       <c r="BI39" s="2"/>
       <c r="BJ39" s="2"/>
       <c r="BK39" s="2"/>
       <c r="BL39" s="2"/>
       <c r="BM39" s="2"/>
-      <c r="BN39" s="46"/>
-      <c r="BO39" s="47"/>
+      <c r="BN39" s="42"/>
+      <c r="BO39" s="43"/>
       <c r="BP39" s="1"/>
       <c r="BQ39" s="1"/>
       <c r="BR39" s="1"/>
@@ -9449,8 +9479,8 @@
       <c r="CF39" s="1"/>
       <c r="CG39" s="1"/>
       <c r="CH39" s="1"/>
-      <c r="CI39" s="66"/>
-      <c r="CJ39" s="60"/>
+      <c r="CI39" s="59"/>
+      <c r="CJ39" s="55"/>
       <c r="CK39" s="2"/>
       <c r="CL39" s="2"/>
       <c r="CM39" s="2"/>
@@ -9470,13 +9500,13 @@
       <c r="DA39" s="2"/>
       <c r="DB39" s="2"/>
       <c r="DC39" s="2"/>
-      <c r="DD39" s="46"/>
+      <c r="DD39" s="42"/>
     </row>
     <row r="40" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="60"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -9496,8 +9526,8 @@
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
-      <c r="X40" s="46"/>
-      <c r="Y40" s="47"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="43"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
@@ -9517,8 +9547,8 @@
       <c r="AP40" s="1"/>
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
-      <c r="AS40" s="66"/>
-      <c r="AT40" s="60"/>
+      <c r="AS40" s="59"/>
+      <c r="AT40" s="55"/>
       <c r="AU40" s="2"/>
       <c r="AV40" s="2"/>
       <c r="AW40" s="2"/>
@@ -9527,19 +9557,19 @@
       <c r="AZ40" s="2"/>
       <c r="BA40" s="2"/>
       <c r="BB40" s="2"/>
-      <c r="BC40" s="2"/>
-      <c r="BD40" s="2"/>
-      <c r="BE40" s="2"/>
-      <c r="BF40" s="2"/>
-      <c r="BG40" s="2"/>
-      <c r="BH40" s="2"/>
+      <c r="BC40" s="39"/>
+      <c r="BD40" s="39"/>
+      <c r="BE40" s="39"/>
+      <c r="BF40" s="39"/>
+      <c r="BG40" s="39"/>
+      <c r="BH40" s="39"/>
       <c r="BI40" s="2"/>
       <c r="BJ40" s="2"/>
       <c r="BK40" s="2"/>
       <c r="BL40" s="2"/>
       <c r="BM40" s="2"/>
-      <c r="BN40" s="46"/>
-      <c r="BO40" s="47"/>
+      <c r="BN40" s="42"/>
+      <c r="BO40" s="43"/>
       <c r="BP40" s="1"/>
       <c r="BQ40" s="1"/>
       <c r="BR40" s="1"/>
@@ -9559,8 +9589,8 @@
       <c r="CF40" s="1"/>
       <c r="CG40" s="1"/>
       <c r="CH40" s="1"/>
-      <c r="CI40" s="66"/>
-      <c r="CJ40" s="60"/>
+      <c r="CI40" s="59"/>
+      <c r="CJ40" s="55"/>
       <c r="CK40" s="2"/>
       <c r="CL40" s="2"/>
       <c r="CM40" s="2"/>
@@ -9580,13 +9610,13 @@
       <c r="DA40" s="2"/>
       <c r="DB40" s="2"/>
       <c r="DC40" s="2"/>
-      <c r="DD40" s="46"/>
+      <c r="DD40" s="42"/>
     </row>
     <row r="41" spans="3:108" x14ac:dyDescent="0.35">
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="60"/>
+      <c r="D41" s="55"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -9606,8 +9636,8 @@
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
-      <c r="X41" s="46"/>
-      <c r="Y41" s="47"/>
+      <c r="X41" s="42"/>
+      <c r="Y41" s="43"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
@@ -9627,8 +9657,8 @@
       <c r="AP41" s="1"/>
       <c r="AQ41" s="1"/>
       <c r="AR41" s="1"/>
-      <c r="AS41" s="66"/>
-      <c r="AT41" s="60"/>
+      <c r="AS41" s="59"/>
+      <c r="AT41" s="55"/>
       <c r="AU41" s="2"/>
       <c r="AV41" s="2"/>
       <c r="AW41" s="2"/>
@@ -9648,8 +9678,8 @@
       <c r="BK41" s="2"/>
       <c r="BL41" s="2"/>
       <c r="BM41" s="2"/>
-      <c r="BN41" s="46"/>
-      <c r="BO41" s="47"/>
+      <c r="BN41" s="42"/>
+      <c r="BO41" s="43"/>
       <c r="BP41" s="1"/>
       <c r="BQ41" s="1"/>
       <c r="BR41" s="1"/>
@@ -9669,8 +9699,8 @@
       <c r="CF41" s="1"/>
       <c r="CG41" s="1"/>
       <c r="CH41" s="1"/>
-      <c r="CI41" s="66"/>
-      <c r="CJ41" s="60"/>
+      <c r="CI41" s="59"/>
+      <c r="CJ41" s="55"/>
       <c r="CK41" s="2"/>
       <c r="CL41" s="2"/>
       <c r="CM41" s="2"/>
@@ -9690,125 +9720,148 @@
       <c r="DA41" s="2"/>
       <c r="DB41" s="2"/>
       <c r="DC41" s="2"/>
-      <c r="DD41" s="46"/>
+      <c r="DD41" s="42"/>
     </row>
     <row r="42" spans="3:108" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="63"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50"/>
-      <c r="V42" s="50"/>
-      <c r="W42" s="50"/>
-      <c r="X42" s="53"/>
-      <c r="Y42" s="49"/>
-      <c r="Z42" s="51"/>
-      <c r="AA42" s="51"/>
-      <c r="AB42" s="51"/>
-      <c r="AC42" s="51"/>
-      <c r="AD42" s="51"/>
-      <c r="AE42" s="51"/>
-      <c r="AF42" s="51"/>
-      <c r="AG42" s="51"/>
-      <c r="AH42" s="51"/>
-      <c r="AI42" s="51"/>
-      <c r="AJ42" s="51"/>
-      <c r="AK42" s="51"/>
-      <c r="AL42" s="51"/>
-      <c r="AM42" s="51"/>
-      <c r="AN42" s="51"/>
-      <c r="AO42" s="51"/>
-      <c r="AP42" s="51"/>
-      <c r="AQ42" s="51"/>
-      <c r="AR42" s="51"/>
-      <c r="AS42" s="74"/>
-      <c r="AT42" s="63"/>
-      <c r="AU42" s="50"/>
-      <c r="AV42" s="50"/>
-      <c r="AW42" s="50"/>
-      <c r="AX42" s="50"/>
-      <c r="AY42" s="50"/>
-      <c r="AZ42" s="50"/>
-      <c r="BA42" s="50"/>
-      <c r="BB42" s="50"/>
-      <c r="BC42" s="50"/>
-      <c r="BD42" s="50"/>
-      <c r="BE42" s="50"/>
-      <c r="BF42" s="50"/>
-      <c r="BG42" s="50"/>
-      <c r="BH42" s="50"/>
-      <c r="BI42" s="50"/>
-      <c r="BJ42" s="50"/>
-      <c r="BK42" s="50"/>
-      <c r="BL42" s="50"/>
-      <c r="BM42" s="50"/>
-      <c r="BN42" s="53"/>
-      <c r="BO42" s="49"/>
-      <c r="BP42" s="51"/>
-      <c r="BQ42" s="51"/>
-      <c r="BR42" s="51"/>
-      <c r="BS42" s="51"/>
-      <c r="BT42" s="51"/>
-      <c r="BU42" s="51"/>
-      <c r="BV42" s="51"/>
-      <c r="BW42" s="51"/>
-      <c r="BX42" s="51"/>
-      <c r="BY42" s="51"/>
-      <c r="BZ42" s="51"/>
-      <c r="CA42" s="51"/>
-      <c r="CB42" s="51"/>
-      <c r="CC42" s="51"/>
-      <c r="CD42" s="51"/>
-      <c r="CE42" s="51"/>
-      <c r="CF42" s="51"/>
-      <c r="CG42" s="51"/>
-      <c r="CH42" s="51"/>
-      <c r="CI42" s="74"/>
-      <c r="CJ42" s="63"/>
-      <c r="CK42" s="50"/>
-      <c r="CL42" s="50"/>
-      <c r="CM42" s="50"/>
-      <c r="CN42" s="50"/>
-      <c r="CO42" s="50"/>
-      <c r="CP42" s="50"/>
-      <c r="CQ42" s="50"/>
-      <c r="CR42" s="50"/>
-      <c r="CS42" s="50"/>
-      <c r="CT42" s="50"/>
-      <c r="CU42" s="50"/>
-      <c r="CV42" s="50"/>
-      <c r="CW42" s="50"/>
-      <c r="CX42" s="50"/>
-      <c r="CY42" s="50"/>
-      <c r="CZ42" s="50"/>
-      <c r="DA42" s="50"/>
-      <c r="DB42" s="50"/>
-      <c r="DC42" s="50"/>
-      <c r="DD42" s="53"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="49"/>
+      <c r="Y42" s="45"/>
+      <c r="Z42" s="47"/>
+      <c r="AA42" s="47"/>
+      <c r="AB42" s="47"/>
+      <c r="AC42" s="47"/>
+      <c r="AD42" s="47"/>
+      <c r="AE42" s="47"/>
+      <c r="AF42" s="47"/>
+      <c r="AG42" s="47"/>
+      <c r="AH42" s="47"/>
+      <c r="AI42" s="47"/>
+      <c r="AJ42" s="47"/>
+      <c r="AK42" s="47"/>
+      <c r="AL42" s="47"/>
+      <c r="AM42" s="47"/>
+      <c r="AN42" s="47"/>
+      <c r="AO42" s="47"/>
+      <c r="AP42" s="47"/>
+      <c r="AQ42" s="47"/>
+      <c r="AR42" s="47"/>
+      <c r="AS42" s="67"/>
+      <c r="AT42" s="58"/>
+      <c r="AU42" s="46"/>
+      <c r="AV42" s="46"/>
+      <c r="AW42" s="46"/>
+      <c r="AX42" s="46"/>
+      <c r="AY42" s="46"/>
+      <c r="AZ42" s="46"/>
+      <c r="BA42" s="46"/>
+      <c r="BB42" s="46"/>
+      <c r="BC42" s="46"/>
+      <c r="BD42" s="46"/>
+      <c r="BE42" s="46"/>
+      <c r="BF42" s="46"/>
+      <c r="BG42" s="46"/>
+      <c r="BH42" s="46"/>
+      <c r="BI42" s="46"/>
+      <c r="BJ42" s="46"/>
+      <c r="BK42" s="46"/>
+      <c r="BL42" s="46"/>
+      <c r="BM42" s="46"/>
+      <c r="BN42" s="49"/>
+      <c r="BO42" s="45"/>
+      <c r="BP42" s="47"/>
+      <c r="BQ42" s="47"/>
+      <c r="BR42" s="47"/>
+      <c r="BS42" s="47"/>
+      <c r="BT42" s="47"/>
+      <c r="BU42" s="47"/>
+      <c r="BV42" s="47"/>
+      <c r="BW42" s="47"/>
+      <c r="BX42" s="47"/>
+      <c r="BY42" s="47"/>
+      <c r="BZ42" s="47"/>
+      <c r="CA42" s="47"/>
+      <c r="CB42" s="47"/>
+      <c r="CC42" s="47"/>
+      <c r="CD42" s="47"/>
+      <c r="CE42" s="47"/>
+      <c r="CF42" s="47"/>
+      <c r="CG42" s="47"/>
+      <c r="CH42" s="47"/>
+      <c r="CI42" s="67"/>
+      <c r="CJ42" s="58"/>
+      <c r="CK42" s="46"/>
+      <c r="CL42" s="46"/>
+      <c r="CM42" s="46"/>
+      <c r="CN42" s="46"/>
+      <c r="CO42" s="46"/>
+      <c r="CP42" s="46"/>
+      <c r="CQ42" s="46"/>
+      <c r="CR42" s="46"/>
+      <c r="CS42" s="46"/>
+      <c r="CT42" s="46"/>
+      <c r="CU42" s="46"/>
+      <c r="CV42" s="46"/>
+      <c r="CW42" s="46"/>
+      <c r="CX42" s="46"/>
+      <c r="CY42" s="46"/>
+      <c r="CZ42" s="46"/>
+      <c r="DA42" s="46"/>
+      <c r="DB42" s="46"/>
+      <c r="DC42" s="46"/>
+      <c r="DD42" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="CM8:CO8"/>
-    <mergeCell ref="CP8:CR8"/>
-    <mergeCell ref="CS8:CU8"/>
-    <mergeCell ref="CV8:CX8"/>
-    <mergeCell ref="CY8:DA8"/>
+    <mergeCell ref="CJ6:DD7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="D6:X7"/>
+    <mergeCell ref="Y6:AS7"/>
+    <mergeCell ref="AT6:BN7"/>
+    <mergeCell ref="BO6:CI7"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="BL8:BN8"/>
+    <mergeCell ref="BO8:BQ8"/>
     <mergeCell ref="DB8:DD8"/>
     <mergeCell ref="BU8:BW8"/>
     <mergeCell ref="BX8:BZ8"/>
@@ -9816,34 +9869,11 @@
     <mergeCell ref="CD8:CF8"/>
     <mergeCell ref="CG8:CI8"/>
     <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BK8"/>
-    <mergeCell ref="BL8:BN8"/>
-    <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="D6:X7"/>
-    <mergeCell ref="Y6:AS7"/>
-    <mergeCell ref="AT6:BN7"/>
-    <mergeCell ref="BO6:CI7"/>
-    <mergeCell ref="CJ6:DD7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="CM8:CO8"/>
+    <mergeCell ref="CP8:CR8"/>
+    <mergeCell ref="CS8:CU8"/>
+    <mergeCell ref="CV8:CX8"/>
+    <mergeCell ref="CY8:DA8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tids plan.xlsx
+++ b/tids plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maius\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\H5SvendeProeve\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5B1EDD-3B5D-4A11-87E8-409C11D23CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85109DC2-DA18-408B-88EC-C4DA8BC07B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{51BDBD2F-21D4-47AF-9E17-74A1F69E1583}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{51BDBD2F-21D4-47AF-9E17-74A1F69E1583}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark2" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="58">
   <si>
     <t>Uge 1</t>
   </si>
@@ -172,13 +172,46 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>lav fremlæglse</t>
+    <t>lav storedprocedures til databasen</t>
   </si>
   <si>
-    <t>øv fremlæglse</t>
+    <t>process rapport</t>
   </si>
   <si>
-    <t>produkt raport</t>
+    <t>prdukt rapport</t>
+  </si>
+  <si>
+    <t>arduino: circult diagram</t>
+  </si>
+  <si>
+    <t>arduino: flow diagram</t>
+  </si>
+  <si>
+    <t>api booking: class diagram</t>
+  </si>
+  <si>
+    <t>api client: class diagram</t>
+  </si>
+  <si>
+    <t>angular component diagram</t>
+  </si>
+  <si>
+    <t>system sequence diagram</t>
+  </si>
+  <si>
+    <t>sequence diagram</t>
+  </si>
+  <si>
+    <t>usecase diagram</t>
+  </si>
+  <si>
+    <t>deployment diagram</t>
+  </si>
+  <si>
+    <t>lav fremlæggelse</t>
+  </si>
+  <si>
+    <t>øv fremlæggelse</t>
   </si>
 </sst>
 </file>
@@ -897,6 +930,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -914,24 +975,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -951,25 +994,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,7 +1034,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1303,159 +1336,159 @@
       <selection activeCell="D2" sqref="D2:D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>42</v>
       </c>
@@ -1469,422 +1502,422 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBB1DA4-112D-4BCD-9481-4893314C9708}">
   <dimension ref="C10:DD47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="28.6328125" customWidth="1"/>
-    <col min="4" max="108" width="2.7265625" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="108" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="3:108" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="3:108" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:108" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="3:108" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="50"/>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="91"/>
-      <c r="Y11" s="101" t="s">
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="112"/>
+      <c r="T11" s="112"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="112"/>
+      <c r="W11" s="112"/>
+      <c r="X11" s="113"/>
+      <c r="Y11" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="Z11" s="102"/>
-      <c r="AA11" s="102"/>
-      <c r="AB11" s="102"/>
-      <c r="AC11" s="102"/>
-      <c r="AD11" s="102"/>
-      <c r="AE11" s="102"/>
-      <c r="AF11" s="102"/>
-      <c r="AG11" s="102"/>
-      <c r="AH11" s="102"/>
-      <c r="AI11" s="102"/>
-      <c r="AJ11" s="102"/>
-      <c r="AK11" s="102"/>
-      <c r="AL11" s="102"/>
-      <c r="AM11" s="102"/>
-      <c r="AN11" s="102"/>
-      <c r="AO11" s="102"/>
-      <c r="AP11" s="102"/>
-      <c r="AQ11" s="102"/>
-      <c r="AR11" s="102"/>
-      <c r="AS11" s="103"/>
-      <c r="AT11" s="89" t="s">
+      <c r="Z11" s="118"/>
+      <c r="AA11" s="118"/>
+      <c r="AB11" s="118"/>
+      <c r="AC11" s="118"/>
+      <c r="AD11" s="118"/>
+      <c r="AE11" s="118"/>
+      <c r="AF11" s="118"/>
+      <c r="AG11" s="118"/>
+      <c r="AH11" s="118"/>
+      <c r="AI11" s="118"/>
+      <c r="AJ11" s="118"/>
+      <c r="AK11" s="118"/>
+      <c r="AL11" s="118"/>
+      <c r="AM11" s="118"/>
+      <c r="AN11" s="118"/>
+      <c r="AO11" s="118"/>
+      <c r="AP11" s="118"/>
+      <c r="AQ11" s="118"/>
+      <c r="AR11" s="118"/>
+      <c r="AS11" s="119"/>
+      <c r="AT11" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="AU11" s="90"/>
-      <c r="AV11" s="90"/>
-      <c r="AW11" s="90"/>
-      <c r="AX11" s="90"/>
-      <c r="AY11" s="90"/>
-      <c r="AZ11" s="90"/>
-      <c r="BA11" s="90"/>
-      <c r="BB11" s="90"/>
-      <c r="BC11" s="90"/>
-      <c r="BD11" s="90"/>
-      <c r="BE11" s="90"/>
-      <c r="BF11" s="90"/>
-      <c r="BG11" s="90"/>
-      <c r="BH11" s="90"/>
-      <c r="BI11" s="90"/>
-      <c r="BJ11" s="90"/>
-      <c r="BK11" s="90"/>
-      <c r="BL11" s="90"/>
-      <c r="BM11" s="90"/>
-      <c r="BN11" s="91"/>
-      <c r="BO11" s="101" t="s">
+      <c r="AU11" s="112"/>
+      <c r="AV11" s="112"/>
+      <c r="AW11" s="112"/>
+      <c r="AX11" s="112"/>
+      <c r="AY11" s="112"/>
+      <c r="AZ11" s="112"/>
+      <c r="BA11" s="112"/>
+      <c r="BB11" s="112"/>
+      <c r="BC11" s="112"/>
+      <c r="BD11" s="112"/>
+      <c r="BE11" s="112"/>
+      <c r="BF11" s="112"/>
+      <c r="BG11" s="112"/>
+      <c r="BH11" s="112"/>
+      <c r="BI11" s="112"/>
+      <c r="BJ11" s="112"/>
+      <c r="BK11" s="112"/>
+      <c r="BL11" s="112"/>
+      <c r="BM11" s="112"/>
+      <c r="BN11" s="113"/>
+      <c r="BO11" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="BP11" s="102"/>
-      <c r="BQ11" s="102"/>
-      <c r="BR11" s="102"/>
-      <c r="BS11" s="102"/>
-      <c r="BT11" s="102"/>
-      <c r="BU11" s="102"/>
-      <c r="BV11" s="102"/>
-      <c r="BW11" s="102"/>
-      <c r="BX11" s="102"/>
-      <c r="BY11" s="102"/>
-      <c r="BZ11" s="102"/>
-      <c r="CA11" s="102"/>
-      <c r="CB11" s="102"/>
-      <c r="CC11" s="102"/>
-      <c r="CD11" s="102"/>
-      <c r="CE11" s="102"/>
-      <c r="CF11" s="102"/>
-      <c r="CG11" s="102"/>
-      <c r="CH11" s="102"/>
-      <c r="CI11" s="103"/>
-      <c r="CJ11" s="89" t="s">
+      <c r="BP11" s="118"/>
+      <c r="BQ11" s="118"/>
+      <c r="BR11" s="118"/>
+      <c r="BS11" s="118"/>
+      <c r="BT11" s="118"/>
+      <c r="BU11" s="118"/>
+      <c r="BV11" s="118"/>
+      <c r="BW11" s="118"/>
+      <c r="BX11" s="118"/>
+      <c r="BY11" s="118"/>
+      <c r="BZ11" s="118"/>
+      <c r="CA11" s="118"/>
+      <c r="CB11" s="118"/>
+      <c r="CC11" s="118"/>
+      <c r="CD11" s="118"/>
+      <c r="CE11" s="118"/>
+      <c r="CF11" s="118"/>
+      <c r="CG11" s="118"/>
+      <c r="CH11" s="118"/>
+      <c r="CI11" s="119"/>
+      <c r="CJ11" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="CK11" s="90"/>
-      <c r="CL11" s="90"/>
-      <c r="CM11" s="90"/>
-      <c r="CN11" s="90"/>
-      <c r="CO11" s="90"/>
-      <c r="CP11" s="90"/>
-      <c r="CQ11" s="90"/>
-      <c r="CR11" s="90"/>
-      <c r="CS11" s="90"/>
-      <c r="CT11" s="90"/>
-      <c r="CU11" s="90"/>
-      <c r="CV11" s="90"/>
-      <c r="CW11" s="90"/>
-      <c r="CX11" s="90"/>
-      <c r="CY11" s="90"/>
-      <c r="CZ11" s="90"/>
-      <c r="DA11" s="90"/>
-      <c r="DB11" s="90"/>
-      <c r="DC11" s="90"/>
-      <c r="DD11" s="91"/>
-    </row>
-    <row r="12" spans="3:108" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="CK11" s="112"/>
+      <c r="CL11" s="112"/>
+      <c r="CM11" s="112"/>
+      <c r="CN11" s="112"/>
+      <c r="CO11" s="112"/>
+      <c r="CP11" s="112"/>
+      <c r="CQ11" s="112"/>
+      <c r="CR11" s="112"/>
+      <c r="CS11" s="112"/>
+      <c r="CT11" s="112"/>
+      <c r="CU11" s="112"/>
+      <c r="CV11" s="112"/>
+      <c r="CW11" s="112"/>
+      <c r="CX11" s="112"/>
+      <c r="CY11" s="112"/>
+      <c r="CZ11" s="112"/>
+      <c r="DA11" s="112"/>
+      <c r="DB11" s="112"/>
+      <c r="DC11" s="112"/>
+      <c r="DD11" s="113"/>
+    </row>
+    <row r="12" spans="3:108" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="51"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="104"/>
-      <c r="Z12" s="105"/>
-      <c r="AA12" s="105"/>
-      <c r="AB12" s="105"/>
-      <c r="AC12" s="105"/>
-      <c r="AD12" s="105"/>
-      <c r="AE12" s="105"/>
-      <c r="AF12" s="105"/>
-      <c r="AG12" s="105"/>
-      <c r="AH12" s="105"/>
-      <c r="AI12" s="105"/>
-      <c r="AJ12" s="105"/>
-      <c r="AK12" s="105"/>
-      <c r="AL12" s="105"/>
-      <c r="AM12" s="105"/>
-      <c r="AN12" s="105"/>
-      <c r="AO12" s="105"/>
-      <c r="AP12" s="105"/>
-      <c r="AQ12" s="105"/>
-      <c r="AR12" s="105"/>
-      <c r="AS12" s="106"/>
-      <c r="AT12" s="92"/>
-      <c r="AU12" s="93"/>
-      <c r="AV12" s="93"/>
-      <c r="AW12" s="93"/>
-      <c r="AX12" s="93"/>
-      <c r="AY12" s="93"/>
-      <c r="AZ12" s="93"/>
-      <c r="BA12" s="93"/>
-      <c r="BB12" s="93"/>
-      <c r="BC12" s="93"/>
-      <c r="BD12" s="93"/>
-      <c r="BE12" s="93"/>
-      <c r="BF12" s="93"/>
-      <c r="BG12" s="93"/>
-      <c r="BH12" s="93"/>
-      <c r="BI12" s="93"/>
-      <c r="BJ12" s="93"/>
-      <c r="BK12" s="93"/>
-      <c r="BL12" s="93"/>
-      <c r="BM12" s="93"/>
-      <c r="BN12" s="94"/>
-      <c r="BO12" s="104"/>
-      <c r="BP12" s="105"/>
-      <c r="BQ12" s="105"/>
-      <c r="BR12" s="105"/>
-      <c r="BS12" s="105"/>
-      <c r="BT12" s="105"/>
-      <c r="BU12" s="105"/>
-      <c r="BV12" s="105"/>
-      <c r="BW12" s="105"/>
-      <c r="BX12" s="105"/>
-      <c r="BY12" s="105"/>
-      <c r="BZ12" s="105"/>
-      <c r="CA12" s="105"/>
-      <c r="CB12" s="105"/>
-      <c r="CC12" s="105"/>
-      <c r="CD12" s="105"/>
-      <c r="CE12" s="105"/>
-      <c r="CF12" s="105"/>
-      <c r="CG12" s="105"/>
-      <c r="CH12" s="105"/>
-      <c r="CI12" s="106"/>
-      <c r="CJ12" s="92"/>
-      <c r="CK12" s="93"/>
-      <c r="CL12" s="93"/>
-      <c r="CM12" s="93"/>
-      <c r="CN12" s="93"/>
-      <c r="CO12" s="93"/>
-      <c r="CP12" s="93"/>
-      <c r="CQ12" s="93"/>
-      <c r="CR12" s="93"/>
-      <c r="CS12" s="93"/>
-      <c r="CT12" s="93"/>
-      <c r="CU12" s="93"/>
-      <c r="CV12" s="93"/>
-      <c r="CW12" s="93"/>
-      <c r="CX12" s="93"/>
-      <c r="CY12" s="93"/>
-      <c r="CZ12" s="93"/>
-      <c r="DA12" s="93"/>
-      <c r="DB12" s="93"/>
-      <c r="DC12" s="93"/>
-      <c r="DD12" s="94"/>
-    </row>
-    <row r="13" spans="3:108" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D12" s="114"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="115"/>
+      <c r="S12" s="115"/>
+      <c r="T12" s="115"/>
+      <c r="U12" s="115"/>
+      <c r="V12" s="115"/>
+      <c r="W12" s="115"/>
+      <c r="X12" s="116"/>
+      <c r="Y12" s="120"/>
+      <c r="Z12" s="121"/>
+      <c r="AA12" s="121"/>
+      <c r="AB12" s="121"/>
+      <c r="AC12" s="121"/>
+      <c r="AD12" s="121"/>
+      <c r="AE12" s="121"/>
+      <c r="AF12" s="121"/>
+      <c r="AG12" s="121"/>
+      <c r="AH12" s="121"/>
+      <c r="AI12" s="121"/>
+      <c r="AJ12" s="121"/>
+      <c r="AK12" s="121"/>
+      <c r="AL12" s="121"/>
+      <c r="AM12" s="121"/>
+      <c r="AN12" s="121"/>
+      <c r="AO12" s="121"/>
+      <c r="AP12" s="121"/>
+      <c r="AQ12" s="121"/>
+      <c r="AR12" s="121"/>
+      <c r="AS12" s="122"/>
+      <c r="AT12" s="114"/>
+      <c r="AU12" s="115"/>
+      <c r="AV12" s="115"/>
+      <c r="AW12" s="115"/>
+      <c r="AX12" s="115"/>
+      <c r="AY12" s="115"/>
+      <c r="AZ12" s="115"/>
+      <c r="BA12" s="115"/>
+      <c r="BB12" s="115"/>
+      <c r="BC12" s="115"/>
+      <c r="BD12" s="115"/>
+      <c r="BE12" s="115"/>
+      <c r="BF12" s="115"/>
+      <c r="BG12" s="115"/>
+      <c r="BH12" s="115"/>
+      <c r="BI12" s="115"/>
+      <c r="BJ12" s="115"/>
+      <c r="BK12" s="115"/>
+      <c r="BL12" s="115"/>
+      <c r="BM12" s="115"/>
+      <c r="BN12" s="116"/>
+      <c r="BO12" s="120"/>
+      <c r="BP12" s="121"/>
+      <c r="BQ12" s="121"/>
+      <c r="BR12" s="121"/>
+      <c r="BS12" s="121"/>
+      <c r="BT12" s="121"/>
+      <c r="BU12" s="121"/>
+      <c r="BV12" s="121"/>
+      <c r="BW12" s="121"/>
+      <c r="BX12" s="121"/>
+      <c r="BY12" s="121"/>
+      <c r="BZ12" s="121"/>
+      <c r="CA12" s="121"/>
+      <c r="CB12" s="121"/>
+      <c r="CC12" s="121"/>
+      <c r="CD12" s="121"/>
+      <c r="CE12" s="121"/>
+      <c r="CF12" s="121"/>
+      <c r="CG12" s="121"/>
+      <c r="CH12" s="121"/>
+      <c r="CI12" s="122"/>
+      <c r="CJ12" s="114"/>
+      <c r="CK12" s="115"/>
+      <c r="CL12" s="115"/>
+      <c r="CM12" s="115"/>
+      <c r="CN12" s="115"/>
+      <c r="CO12" s="115"/>
+      <c r="CP12" s="115"/>
+      <c r="CQ12" s="115"/>
+      <c r="CR12" s="115"/>
+      <c r="CS12" s="115"/>
+      <c r="CT12" s="115"/>
+      <c r="CU12" s="115"/>
+      <c r="CV12" s="115"/>
+      <c r="CW12" s="115"/>
+      <c r="CX12" s="115"/>
+      <c r="CY12" s="115"/>
+      <c r="CZ12" s="115"/>
+      <c r="DA12" s="115"/>
+      <c r="DB12" s="115"/>
+      <c r="DC12" s="115"/>
+      <c r="DD12" s="116"/>
+    </row>
+    <row r="13" spans="3:108" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="86"/>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="96"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="95" t="s">
+      <c r="E13" s="109"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="96"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="95" t="s">
+      <c r="H13" s="109"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="96"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="95" t="s">
+      <c r="K13" s="109"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="96"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="95" t="s">
+      <c r="N13" s="109"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="95" t="s">
+      <c r="Q13" s="109"/>
+      <c r="R13" s="110"/>
+      <c r="S13" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="96"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="95" t="s">
+      <c r="T13" s="109"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="W13" s="96"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="98" t="s">
+      <c r="W13" s="109"/>
+      <c r="X13" s="110"/>
+      <c r="Y13" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="100"/>
-      <c r="AB13" s="98" t="s">
+      <c r="Z13" s="124"/>
+      <c r="AA13" s="125"/>
+      <c r="AB13" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="AC13" s="99"/>
-      <c r="AD13" s="100"/>
-      <c r="AE13" s="98" t="s">
+      <c r="AC13" s="124"/>
+      <c r="AD13" s="125"/>
+      <c r="AE13" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="100"/>
-      <c r="AH13" s="98" t="s">
+      <c r="AF13" s="124"/>
+      <c r="AG13" s="125"/>
+      <c r="AH13" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="AI13" s="99"/>
-      <c r="AJ13" s="100"/>
-      <c r="AK13" s="98" t="s">
+      <c r="AI13" s="124"/>
+      <c r="AJ13" s="125"/>
+      <c r="AK13" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="AL13" s="99"/>
-      <c r="AM13" s="100"/>
-      <c r="AN13" s="98" t="s">
+      <c r="AL13" s="124"/>
+      <c r="AM13" s="125"/>
+      <c r="AN13" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="AO13" s="99"/>
-      <c r="AP13" s="100"/>
-      <c r="AQ13" s="98" t="s">
+      <c r="AO13" s="124"/>
+      <c r="AP13" s="125"/>
+      <c r="AQ13" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="AR13" s="99"/>
-      <c r="AS13" s="100"/>
-      <c r="AT13" s="95" t="s">
+      <c r="AR13" s="124"/>
+      <c r="AS13" s="125"/>
+      <c r="AT13" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="AU13" s="96"/>
-      <c r="AV13" s="97"/>
-      <c r="AW13" s="95" t="s">
+      <c r="AU13" s="109"/>
+      <c r="AV13" s="110"/>
+      <c r="AW13" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="AX13" s="96"/>
-      <c r="AY13" s="97"/>
-      <c r="AZ13" s="95" t="s">
+      <c r="AX13" s="109"/>
+      <c r="AY13" s="110"/>
+      <c r="AZ13" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="BA13" s="96"/>
-      <c r="BB13" s="97"/>
-      <c r="BC13" s="95" t="s">
+      <c r="BA13" s="109"/>
+      <c r="BB13" s="110"/>
+      <c r="BC13" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="BD13" s="96"/>
-      <c r="BE13" s="97"/>
-      <c r="BF13" s="95" t="s">
+      <c r="BD13" s="109"/>
+      <c r="BE13" s="110"/>
+      <c r="BF13" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="BG13" s="96"/>
-      <c r="BH13" s="97"/>
-      <c r="BI13" s="95" t="s">
+      <c r="BG13" s="109"/>
+      <c r="BH13" s="110"/>
+      <c r="BI13" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="BJ13" s="96"/>
-      <c r="BK13" s="97"/>
-      <c r="BL13" s="95" t="s">
+      <c r="BJ13" s="109"/>
+      <c r="BK13" s="110"/>
+      <c r="BL13" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="BM13" s="96"/>
-      <c r="BN13" s="97"/>
-      <c r="BO13" s="98" t="s">
+      <c r="BM13" s="109"/>
+      <c r="BN13" s="110"/>
+      <c r="BO13" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="BP13" s="99"/>
-      <c r="BQ13" s="100"/>
-      <c r="BR13" s="98" t="s">
+      <c r="BP13" s="124"/>
+      <c r="BQ13" s="125"/>
+      <c r="BR13" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="BS13" s="99"/>
-      <c r="BT13" s="100"/>
-      <c r="BU13" s="98" t="s">
+      <c r="BS13" s="124"/>
+      <c r="BT13" s="125"/>
+      <c r="BU13" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="BV13" s="99"/>
-      <c r="BW13" s="100"/>
-      <c r="BX13" s="98" t="s">
+      <c r="BV13" s="124"/>
+      <c r="BW13" s="125"/>
+      <c r="BX13" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="BY13" s="99"/>
-      <c r="BZ13" s="100"/>
-      <c r="CA13" s="98" t="s">
+      <c r="BY13" s="124"/>
+      <c r="BZ13" s="125"/>
+      <c r="CA13" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="CB13" s="99"/>
-      <c r="CC13" s="100"/>
-      <c r="CD13" s="98" t="s">
+      <c r="CB13" s="124"/>
+      <c r="CC13" s="125"/>
+      <c r="CD13" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="CE13" s="99"/>
-      <c r="CF13" s="100"/>
-      <c r="CG13" s="98" t="s">
+      <c r="CE13" s="124"/>
+      <c r="CF13" s="125"/>
+      <c r="CG13" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="CH13" s="99"/>
-      <c r="CI13" s="100"/>
-      <c r="CJ13" s="95" t="s">
+      <c r="CH13" s="124"/>
+      <c r="CI13" s="125"/>
+      <c r="CJ13" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="CK13" s="96"/>
-      <c r="CL13" s="97"/>
-      <c r="CM13" s="95" t="s">
+      <c r="CK13" s="109"/>
+      <c r="CL13" s="110"/>
+      <c r="CM13" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="CN13" s="96"/>
-      <c r="CO13" s="97"/>
-      <c r="CP13" s="95" t="s">
+      <c r="CN13" s="109"/>
+      <c r="CO13" s="110"/>
+      <c r="CP13" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="CQ13" s="96"/>
-      <c r="CR13" s="97"/>
-      <c r="CS13" s="95" t="s">
+      <c r="CQ13" s="109"/>
+      <c r="CR13" s="110"/>
+      <c r="CS13" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="CT13" s="96"/>
-      <c r="CU13" s="97"/>
-      <c r="CV13" s="95" t="s">
+      <c r="CT13" s="109"/>
+      <c r="CU13" s="110"/>
+      <c r="CV13" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="CW13" s="96"/>
-      <c r="CX13" s="97"/>
-      <c r="CY13" s="95" t="s">
+      <c r="CW13" s="109"/>
+      <c r="CX13" s="110"/>
+      <c r="CY13" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="CZ13" s="96"/>
-      <c r="DA13" s="97"/>
-      <c r="DB13" s="95" t="s">
+      <c r="CZ13" s="109"/>
+      <c r="DA13" s="110"/>
+      <c r="DB13" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="DC13" s="96"/>
-      <c r="DD13" s="97"/>
-    </row>
-    <row r="14" spans="3:108" x14ac:dyDescent="0.35">
+      <c r="DC13" s="109"/>
+      <c r="DD13" s="110"/>
+    </row>
+    <row r="14" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C14" s="52" t="s">
         <v>12</v>
       </c>
@@ -1994,7 +2027,7 @@
       <c r="DC14" s="32"/>
       <c r="DD14" s="84"/>
     </row>
-    <row r="15" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C15" s="53" t="s">
         <v>13</v>
       </c>
@@ -2104,7 +2137,7 @@
       <c r="DC15" s="2"/>
       <c r="DD15" s="42"/>
     </row>
-    <row r="16" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C16" s="53" t="s">
         <v>14</v>
       </c>
@@ -2214,7 +2247,7 @@
       <c r="DC16" s="2"/>
       <c r="DD16" s="42"/>
     </row>
-    <row r="17" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C17" s="53" t="s">
         <v>15</v>
       </c>
@@ -2324,7 +2357,7 @@
       <c r="DC17" s="2"/>
       <c r="DD17" s="42"/>
     </row>
-    <row r="18" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C18" s="53" t="s">
         <v>16</v>
       </c>
@@ -2434,7 +2467,7 @@
       <c r="DC18" s="2"/>
       <c r="DD18" s="42"/>
     </row>
-    <row r="19" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C19" s="53" t="s">
         <v>17</v>
       </c>
@@ -2544,7 +2577,7 @@
       <c r="DC19" s="2"/>
       <c r="DD19" s="42"/>
     </row>
-    <row r="20" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C20" s="53" t="s">
         <v>18</v>
       </c>
@@ -2654,7 +2687,7 @@
       <c r="DC20" s="2"/>
       <c r="DD20" s="42"/>
     </row>
-    <row r="21" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C21" s="53" t="s">
         <v>19</v>
       </c>
@@ -2764,7 +2797,7 @@
       <c r="DC21" s="2"/>
       <c r="DD21" s="42"/>
     </row>
-    <row r="22" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C22" s="53" t="s">
         <v>20</v>
       </c>
@@ -2874,9 +2907,9 @@
       <c r="DC22" s="2"/>
       <c r="DD22" s="42"/>
     </row>
-    <row r="23" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C23" s="53" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D23" s="55"/>
       <c r="E23" s="2"/>
@@ -2984,7 +3017,7 @@
       <c r="DC23" s="2"/>
       <c r="DD23" s="42"/>
     </row>
-    <row r="24" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C24" s="53" t="s">
         <v>22</v>
       </c>
@@ -3094,7 +3127,7 @@
       <c r="DC24" s="2"/>
       <c r="DD24" s="42"/>
     </row>
-    <row r="25" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C25" s="53" t="s">
         <v>23</v>
       </c>
@@ -3204,7 +3237,7 @@
       <c r="DC25" s="2"/>
       <c r="DD25" s="42"/>
     </row>
-    <row r="26" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C26" s="53" t="s">
         <v>24</v>
       </c>
@@ -3314,7 +3347,7 @@
       <c r="DC26" s="2"/>
       <c r="DD26" s="42"/>
     </row>
-    <row r="27" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C27" s="53" t="s">
         <v>25</v>
       </c>
@@ -3424,7 +3457,7 @@
       <c r="DC27" s="2"/>
       <c r="DD27" s="42"/>
     </row>
-    <row r="28" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C28" s="53" t="s">
         <v>26</v>
       </c>
@@ -3534,7 +3567,7 @@
       <c r="DC28" s="2"/>
       <c r="DD28" s="42"/>
     </row>
-    <row r="29" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C29" s="53" t="s">
         <v>27</v>
       </c>
@@ -3644,7 +3677,7 @@
       <c r="DC29" s="2"/>
       <c r="DD29" s="42"/>
     </row>
-    <row r="30" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C30" s="53" t="s">
         <v>28</v>
       </c>
@@ -3754,9 +3787,9 @@
       <c r="DC30" s="2"/>
       <c r="DD30" s="42"/>
     </row>
-    <row r="31" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C31" s="53" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D31" s="55"/>
       <c r="E31" s="2"/>
@@ -3864,9 +3897,9 @@
       <c r="DC31" s="2"/>
       <c r="DD31" s="42"/>
     </row>
-    <row r="32" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C32" s="53" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D32" s="55"/>
       <c r="E32" s="2"/>
@@ -3974,9 +4007,9 @@
       <c r="DC32" s="2"/>
       <c r="DD32" s="42"/>
     </row>
-    <row r="33" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C33" s="53" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D33" s="55"/>
       <c r="E33" s="2"/>
@@ -4084,9 +4117,9 @@
       <c r="DC33" s="2"/>
       <c r="DD33" s="42"/>
     </row>
-    <row r="34" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C34" s="53" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D34" s="55"/>
       <c r="E34" s="2"/>
@@ -4194,9 +4227,9 @@
       <c r="DC34" s="2"/>
       <c r="DD34" s="42"/>
     </row>
-    <row r="35" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C35" s="53" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D35" s="55"/>
       <c r="E35" s="2"/>
@@ -4304,9 +4337,9 @@
       <c r="DC35" s="2"/>
       <c r="DD35" s="42"/>
     </row>
-    <row r="36" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C36" s="53" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D36" s="55"/>
       <c r="E36" s="2"/>
@@ -4414,7 +4447,7 @@
       <c r="DC36" s="2"/>
       <c r="DD36" s="42"/>
     </row>
-    <row r="37" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C37" s="53" t="s">
         <v>35</v>
       </c>
@@ -4524,7 +4557,7 @@
       <c r="DC37" s="2"/>
       <c r="DD37" s="42"/>
     </row>
-    <row r="38" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C38" s="53" t="s">
         <v>36</v>
       </c>
@@ -4634,9 +4667,9 @@
       <c r="DC38" s="2"/>
       <c r="DD38" s="42"/>
     </row>
-    <row r="39" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C39" s="53" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D39" s="55"/>
       <c r="E39" s="2"/>
@@ -4744,7 +4777,7 @@
       <c r="DC39" s="2"/>
       <c r="DD39" s="42"/>
     </row>
-    <row r="40" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C40" s="53" t="s">
         <v>38</v>
       </c>
@@ -4854,9 +4887,9 @@
       <c r="DC40" s="2"/>
       <c r="DD40" s="42"/>
     </row>
-    <row r="41" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C41" s="53" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D41" s="55"/>
       <c r="E41" s="2"/>
@@ -4964,9 +4997,9 @@
       <c r="DC41" s="2"/>
       <c r="DD41" s="42"/>
     </row>
-    <row r="42" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C42" s="53" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D42" s="55"/>
       <c r="E42" s="2"/>
@@ -5074,9 +5107,9 @@
       <c r="DC42" s="2"/>
       <c r="DD42" s="42"/>
     </row>
-    <row r="43" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C43" s="53" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D43" s="55"/>
       <c r="E43" s="2"/>
@@ -5184,9 +5217,9 @@
       <c r="DC43" s="2"/>
       <c r="DD43" s="42"/>
     </row>
-    <row r="44" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C44" s="53" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D44" s="55"/>
       <c r="E44" s="2"/>
@@ -5294,7 +5327,7 @@
       <c r="DC44" s="2"/>
       <c r="DD44" s="42"/>
     </row>
-    <row r="45" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C45" s="53" t="s">
         <v>43</v>
       </c>
@@ -5404,9 +5437,9 @@
       <c r="DC45" s="2"/>
       <c r="DD45" s="42"/>
     </row>
-    <row r="46" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C46" s="53" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D46" s="55"/>
       <c r="E46" s="2"/>
@@ -5514,9 +5547,9 @@
       <c r="DC46" s="2"/>
       <c r="DD46" s="42"/>
     </row>
-    <row r="47" spans="3:108" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:108" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C47" s="54" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D47" s="58"/>
       <c r="E47" s="46"/>
@@ -5626,11 +5659,25 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="CJ11:DD12"/>
+    <mergeCell ref="CJ13:CL13"/>
+    <mergeCell ref="CM13:CO13"/>
+    <mergeCell ref="CP13:CR13"/>
+    <mergeCell ref="CS13:CU13"/>
+    <mergeCell ref="CV13:CX13"/>
+    <mergeCell ref="CY13:DA13"/>
+    <mergeCell ref="DB13:DD13"/>
+    <mergeCell ref="CA13:CC13"/>
+    <mergeCell ref="CD13:CF13"/>
+    <mergeCell ref="CG13:CI13"/>
+    <mergeCell ref="AT11:BN12"/>
+    <mergeCell ref="BO11:CI12"/>
+    <mergeCell ref="BL13:BN13"/>
+    <mergeCell ref="BO13:BQ13"/>
+    <mergeCell ref="BR13:BT13"/>
+    <mergeCell ref="BU13:BW13"/>
+    <mergeCell ref="BX13:BZ13"/>
+    <mergeCell ref="BC13:BE13"/>
     <mergeCell ref="D11:X12"/>
     <mergeCell ref="Y11:AS12"/>
     <mergeCell ref="BF13:BH13"/>
@@ -5647,25 +5694,11 @@
     <mergeCell ref="AB13:AD13"/>
     <mergeCell ref="AE13:AG13"/>
     <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="CA13:CC13"/>
-    <mergeCell ref="CD13:CF13"/>
-    <mergeCell ref="CG13:CI13"/>
-    <mergeCell ref="AT11:BN12"/>
-    <mergeCell ref="BO11:CI12"/>
-    <mergeCell ref="BL13:BN13"/>
-    <mergeCell ref="BO13:BQ13"/>
-    <mergeCell ref="BR13:BT13"/>
-    <mergeCell ref="BU13:BW13"/>
-    <mergeCell ref="BX13:BZ13"/>
-    <mergeCell ref="BC13:BE13"/>
-    <mergeCell ref="CJ11:DD12"/>
-    <mergeCell ref="CJ13:CL13"/>
-    <mergeCell ref="CM13:CO13"/>
-    <mergeCell ref="CP13:CR13"/>
-    <mergeCell ref="CS13:CU13"/>
-    <mergeCell ref="CV13:CX13"/>
-    <mergeCell ref="CY13:DA13"/>
-    <mergeCell ref="DB13:DD13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:R13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5678,421 +5711,421 @@
   <dimension ref="C5:DD42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R62" sqref="R62"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="108" width="2.7265625" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="108" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:108" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:108" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C6" s="50"/>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="91"/>
-      <c r="Y6" s="101" t="s">
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="112"/>
+      <c r="R6" s="112"/>
+      <c r="S6" s="112"/>
+      <c r="T6" s="112"/>
+      <c r="U6" s="112"/>
+      <c r="V6" s="112"/>
+      <c r="W6" s="112"/>
+      <c r="X6" s="113"/>
+      <c r="Y6" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="Z6" s="102"/>
-      <c r="AA6" s="102"/>
-      <c r="AB6" s="102"/>
-      <c r="AC6" s="102"/>
-      <c r="AD6" s="102"/>
-      <c r="AE6" s="102"/>
-      <c r="AF6" s="102"/>
-      <c r="AG6" s="102"/>
-      <c r="AH6" s="102"/>
-      <c r="AI6" s="102"/>
-      <c r="AJ6" s="102"/>
-      <c r="AK6" s="102"/>
-      <c r="AL6" s="102"/>
-      <c r="AM6" s="102"/>
-      <c r="AN6" s="102"/>
-      <c r="AO6" s="102"/>
-      <c r="AP6" s="102"/>
-      <c r="AQ6" s="102"/>
-      <c r="AR6" s="102"/>
-      <c r="AS6" s="103"/>
-      <c r="AT6" s="89" t="s">
+      <c r="Z6" s="118"/>
+      <c r="AA6" s="118"/>
+      <c r="AB6" s="118"/>
+      <c r="AC6" s="118"/>
+      <c r="AD6" s="118"/>
+      <c r="AE6" s="118"/>
+      <c r="AF6" s="118"/>
+      <c r="AG6" s="118"/>
+      <c r="AH6" s="118"/>
+      <c r="AI6" s="118"/>
+      <c r="AJ6" s="118"/>
+      <c r="AK6" s="118"/>
+      <c r="AL6" s="118"/>
+      <c r="AM6" s="118"/>
+      <c r="AN6" s="118"/>
+      <c r="AO6" s="118"/>
+      <c r="AP6" s="118"/>
+      <c r="AQ6" s="118"/>
+      <c r="AR6" s="118"/>
+      <c r="AS6" s="119"/>
+      <c r="AT6" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="AU6" s="90"/>
-      <c r="AV6" s="90"/>
-      <c r="AW6" s="90"/>
-      <c r="AX6" s="90"/>
-      <c r="AY6" s="90"/>
-      <c r="AZ6" s="90"/>
-      <c r="BA6" s="90"/>
-      <c r="BB6" s="90"/>
-      <c r="BC6" s="90"/>
-      <c r="BD6" s="90"/>
-      <c r="BE6" s="90"/>
-      <c r="BF6" s="90"/>
-      <c r="BG6" s="90"/>
-      <c r="BH6" s="90"/>
-      <c r="BI6" s="90"/>
-      <c r="BJ6" s="90"/>
-      <c r="BK6" s="90"/>
-      <c r="BL6" s="90"/>
-      <c r="BM6" s="90"/>
-      <c r="BN6" s="91"/>
-      <c r="BO6" s="101" t="s">
+      <c r="AU6" s="112"/>
+      <c r="AV6" s="112"/>
+      <c r="AW6" s="112"/>
+      <c r="AX6" s="112"/>
+      <c r="AY6" s="112"/>
+      <c r="AZ6" s="112"/>
+      <c r="BA6" s="112"/>
+      <c r="BB6" s="112"/>
+      <c r="BC6" s="112"/>
+      <c r="BD6" s="112"/>
+      <c r="BE6" s="112"/>
+      <c r="BF6" s="112"/>
+      <c r="BG6" s="112"/>
+      <c r="BH6" s="112"/>
+      <c r="BI6" s="112"/>
+      <c r="BJ6" s="112"/>
+      <c r="BK6" s="112"/>
+      <c r="BL6" s="112"/>
+      <c r="BM6" s="112"/>
+      <c r="BN6" s="113"/>
+      <c r="BO6" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="BP6" s="102"/>
-      <c r="BQ6" s="102"/>
-      <c r="BR6" s="102"/>
-      <c r="BS6" s="102"/>
-      <c r="BT6" s="102"/>
-      <c r="BU6" s="102"/>
-      <c r="BV6" s="102"/>
-      <c r="BW6" s="102"/>
-      <c r="BX6" s="102"/>
-      <c r="BY6" s="102"/>
-      <c r="BZ6" s="102"/>
-      <c r="CA6" s="102"/>
-      <c r="CB6" s="102"/>
-      <c r="CC6" s="102"/>
-      <c r="CD6" s="102"/>
-      <c r="CE6" s="102"/>
-      <c r="CF6" s="102"/>
-      <c r="CG6" s="102"/>
-      <c r="CH6" s="102"/>
-      <c r="CI6" s="103"/>
-      <c r="CJ6" s="89" t="s">
+      <c r="BP6" s="118"/>
+      <c r="BQ6" s="118"/>
+      <c r="BR6" s="118"/>
+      <c r="BS6" s="118"/>
+      <c r="BT6" s="118"/>
+      <c r="BU6" s="118"/>
+      <c r="BV6" s="118"/>
+      <c r="BW6" s="118"/>
+      <c r="BX6" s="118"/>
+      <c r="BY6" s="118"/>
+      <c r="BZ6" s="118"/>
+      <c r="CA6" s="118"/>
+      <c r="CB6" s="118"/>
+      <c r="CC6" s="118"/>
+      <c r="CD6" s="118"/>
+      <c r="CE6" s="118"/>
+      <c r="CF6" s="118"/>
+      <c r="CG6" s="118"/>
+      <c r="CH6" s="118"/>
+      <c r="CI6" s="119"/>
+      <c r="CJ6" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="CK6" s="90"/>
-      <c r="CL6" s="90"/>
-      <c r="CM6" s="90"/>
-      <c r="CN6" s="90"/>
-      <c r="CO6" s="90"/>
-      <c r="CP6" s="90"/>
-      <c r="CQ6" s="90"/>
-      <c r="CR6" s="90"/>
-      <c r="CS6" s="90"/>
-      <c r="CT6" s="90"/>
-      <c r="CU6" s="90"/>
-      <c r="CV6" s="90"/>
-      <c r="CW6" s="90"/>
-      <c r="CX6" s="90"/>
-      <c r="CY6" s="90"/>
-      <c r="CZ6" s="90"/>
-      <c r="DA6" s="90"/>
-      <c r="DB6" s="90"/>
-      <c r="DC6" s="90"/>
-      <c r="DD6" s="91"/>
-    </row>
-    <row r="7" spans="3:108" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="CK6" s="112"/>
+      <c r="CL6" s="112"/>
+      <c r="CM6" s="112"/>
+      <c r="CN6" s="112"/>
+      <c r="CO6" s="112"/>
+      <c r="CP6" s="112"/>
+      <c r="CQ6" s="112"/>
+      <c r="CR6" s="112"/>
+      <c r="CS6" s="112"/>
+      <c r="CT6" s="112"/>
+      <c r="CU6" s="112"/>
+      <c r="CV6" s="112"/>
+      <c r="CW6" s="112"/>
+      <c r="CX6" s="112"/>
+      <c r="CY6" s="112"/>
+      <c r="CZ6" s="112"/>
+      <c r="DA6" s="112"/>
+      <c r="DB6" s="112"/>
+      <c r="DC6" s="112"/>
+      <c r="DD6" s="113"/>
+    </row>
+    <row r="7" spans="3:108" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="51"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="104"/>
-      <c r="Z7" s="105"/>
-      <c r="AA7" s="105"/>
-      <c r="AB7" s="105"/>
-      <c r="AC7" s="105"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="105"/>
-      <c r="AF7" s="105"/>
-      <c r="AG7" s="105"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="105"/>
-      <c r="AJ7" s="105"/>
-      <c r="AK7" s="105"/>
-      <c r="AL7" s="105"/>
-      <c r="AM7" s="105"/>
-      <c r="AN7" s="105"/>
-      <c r="AO7" s="105"/>
-      <c r="AP7" s="105"/>
-      <c r="AQ7" s="105"/>
-      <c r="AR7" s="105"/>
-      <c r="AS7" s="106"/>
-      <c r="AT7" s="92"/>
-      <c r="AU7" s="93"/>
-      <c r="AV7" s="93"/>
-      <c r="AW7" s="93"/>
-      <c r="AX7" s="93"/>
-      <c r="AY7" s="93"/>
-      <c r="AZ7" s="93"/>
-      <c r="BA7" s="93"/>
-      <c r="BB7" s="93"/>
-      <c r="BC7" s="93"/>
-      <c r="BD7" s="93"/>
-      <c r="BE7" s="93"/>
-      <c r="BF7" s="93"/>
-      <c r="BG7" s="93"/>
-      <c r="BH7" s="93"/>
-      <c r="BI7" s="93"/>
-      <c r="BJ7" s="93"/>
-      <c r="BK7" s="93"/>
-      <c r="BL7" s="93"/>
-      <c r="BM7" s="93"/>
-      <c r="BN7" s="94"/>
-      <c r="BO7" s="104"/>
-      <c r="BP7" s="105"/>
-      <c r="BQ7" s="105"/>
-      <c r="BR7" s="105"/>
-      <c r="BS7" s="105"/>
-      <c r="BT7" s="105"/>
-      <c r="BU7" s="105"/>
-      <c r="BV7" s="105"/>
-      <c r="BW7" s="105"/>
-      <c r="BX7" s="105"/>
-      <c r="BY7" s="105"/>
-      <c r="BZ7" s="105"/>
-      <c r="CA7" s="105"/>
-      <c r="CB7" s="105"/>
-      <c r="CC7" s="105"/>
-      <c r="CD7" s="105"/>
-      <c r="CE7" s="105"/>
-      <c r="CF7" s="105"/>
-      <c r="CG7" s="105"/>
-      <c r="CH7" s="105"/>
-      <c r="CI7" s="106"/>
-      <c r="CJ7" s="92"/>
-      <c r="CK7" s="93"/>
-      <c r="CL7" s="93"/>
-      <c r="CM7" s="93"/>
-      <c r="CN7" s="93"/>
-      <c r="CO7" s="93"/>
-      <c r="CP7" s="93"/>
-      <c r="CQ7" s="93"/>
-      <c r="CR7" s="93"/>
-      <c r="CS7" s="93"/>
-      <c r="CT7" s="93"/>
-      <c r="CU7" s="93"/>
-      <c r="CV7" s="93"/>
-      <c r="CW7" s="93"/>
-      <c r="CX7" s="93"/>
-      <c r="CY7" s="93"/>
-      <c r="CZ7" s="93"/>
-      <c r="DA7" s="93"/>
-      <c r="DB7" s="93"/>
-      <c r="DC7" s="93"/>
-      <c r="DD7" s="94"/>
-    </row>
-    <row r="8" spans="3:108" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="114"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="120"/>
+      <c r="Z7" s="121"/>
+      <c r="AA7" s="121"/>
+      <c r="AB7" s="121"/>
+      <c r="AC7" s="121"/>
+      <c r="AD7" s="121"/>
+      <c r="AE7" s="121"/>
+      <c r="AF7" s="121"/>
+      <c r="AG7" s="121"/>
+      <c r="AH7" s="121"/>
+      <c r="AI7" s="121"/>
+      <c r="AJ7" s="121"/>
+      <c r="AK7" s="121"/>
+      <c r="AL7" s="121"/>
+      <c r="AM7" s="121"/>
+      <c r="AN7" s="121"/>
+      <c r="AO7" s="121"/>
+      <c r="AP7" s="121"/>
+      <c r="AQ7" s="121"/>
+      <c r="AR7" s="121"/>
+      <c r="AS7" s="122"/>
+      <c r="AT7" s="114"/>
+      <c r="AU7" s="115"/>
+      <c r="AV7" s="115"/>
+      <c r="AW7" s="115"/>
+      <c r="AX7" s="115"/>
+      <c r="AY7" s="115"/>
+      <c r="AZ7" s="115"/>
+      <c r="BA7" s="115"/>
+      <c r="BB7" s="115"/>
+      <c r="BC7" s="115"/>
+      <c r="BD7" s="115"/>
+      <c r="BE7" s="115"/>
+      <c r="BF7" s="115"/>
+      <c r="BG7" s="115"/>
+      <c r="BH7" s="115"/>
+      <c r="BI7" s="115"/>
+      <c r="BJ7" s="115"/>
+      <c r="BK7" s="115"/>
+      <c r="BL7" s="115"/>
+      <c r="BM7" s="115"/>
+      <c r="BN7" s="116"/>
+      <c r="BO7" s="120"/>
+      <c r="BP7" s="121"/>
+      <c r="BQ7" s="121"/>
+      <c r="BR7" s="121"/>
+      <c r="BS7" s="121"/>
+      <c r="BT7" s="121"/>
+      <c r="BU7" s="121"/>
+      <c r="BV7" s="121"/>
+      <c r="BW7" s="121"/>
+      <c r="BX7" s="121"/>
+      <c r="BY7" s="121"/>
+      <c r="BZ7" s="121"/>
+      <c r="CA7" s="121"/>
+      <c r="CB7" s="121"/>
+      <c r="CC7" s="121"/>
+      <c r="CD7" s="121"/>
+      <c r="CE7" s="121"/>
+      <c r="CF7" s="121"/>
+      <c r="CG7" s="121"/>
+      <c r="CH7" s="121"/>
+      <c r="CI7" s="122"/>
+      <c r="CJ7" s="114"/>
+      <c r="CK7" s="115"/>
+      <c r="CL7" s="115"/>
+      <c r="CM7" s="115"/>
+      <c r="CN7" s="115"/>
+      <c r="CO7" s="115"/>
+      <c r="CP7" s="115"/>
+      <c r="CQ7" s="115"/>
+      <c r="CR7" s="115"/>
+      <c r="CS7" s="115"/>
+      <c r="CT7" s="115"/>
+      <c r="CU7" s="115"/>
+      <c r="CV7" s="115"/>
+      <c r="CW7" s="115"/>
+      <c r="CX7" s="115"/>
+      <c r="CY7" s="115"/>
+      <c r="CZ7" s="115"/>
+      <c r="DA7" s="115"/>
+      <c r="DB7" s="115"/>
+      <c r="DC7" s="115"/>
+      <c r="DD7" s="116"/>
+    </row>
+    <row r="8" spans="3:108" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="86"/>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="96"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="95" t="s">
+      <c r="E8" s="109"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="96"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="95" t="s">
+      <c r="H8" s="109"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="96"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="95" t="s">
+      <c r="K8" s="109"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="96"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="95" t="s">
+      <c r="N8" s="109"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="97"/>
-      <c r="S8" s="95" t="s">
+      <c r="Q8" s="109"/>
+      <c r="R8" s="110"/>
+      <c r="S8" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="T8" s="96"/>
-      <c r="U8" s="97"/>
-      <c r="V8" s="95" t="s">
+      <c r="T8" s="109"/>
+      <c r="U8" s="110"/>
+      <c r="V8" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="W8" s="96"/>
-      <c r="X8" s="97"/>
-      <c r="Y8" s="98" t="s">
+      <c r="W8" s="109"/>
+      <c r="X8" s="110"/>
+      <c r="Y8" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="Z8" s="99"/>
-      <c r="AA8" s="100"/>
-      <c r="AB8" s="98" t="s">
+      <c r="Z8" s="124"/>
+      <c r="AA8" s="125"/>
+      <c r="AB8" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="AC8" s="99"/>
-      <c r="AD8" s="100"/>
-      <c r="AE8" s="98" t="s">
+      <c r="AC8" s="124"/>
+      <c r="AD8" s="125"/>
+      <c r="AE8" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="AF8" s="99"/>
-      <c r="AG8" s="100"/>
-      <c r="AH8" s="98" t="s">
+      <c r="AF8" s="124"/>
+      <c r="AG8" s="125"/>
+      <c r="AH8" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="AI8" s="99"/>
-      <c r="AJ8" s="100"/>
-      <c r="AK8" s="98" t="s">
+      <c r="AI8" s="124"/>
+      <c r="AJ8" s="125"/>
+      <c r="AK8" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="AL8" s="99"/>
-      <c r="AM8" s="100"/>
-      <c r="AN8" s="98" t="s">
+      <c r="AL8" s="124"/>
+      <c r="AM8" s="125"/>
+      <c r="AN8" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="AO8" s="99"/>
-      <c r="AP8" s="100"/>
-      <c r="AQ8" s="98" t="s">
+      <c r="AO8" s="124"/>
+      <c r="AP8" s="125"/>
+      <c r="AQ8" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="AR8" s="99"/>
-      <c r="AS8" s="100"/>
-      <c r="AT8" s="95" t="s">
+      <c r="AR8" s="124"/>
+      <c r="AS8" s="125"/>
+      <c r="AT8" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="AU8" s="96"/>
-      <c r="AV8" s="97"/>
-      <c r="AW8" s="95" t="s">
+      <c r="AU8" s="109"/>
+      <c r="AV8" s="110"/>
+      <c r="AW8" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="AX8" s="96"/>
-      <c r="AY8" s="97"/>
-      <c r="AZ8" s="95" t="s">
+      <c r="AX8" s="109"/>
+      <c r="AY8" s="110"/>
+      <c r="AZ8" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="BA8" s="96"/>
-      <c r="BB8" s="97"/>
-      <c r="BC8" s="95" t="s">
+      <c r="BA8" s="109"/>
+      <c r="BB8" s="110"/>
+      <c r="BC8" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="BD8" s="96"/>
-      <c r="BE8" s="97"/>
-      <c r="BF8" s="95" t="s">
+      <c r="BD8" s="109"/>
+      <c r="BE8" s="110"/>
+      <c r="BF8" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="BG8" s="96"/>
-      <c r="BH8" s="97"/>
-      <c r="BI8" s="95" t="s">
+      <c r="BG8" s="109"/>
+      <c r="BH8" s="110"/>
+      <c r="BI8" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="BJ8" s="96"/>
-      <c r="BK8" s="97"/>
-      <c r="BL8" s="95" t="s">
+      <c r="BJ8" s="109"/>
+      <c r="BK8" s="110"/>
+      <c r="BL8" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="BM8" s="96"/>
-      <c r="BN8" s="97"/>
-      <c r="BO8" s="98" t="s">
+      <c r="BM8" s="109"/>
+      <c r="BN8" s="110"/>
+      <c r="BO8" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="BP8" s="99"/>
-      <c r="BQ8" s="100"/>
-      <c r="BR8" s="98" t="s">
+      <c r="BP8" s="124"/>
+      <c r="BQ8" s="125"/>
+      <c r="BR8" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="BS8" s="99"/>
-      <c r="BT8" s="100"/>
-      <c r="BU8" s="98" t="s">
+      <c r="BS8" s="124"/>
+      <c r="BT8" s="125"/>
+      <c r="BU8" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="BV8" s="99"/>
-      <c r="BW8" s="100"/>
-      <c r="BX8" s="98" t="s">
+      <c r="BV8" s="124"/>
+      <c r="BW8" s="125"/>
+      <c r="BX8" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="BY8" s="99"/>
-      <c r="BZ8" s="100"/>
-      <c r="CA8" s="98" t="s">
+      <c r="BY8" s="124"/>
+      <c r="BZ8" s="125"/>
+      <c r="CA8" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="CB8" s="99"/>
-      <c r="CC8" s="100"/>
-      <c r="CD8" s="98" t="s">
+      <c r="CB8" s="124"/>
+      <c r="CC8" s="125"/>
+      <c r="CD8" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="CE8" s="99"/>
-      <c r="CF8" s="100"/>
-      <c r="CG8" s="98" t="s">
+      <c r="CE8" s="124"/>
+      <c r="CF8" s="125"/>
+      <c r="CG8" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="CH8" s="99"/>
-      <c r="CI8" s="100"/>
-      <c r="CJ8" s="95" t="s">
+      <c r="CH8" s="124"/>
+      <c r="CI8" s="125"/>
+      <c r="CJ8" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="CK8" s="96"/>
-      <c r="CL8" s="97"/>
-      <c r="CM8" s="95" t="s">
+      <c r="CK8" s="109"/>
+      <c r="CL8" s="110"/>
+      <c r="CM8" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="CN8" s="96"/>
-      <c r="CO8" s="97"/>
-      <c r="CP8" s="95" t="s">
+      <c r="CN8" s="109"/>
+      <c r="CO8" s="110"/>
+      <c r="CP8" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="CQ8" s="96"/>
-      <c r="CR8" s="97"/>
-      <c r="CS8" s="95" t="s">
+      <c r="CQ8" s="109"/>
+      <c r="CR8" s="110"/>
+      <c r="CS8" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="CT8" s="96"/>
-      <c r="CU8" s="97"/>
-      <c r="CV8" s="95" t="s">
+      <c r="CT8" s="109"/>
+      <c r="CU8" s="110"/>
+      <c r="CV8" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="CW8" s="96"/>
-      <c r="CX8" s="97"/>
-      <c r="CY8" s="95" t="s">
+      <c r="CW8" s="109"/>
+      <c r="CX8" s="110"/>
+      <c r="CY8" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="CZ8" s="96"/>
-      <c r="DA8" s="97"/>
-      <c r="DB8" s="95" t="s">
+      <c r="CZ8" s="109"/>
+      <c r="DA8" s="110"/>
+      <c r="DB8" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="DC8" s="96"/>
-      <c r="DD8" s="97"/>
-    </row>
-    <row r="9" spans="3:108" x14ac:dyDescent="0.35">
+      <c r="DC8" s="109"/>
+      <c r="DD8" s="110"/>
+    </row>
+    <row r="9" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C9" s="52" t="s">
         <v>12</v>
       </c>
@@ -6202,11 +6235,11 @@
       <c r="DC9" s="32"/>
       <c r="DD9" s="84"/>
     </row>
-    <row r="10" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C10" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="107"/>
+      <c r="D10" s="89"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="2"/>
@@ -6312,7 +6345,7 @@
       <c r="DC10" s="2"/>
       <c r="DD10" s="42"/>
     </row>
-    <row r="11" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C11" s="53" t="s">
         <v>14</v>
       </c>
@@ -6422,11 +6455,11 @@
       <c r="DC11" s="2"/>
       <c r="DD11" s="42"/>
     </row>
-    <row r="12" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C12" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="108"/>
+      <c r="D12" s="90"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="2"/>
@@ -6532,11 +6565,11 @@
       <c r="DC12" s="2"/>
       <c r="DD12" s="42"/>
     </row>
-    <row r="13" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C13" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="109"/>
+      <c r="D13" s="91"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -6642,7 +6675,7 @@
       <c r="DC13" s="2"/>
       <c r="DD13" s="42"/>
     </row>
-    <row r="14" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C14" s="53" t="s">
         <v>17</v>
       </c>
@@ -6688,7 +6721,7 @@
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
       <c r="AS14" s="59"/>
-      <c r="AT14" s="115"/>
+      <c r="AT14" s="97"/>
       <c r="AU14" s="10"/>
       <c r="AV14" s="10"/>
       <c r="AW14" s="2"/>
@@ -6752,7 +6785,7 @@
       <c r="DC14" s="2"/>
       <c r="DD14" s="42"/>
     </row>
-    <row r="15" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C15" s="53" t="s">
         <v>18</v>
       </c>
@@ -6862,7 +6895,7 @@
       <c r="DC15" s="2"/>
       <c r="DD15" s="42"/>
     </row>
-    <row r="16" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C16" s="53" t="s">
         <v>19</v>
       </c>
@@ -6972,7 +7005,7 @@
       <c r="DC16" s="2"/>
       <c r="DD16" s="42"/>
     </row>
-    <row r="17" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C17" s="53" t="s">
         <v>20</v>
       </c>
@@ -7082,9 +7115,9 @@
       <c r="DC17" s="2"/>
       <c r="DD17" s="42"/>
     </row>
-    <row r="18" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C18" s="53" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D18" s="55"/>
       <c r="E18" s="2"/>
@@ -7192,7 +7225,7 @@
       <c r="DC18" s="2"/>
       <c r="DD18" s="42"/>
     </row>
-    <row r="19" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C19" s="53" t="s">
         <v>22</v>
       </c>
@@ -7237,7 +7270,7 @@
       <c r="AP19" s="15"/>
       <c r="AQ19" s="15"/>
       <c r="AR19" s="15"/>
-      <c r="AS19" s="116"/>
+      <c r="AS19" s="98"/>
       <c r="AT19" s="55"/>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
@@ -7302,7 +7335,7 @@
       <c r="DC19" s="2"/>
       <c r="DD19" s="42"/>
     </row>
-    <row r="20" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C20" s="53" t="s">
         <v>23</v>
       </c>
@@ -7327,7 +7360,7 @@
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
       <c r="X20" s="57"/>
-      <c r="Y20" s="111"/>
+      <c r="Y20" s="93"/>
       <c r="Z20" s="16"/>
       <c r="AA20" s="16"/>
       <c r="AB20" s="1"/>
@@ -7412,7 +7445,7 @@
       <c r="DC20" s="2"/>
       <c r="DD20" s="42"/>
     </row>
-    <row r="21" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C21" s="53" t="s">
         <v>24</v>
       </c>
@@ -7437,7 +7470,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="42"/>
-      <c r="Y21" s="112"/>
+      <c r="Y21" s="94"/>
       <c r="Z21" s="17"/>
       <c r="AA21" s="17"/>
       <c r="AB21" s="17"/>
@@ -7522,7 +7555,7 @@
       <c r="DC21" s="2"/>
       <c r="DD21" s="42"/>
     </row>
-    <row r="22" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C22" s="53" t="s">
         <v>25</v>
       </c>
@@ -7632,7 +7665,7 @@
       <c r="DC22" s="2"/>
       <c r="DD22" s="42"/>
     </row>
-    <row r="23" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C23" s="53" t="s">
         <v>26</v>
       </c>
@@ -7645,12 +7678,12 @@
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="110"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="92"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -7742,7 +7775,7 @@
       <c r="DC23" s="2"/>
       <c r="DD23" s="42"/>
     </row>
-    <row r="24" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C24" s="53" t="s">
         <v>27</v>
       </c>
@@ -7767,7 +7800,7 @@
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
       <c r="X24" s="69"/>
-      <c r="Y24" s="113"/>
+      <c r="Y24" s="95"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
@@ -7852,7 +7885,7 @@
       <c r="DC24" s="2"/>
       <c r="DD24" s="42"/>
     </row>
-    <row r="25" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C25" s="53" t="s">
         <v>28</v>
       </c>
@@ -7962,9 +7995,9 @@
       <c r="DC25" s="2"/>
       <c r="DD25" s="42"/>
     </row>
-    <row r="26" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C26" s="53" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D26" s="55"/>
       <c r="E26" s="2"/>
@@ -8007,8 +8040,8 @@
       <c r="AP26" s="21"/>
       <c r="AQ26" s="21"/>
       <c r="AR26" s="21"/>
-      <c r="AS26" s="117"/>
-      <c r="AT26" s="118"/>
+      <c r="AS26" s="99"/>
+      <c r="AT26" s="100"/>
       <c r="AU26" s="21"/>
       <c r="AV26" s="21"/>
       <c r="AW26" s="2"/>
@@ -8028,7 +8061,7 @@
       <c r="BK26" s="21"/>
       <c r="BL26" s="21"/>
       <c r="BM26" s="21"/>
-      <c r="BN26" s="117"/>
+      <c r="BN26" s="99"/>
       <c r="BO26" s="43"/>
       <c r="BP26" s="1"/>
       <c r="BQ26" s="1"/>
@@ -8072,7 +8105,7 @@
       <c r="DC26" s="2"/>
       <c r="DD26" s="42"/>
     </row>
-    <row r="27" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C27" s="53" t="s">
         <v>46</v>
       </c>
@@ -8124,7 +8157,7 @@
       <c r="AW27" s="2"/>
       <c r="AX27" s="2"/>
       <c r="AY27" s="2"/>
-      <c r="AZ27" s="119"/>
+      <c r="AZ27" s="101"/>
       <c r="BA27" s="2"/>
       <c r="BB27" s="2"/>
       <c r="BC27" s="2"/>
@@ -8138,7 +8171,7 @@
       <c r="BK27" s="22"/>
       <c r="BL27" s="22"/>
       <c r="BM27" s="22"/>
-      <c r="BN27" s="125"/>
+      <c r="BN27" s="107"/>
       <c r="BO27" s="43"/>
       <c r="BP27" s="1"/>
       <c r="BQ27" s="1"/>
@@ -8182,9 +8215,9 @@
       <c r="DC27" s="2"/>
       <c r="DD27" s="42"/>
     </row>
-    <row r="28" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C28" s="53" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D28" s="55"/>
       <c r="E28" s="2"/>
@@ -8292,9 +8325,9 @@
       <c r="DC28" s="2"/>
       <c r="DD28" s="42"/>
     </row>
-    <row r="29" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C29" s="53" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D29" s="55"/>
       <c r="E29" s="2"/>
@@ -8402,9 +8435,9 @@
       <c r="DC29" s="2"/>
       <c r="DD29" s="42"/>
     </row>
-    <row r="30" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C30" s="53" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D30" s="55"/>
       <c r="E30" s="2"/>
@@ -8445,9 +8478,9 @@
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
       <c r="AP30" s="1"/>
-      <c r="AQ30" s="122"/>
-      <c r="AR30" s="122"/>
-      <c r="AS30" s="123"/>
+      <c r="AQ30" s="104"/>
+      <c r="AR30" s="104"/>
+      <c r="AS30" s="105"/>
       <c r="AT30" s="55"/>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
@@ -8512,9 +8545,9 @@
       <c r="DC30" s="2"/>
       <c r="DD30" s="42"/>
     </row>
-    <row r="31" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C31" s="53" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D31" s="55"/>
       <c r="E31" s="2"/>
@@ -8557,7 +8590,7 @@
       <c r="AP31" s="1"/>
       <c r="AQ31" s="28"/>
       <c r="AR31" s="28"/>
-      <c r="AS31" s="124"/>
+      <c r="AS31" s="106"/>
       <c r="AT31" s="55"/>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
@@ -8622,7 +8655,7 @@
       <c r="DC31" s="2"/>
       <c r="DD31" s="42"/>
     </row>
-    <row r="32" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C32" s="53" t="s">
         <v>35</v>
       </c>
@@ -8732,7 +8765,7 @@
       <c r="DC32" s="2"/>
       <c r="DD32" s="42"/>
     </row>
-    <row r="33" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C33" s="53" t="s">
         <v>36</v>
       </c>
@@ -8842,9 +8875,9 @@
       <c r="DC33" s="2"/>
       <c r="DD33" s="42"/>
     </row>
-    <row r="34" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C34" s="53" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D34" s="55"/>
       <c r="E34" s="2"/>
@@ -8885,9 +8918,9 @@
       <c r="AN34" s="1"/>
       <c r="AO34" s="1"/>
       <c r="AP34" s="1"/>
-      <c r="AQ34" s="120"/>
-      <c r="AR34" s="120"/>
-      <c r="AS34" s="121"/>
+      <c r="AQ34" s="102"/>
+      <c r="AR34" s="102"/>
+      <c r="AS34" s="103"/>
       <c r="AT34" s="74"/>
       <c r="AU34" s="32"/>
       <c r="AV34" s="32"/>
@@ -8952,7 +8985,7 @@
       <c r="DC34" s="2"/>
       <c r="DD34" s="42"/>
     </row>
-    <row r="35" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C35" s="53" t="s">
         <v>38</v>
       </c>
@@ -9062,9 +9095,9 @@
       <c r="DC35" s="2"/>
       <c r="DD35" s="42"/>
     </row>
-    <row r="36" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C36" s="53" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D36" s="55"/>
       <c r="E36" s="2"/>
@@ -9107,8 +9140,8 @@
       <c r="AP36" s="1"/>
       <c r="AQ36" s="34"/>
       <c r="AR36" s="34"/>
-      <c r="AS36" s="114"/>
-      <c r="AT36" s="119"/>
+      <c r="AS36" s="96"/>
+      <c r="AT36" s="101"/>
       <c r="AU36" s="2"/>
       <c r="AV36" s="55"/>
       <c r="AW36" s="2"/>
@@ -9172,9 +9205,9 @@
       <c r="DC36" s="2"/>
       <c r="DD36" s="42"/>
     </row>
-    <row r="37" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C37" s="53" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D37" s="55"/>
       <c r="E37" s="2"/>
@@ -9282,9 +9315,9 @@
       <c r="DC37" s="2"/>
       <c r="DD37" s="42"/>
     </row>
-    <row r="38" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C38" s="53" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D38" s="55"/>
       <c r="E38" s="2"/>
@@ -9392,9 +9425,9 @@
       <c r="DC38" s="2"/>
       <c r="DD38" s="42"/>
     </row>
-    <row r="39" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C39" s="53" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D39" s="55"/>
       <c r="E39" s="2"/>
@@ -9502,7 +9535,7 @@
       <c r="DC39" s="2"/>
       <c r="DD39" s="42"/>
     </row>
-    <row r="40" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C40" s="53" t="s">
         <v>43</v>
       </c>
@@ -9612,9 +9645,9 @@
       <c r="DC40" s="2"/>
       <c r="DD40" s="42"/>
     </row>
-    <row r="41" spans="3:108" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C41" s="53" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D41" s="55"/>
       <c r="E41" s="2"/>
@@ -9722,9 +9755,9 @@
       <c r="DC41" s="2"/>
       <c r="DD41" s="42"/>
     </row>
-    <row r="42" spans="3:108" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:108" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="54" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D42" s="58"/>
       <c r="E42" s="46"/>
@@ -9834,6 +9867,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="DB8:DD8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CA8:CC8"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="CM8:CO8"/>
+    <mergeCell ref="CP8:CR8"/>
+    <mergeCell ref="CS8:CU8"/>
+    <mergeCell ref="CV8:CX8"/>
+    <mergeCell ref="CY8:DA8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="BL8:BN8"/>
+    <mergeCell ref="BO8:BQ8"/>
     <mergeCell ref="CJ6:DD7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
@@ -9850,30 +9907,6 @@
     <mergeCell ref="Y8:AA8"/>
     <mergeCell ref="AB8:AD8"/>
     <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BK8"/>
-    <mergeCell ref="BL8:BN8"/>
-    <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="DB8:DD8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CA8:CC8"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="CM8:CO8"/>
-    <mergeCell ref="CP8:CR8"/>
-    <mergeCell ref="CS8:CU8"/>
-    <mergeCell ref="CV8:CX8"/>
-    <mergeCell ref="CY8:DA8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tids plan.xlsx
+++ b/tids plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\H5SvendeProeve\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85109DC2-DA18-408B-88EC-C4DA8BC07B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59856D7B-0CAB-496B-9E12-D58297864190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{51BDBD2F-21D4-47AF-9E17-74A1F69E1583}"/>
   </bookViews>
@@ -949,15 +949,6 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -976,6 +967,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -993,15 +1002,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1502,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBB1DA4-112D-4BCD-9481-4893314C9708}">
   <dimension ref="C10:DD47"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C47"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,407 +1515,407 @@
     <row r="10" spans="3:108" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="3:108" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="50"/>
-      <c r="D11" s="111" t="s">
+      <c r="D11" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="112"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="112"/>
-      <c r="W11" s="112"/>
-      <c r="X11" s="113"/>
-      <c r="Y11" s="117" t="s">
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="109"/>
+      <c r="W11" s="109"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="Z11" s="118"/>
-      <c r="AA11" s="118"/>
-      <c r="AB11" s="118"/>
-      <c r="AC11" s="118"/>
-      <c r="AD11" s="118"/>
-      <c r="AE11" s="118"/>
-      <c r="AF11" s="118"/>
-      <c r="AG11" s="118"/>
-      <c r="AH11" s="118"/>
-      <c r="AI11" s="118"/>
-      <c r="AJ11" s="118"/>
-      <c r="AK11" s="118"/>
-      <c r="AL11" s="118"/>
-      <c r="AM11" s="118"/>
-      <c r="AN11" s="118"/>
-      <c r="AO11" s="118"/>
-      <c r="AP11" s="118"/>
-      <c r="AQ11" s="118"/>
-      <c r="AR11" s="118"/>
-      <c r="AS11" s="119"/>
-      <c r="AT11" s="111" t="s">
+      <c r="Z11" s="121"/>
+      <c r="AA11" s="121"/>
+      <c r="AB11" s="121"/>
+      <c r="AC11" s="121"/>
+      <c r="AD11" s="121"/>
+      <c r="AE11" s="121"/>
+      <c r="AF11" s="121"/>
+      <c r="AG11" s="121"/>
+      <c r="AH11" s="121"/>
+      <c r="AI11" s="121"/>
+      <c r="AJ11" s="121"/>
+      <c r="AK11" s="121"/>
+      <c r="AL11" s="121"/>
+      <c r="AM11" s="121"/>
+      <c r="AN11" s="121"/>
+      <c r="AO11" s="121"/>
+      <c r="AP11" s="121"/>
+      <c r="AQ11" s="121"/>
+      <c r="AR11" s="121"/>
+      <c r="AS11" s="122"/>
+      <c r="AT11" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="AU11" s="112"/>
-      <c r="AV11" s="112"/>
-      <c r="AW11" s="112"/>
-      <c r="AX11" s="112"/>
-      <c r="AY11" s="112"/>
-      <c r="AZ11" s="112"/>
-      <c r="BA11" s="112"/>
-      <c r="BB11" s="112"/>
-      <c r="BC11" s="112"/>
-      <c r="BD11" s="112"/>
-      <c r="BE11" s="112"/>
-      <c r="BF11" s="112"/>
-      <c r="BG11" s="112"/>
-      <c r="BH11" s="112"/>
-      <c r="BI11" s="112"/>
-      <c r="BJ11" s="112"/>
-      <c r="BK11" s="112"/>
-      <c r="BL11" s="112"/>
-      <c r="BM11" s="112"/>
-      <c r="BN11" s="113"/>
-      <c r="BO11" s="117" t="s">
+      <c r="AU11" s="109"/>
+      <c r="AV11" s="109"/>
+      <c r="AW11" s="109"/>
+      <c r="AX11" s="109"/>
+      <c r="AY11" s="109"/>
+      <c r="AZ11" s="109"/>
+      <c r="BA11" s="109"/>
+      <c r="BB11" s="109"/>
+      <c r="BC11" s="109"/>
+      <c r="BD11" s="109"/>
+      <c r="BE11" s="109"/>
+      <c r="BF11" s="109"/>
+      <c r="BG11" s="109"/>
+      <c r="BH11" s="109"/>
+      <c r="BI11" s="109"/>
+      <c r="BJ11" s="109"/>
+      <c r="BK11" s="109"/>
+      <c r="BL11" s="109"/>
+      <c r="BM11" s="109"/>
+      <c r="BN11" s="110"/>
+      <c r="BO11" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="BP11" s="118"/>
-      <c r="BQ11" s="118"/>
-      <c r="BR11" s="118"/>
-      <c r="BS11" s="118"/>
-      <c r="BT11" s="118"/>
-      <c r="BU11" s="118"/>
-      <c r="BV11" s="118"/>
-      <c r="BW11" s="118"/>
-      <c r="BX11" s="118"/>
-      <c r="BY11" s="118"/>
-      <c r="BZ11" s="118"/>
-      <c r="CA11" s="118"/>
-      <c r="CB11" s="118"/>
-      <c r="CC11" s="118"/>
-      <c r="CD11" s="118"/>
-      <c r="CE11" s="118"/>
-      <c r="CF11" s="118"/>
-      <c r="CG11" s="118"/>
-      <c r="CH11" s="118"/>
-      <c r="CI11" s="119"/>
-      <c r="CJ11" s="111" t="s">
+      <c r="BP11" s="121"/>
+      <c r="BQ11" s="121"/>
+      <c r="BR11" s="121"/>
+      <c r="BS11" s="121"/>
+      <c r="BT11" s="121"/>
+      <c r="BU11" s="121"/>
+      <c r="BV11" s="121"/>
+      <c r="BW11" s="121"/>
+      <c r="BX11" s="121"/>
+      <c r="BY11" s="121"/>
+      <c r="BZ11" s="121"/>
+      <c r="CA11" s="121"/>
+      <c r="CB11" s="121"/>
+      <c r="CC11" s="121"/>
+      <c r="CD11" s="121"/>
+      <c r="CE11" s="121"/>
+      <c r="CF11" s="121"/>
+      <c r="CG11" s="121"/>
+      <c r="CH11" s="121"/>
+      <c r="CI11" s="122"/>
+      <c r="CJ11" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="CK11" s="112"/>
-      <c r="CL11" s="112"/>
-      <c r="CM11" s="112"/>
-      <c r="CN11" s="112"/>
-      <c r="CO11" s="112"/>
-      <c r="CP11" s="112"/>
-      <c r="CQ11" s="112"/>
-      <c r="CR11" s="112"/>
-      <c r="CS11" s="112"/>
-      <c r="CT11" s="112"/>
-      <c r="CU11" s="112"/>
-      <c r="CV11" s="112"/>
-      <c r="CW11" s="112"/>
-      <c r="CX11" s="112"/>
-      <c r="CY11" s="112"/>
-      <c r="CZ11" s="112"/>
-      <c r="DA11" s="112"/>
-      <c r="DB11" s="112"/>
-      <c r="DC11" s="112"/>
-      <c r="DD11" s="113"/>
+      <c r="CK11" s="109"/>
+      <c r="CL11" s="109"/>
+      <c r="CM11" s="109"/>
+      <c r="CN11" s="109"/>
+      <c r="CO11" s="109"/>
+      <c r="CP11" s="109"/>
+      <c r="CQ11" s="109"/>
+      <c r="CR11" s="109"/>
+      <c r="CS11" s="109"/>
+      <c r="CT11" s="109"/>
+      <c r="CU11" s="109"/>
+      <c r="CV11" s="109"/>
+      <c r="CW11" s="109"/>
+      <c r="CX11" s="109"/>
+      <c r="CY11" s="109"/>
+      <c r="CZ11" s="109"/>
+      <c r="DA11" s="109"/>
+      <c r="DB11" s="109"/>
+      <c r="DC11" s="109"/>
+      <c r="DD11" s="110"/>
     </row>
     <row r="12" spans="3:108" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="51"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="115"/>
-      <c r="S12" s="115"/>
-      <c r="T12" s="115"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="115"/>
-      <c r="W12" s="115"/>
-      <c r="X12" s="116"/>
-      <c r="Y12" s="120"/>
-      <c r="Z12" s="121"/>
-      <c r="AA12" s="121"/>
-      <c r="AB12" s="121"/>
-      <c r="AC12" s="121"/>
-      <c r="AD12" s="121"/>
-      <c r="AE12" s="121"/>
-      <c r="AF12" s="121"/>
-      <c r="AG12" s="121"/>
-      <c r="AH12" s="121"/>
-      <c r="AI12" s="121"/>
-      <c r="AJ12" s="121"/>
-      <c r="AK12" s="121"/>
-      <c r="AL12" s="121"/>
-      <c r="AM12" s="121"/>
-      <c r="AN12" s="121"/>
-      <c r="AO12" s="121"/>
-      <c r="AP12" s="121"/>
-      <c r="AQ12" s="121"/>
-      <c r="AR12" s="121"/>
-      <c r="AS12" s="122"/>
-      <c r="AT12" s="114"/>
-      <c r="AU12" s="115"/>
-      <c r="AV12" s="115"/>
-      <c r="AW12" s="115"/>
-      <c r="AX12" s="115"/>
-      <c r="AY12" s="115"/>
-      <c r="AZ12" s="115"/>
-      <c r="BA12" s="115"/>
-      <c r="BB12" s="115"/>
-      <c r="BC12" s="115"/>
-      <c r="BD12" s="115"/>
-      <c r="BE12" s="115"/>
-      <c r="BF12" s="115"/>
-      <c r="BG12" s="115"/>
-      <c r="BH12" s="115"/>
-      <c r="BI12" s="115"/>
-      <c r="BJ12" s="115"/>
-      <c r="BK12" s="115"/>
-      <c r="BL12" s="115"/>
-      <c r="BM12" s="115"/>
-      <c r="BN12" s="116"/>
-      <c r="BO12" s="120"/>
-      <c r="BP12" s="121"/>
-      <c r="BQ12" s="121"/>
-      <c r="BR12" s="121"/>
-      <c r="BS12" s="121"/>
-      <c r="BT12" s="121"/>
-      <c r="BU12" s="121"/>
-      <c r="BV12" s="121"/>
-      <c r="BW12" s="121"/>
-      <c r="BX12" s="121"/>
-      <c r="BY12" s="121"/>
-      <c r="BZ12" s="121"/>
-      <c r="CA12" s="121"/>
-      <c r="CB12" s="121"/>
-      <c r="CC12" s="121"/>
-      <c r="CD12" s="121"/>
-      <c r="CE12" s="121"/>
-      <c r="CF12" s="121"/>
-      <c r="CG12" s="121"/>
-      <c r="CH12" s="121"/>
-      <c r="CI12" s="122"/>
-      <c r="CJ12" s="114"/>
-      <c r="CK12" s="115"/>
-      <c r="CL12" s="115"/>
-      <c r="CM12" s="115"/>
-      <c r="CN12" s="115"/>
-      <c r="CO12" s="115"/>
-      <c r="CP12" s="115"/>
-      <c r="CQ12" s="115"/>
-      <c r="CR12" s="115"/>
-      <c r="CS12" s="115"/>
-      <c r="CT12" s="115"/>
-      <c r="CU12" s="115"/>
-      <c r="CV12" s="115"/>
-      <c r="CW12" s="115"/>
-      <c r="CX12" s="115"/>
-      <c r="CY12" s="115"/>
-      <c r="CZ12" s="115"/>
-      <c r="DA12" s="115"/>
-      <c r="DB12" s="115"/>
-      <c r="DC12" s="115"/>
-      <c r="DD12" s="116"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="112"/>
+      <c r="S12" s="112"/>
+      <c r="T12" s="112"/>
+      <c r="U12" s="112"/>
+      <c r="V12" s="112"/>
+      <c r="W12" s="112"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="123"/>
+      <c r="Z12" s="124"/>
+      <c r="AA12" s="124"/>
+      <c r="AB12" s="124"/>
+      <c r="AC12" s="124"/>
+      <c r="AD12" s="124"/>
+      <c r="AE12" s="124"/>
+      <c r="AF12" s="124"/>
+      <c r="AG12" s="124"/>
+      <c r="AH12" s="124"/>
+      <c r="AI12" s="124"/>
+      <c r="AJ12" s="124"/>
+      <c r="AK12" s="124"/>
+      <c r="AL12" s="124"/>
+      <c r="AM12" s="124"/>
+      <c r="AN12" s="124"/>
+      <c r="AO12" s="124"/>
+      <c r="AP12" s="124"/>
+      <c r="AQ12" s="124"/>
+      <c r="AR12" s="124"/>
+      <c r="AS12" s="125"/>
+      <c r="AT12" s="111"/>
+      <c r="AU12" s="112"/>
+      <c r="AV12" s="112"/>
+      <c r="AW12" s="112"/>
+      <c r="AX12" s="112"/>
+      <c r="AY12" s="112"/>
+      <c r="AZ12" s="112"/>
+      <c r="BA12" s="112"/>
+      <c r="BB12" s="112"/>
+      <c r="BC12" s="112"/>
+      <c r="BD12" s="112"/>
+      <c r="BE12" s="112"/>
+      <c r="BF12" s="112"/>
+      <c r="BG12" s="112"/>
+      <c r="BH12" s="112"/>
+      <c r="BI12" s="112"/>
+      <c r="BJ12" s="112"/>
+      <c r="BK12" s="112"/>
+      <c r="BL12" s="112"/>
+      <c r="BM12" s="112"/>
+      <c r="BN12" s="113"/>
+      <c r="BO12" s="123"/>
+      <c r="BP12" s="124"/>
+      <c r="BQ12" s="124"/>
+      <c r="BR12" s="124"/>
+      <c r="BS12" s="124"/>
+      <c r="BT12" s="124"/>
+      <c r="BU12" s="124"/>
+      <c r="BV12" s="124"/>
+      <c r="BW12" s="124"/>
+      <c r="BX12" s="124"/>
+      <c r="BY12" s="124"/>
+      <c r="BZ12" s="124"/>
+      <c r="CA12" s="124"/>
+      <c r="CB12" s="124"/>
+      <c r="CC12" s="124"/>
+      <c r="CD12" s="124"/>
+      <c r="CE12" s="124"/>
+      <c r="CF12" s="124"/>
+      <c r="CG12" s="124"/>
+      <c r="CH12" s="124"/>
+      <c r="CI12" s="125"/>
+      <c r="CJ12" s="111"/>
+      <c r="CK12" s="112"/>
+      <c r="CL12" s="112"/>
+      <c r="CM12" s="112"/>
+      <c r="CN12" s="112"/>
+      <c r="CO12" s="112"/>
+      <c r="CP12" s="112"/>
+      <c r="CQ12" s="112"/>
+      <c r="CR12" s="112"/>
+      <c r="CS12" s="112"/>
+      <c r="CT12" s="112"/>
+      <c r="CU12" s="112"/>
+      <c r="CV12" s="112"/>
+      <c r="CW12" s="112"/>
+      <c r="CX12" s="112"/>
+      <c r="CY12" s="112"/>
+      <c r="CZ12" s="112"/>
+      <c r="DA12" s="112"/>
+      <c r="DB12" s="112"/>
+      <c r="DC12" s="112"/>
+      <c r="DD12" s="113"/>
     </row>
     <row r="13" spans="3:108" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="86"/>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="109"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="108" t="s">
+      <c r="E13" s="115"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="109"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="108" t="s">
+      <c r="H13" s="115"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="109"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="108" t="s">
+      <c r="K13" s="115"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="109"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="108" t="s">
+      <c r="N13" s="115"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="109"/>
-      <c r="R13" s="110"/>
-      <c r="S13" s="108" t="s">
+      <c r="Q13" s="115"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="109"/>
-      <c r="U13" s="110"/>
-      <c r="V13" s="108" t="s">
+      <c r="T13" s="115"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="W13" s="109"/>
-      <c r="X13" s="110"/>
-      <c r="Y13" s="123" t="s">
+      <c r="W13" s="115"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="Z13" s="124"/>
-      <c r="AA13" s="125"/>
-      <c r="AB13" s="123" t="s">
+      <c r="Z13" s="118"/>
+      <c r="AA13" s="119"/>
+      <c r="AB13" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="AC13" s="124"/>
-      <c r="AD13" s="125"/>
-      <c r="AE13" s="123" t="s">
+      <c r="AC13" s="118"/>
+      <c r="AD13" s="119"/>
+      <c r="AE13" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="AF13" s="124"/>
-      <c r="AG13" s="125"/>
-      <c r="AH13" s="123" t="s">
+      <c r="AF13" s="118"/>
+      <c r="AG13" s="119"/>
+      <c r="AH13" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="AI13" s="124"/>
-      <c r="AJ13" s="125"/>
-      <c r="AK13" s="123" t="s">
+      <c r="AI13" s="118"/>
+      <c r="AJ13" s="119"/>
+      <c r="AK13" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="AL13" s="124"/>
-      <c r="AM13" s="125"/>
-      <c r="AN13" s="123" t="s">
+      <c r="AL13" s="118"/>
+      <c r="AM13" s="119"/>
+      <c r="AN13" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="AO13" s="124"/>
-      <c r="AP13" s="125"/>
-      <c r="AQ13" s="123" t="s">
+      <c r="AO13" s="118"/>
+      <c r="AP13" s="119"/>
+      <c r="AQ13" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="AR13" s="124"/>
-      <c r="AS13" s="125"/>
-      <c r="AT13" s="108" t="s">
+      <c r="AR13" s="118"/>
+      <c r="AS13" s="119"/>
+      <c r="AT13" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="AU13" s="109"/>
-      <c r="AV13" s="110"/>
-      <c r="AW13" s="108" t="s">
+      <c r="AU13" s="115"/>
+      <c r="AV13" s="116"/>
+      <c r="AW13" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="AX13" s="109"/>
-      <c r="AY13" s="110"/>
-      <c r="AZ13" s="108" t="s">
+      <c r="AX13" s="115"/>
+      <c r="AY13" s="116"/>
+      <c r="AZ13" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="BA13" s="109"/>
-      <c r="BB13" s="110"/>
-      <c r="BC13" s="108" t="s">
+      <c r="BA13" s="115"/>
+      <c r="BB13" s="116"/>
+      <c r="BC13" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="BD13" s="109"/>
-      <c r="BE13" s="110"/>
-      <c r="BF13" s="108" t="s">
+      <c r="BD13" s="115"/>
+      <c r="BE13" s="116"/>
+      <c r="BF13" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="BG13" s="109"/>
-      <c r="BH13" s="110"/>
-      <c r="BI13" s="108" t="s">
+      <c r="BG13" s="115"/>
+      <c r="BH13" s="116"/>
+      <c r="BI13" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="BJ13" s="109"/>
-      <c r="BK13" s="110"/>
-      <c r="BL13" s="108" t="s">
+      <c r="BJ13" s="115"/>
+      <c r="BK13" s="116"/>
+      <c r="BL13" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="BM13" s="109"/>
-      <c r="BN13" s="110"/>
-      <c r="BO13" s="123" t="s">
+      <c r="BM13" s="115"/>
+      <c r="BN13" s="116"/>
+      <c r="BO13" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="BP13" s="124"/>
-      <c r="BQ13" s="125"/>
-      <c r="BR13" s="123" t="s">
+      <c r="BP13" s="118"/>
+      <c r="BQ13" s="119"/>
+      <c r="BR13" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="BS13" s="124"/>
-      <c r="BT13" s="125"/>
-      <c r="BU13" s="123" t="s">
+      <c r="BS13" s="118"/>
+      <c r="BT13" s="119"/>
+      <c r="BU13" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="BV13" s="124"/>
-      <c r="BW13" s="125"/>
-      <c r="BX13" s="123" t="s">
+      <c r="BV13" s="118"/>
+      <c r="BW13" s="119"/>
+      <c r="BX13" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="BY13" s="124"/>
-      <c r="BZ13" s="125"/>
-      <c r="CA13" s="123" t="s">
+      <c r="BY13" s="118"/>
+      <c r="BZ13" s="119"/>
+      <c r="CA13" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="CB13" s="124"/>
-      <c r="CC13" s="125"/>
-      <c r="CD13" s="123" t="s">
+      <c r="CB13" s="118"/>
+      <c r="CC13" s="119"/>
+      <c r="CD13" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="CE13" s="124"/>
-      <c r="CF13" s="125"/>
-      <c r="CG13" s="123" t="s">
+      <c r="CE13" s="118"/>
+      <c r="CF13" s="119"/>
+      <c r="CG13" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="CH13" s="124"/>
-      <c r="CI13" s="125"/>
-      <c r="CJ13" s="108" t="s">
+      <c r="CH13" s="118"/>
+      <c r="CI13" s="119"/>
+      <c r="CJ13" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="CK13" s="109"/>
-      <c r="CL13" s="110"/>
-      <c r="CM13" s="108" t="s">
+      <c r="CK13" s="115"/>
+      <c r="CL13" s="116"/>
+      <c r="CM13" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="CN13" s="109"/>
-      <c r="CO13" s="110"/>
-      <c r="CP13" s="108" t="s">
+      <c r="CN13" s="115"/>
+      <c r="CO13" s="116"/>
+      <c r="CP13" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="CQ13" s="109"/>
-      <c r="CR13" s="110"/>
-      <c r="CS13" s="108" t="s">
+      <c r="CQ13" s="115"/>
+      <c r="CR13" s="116"/>
+      <c r="CS13" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="CT13" s="109"/>
-      <c r="CU13" s="110"/>
-      <c r="CV13" s="108" t="s">
+      <c r="CT13" s="115"/>
+      <c r="CU13" s="116"/>
+      <c r="CV13" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="CW13" s="109"/>
-      <c r="CX13" s="110"/>
-      <c r="CY13" s="108" t="s">
+      <c r="CW13" s="115"/>
+      <c r="CX13" s="116"/>
+      <c r="CY13" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="CZ13" s="109"/>
-      <c r="DA13" s="110"/>
-      <c r="DB13" s="108" t="s">
+      <c r="CZ13" s="115"/>
+      <c r="DA13" s="116"/>
+      <c r="DB13" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="DC13" s="109"/>
-      <c r="DD13" s="110"/>
+      <c r="DC13" s="115"/>
+      <c r="DD13" s="116"/>
     </row>
     <row r="14" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C14" s="52" t="s">
@@ -5659,25 +5659,11 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="CJ11:DD12"/>
-    <mergeCell ref="CJ13:CL13"/>
-    <mergeCell ref="CM13:CO13"/>
-    <mergeCell ref="CP13:CR13"/>
-    <mergeCell ref="CS13:CU13"/>
-    <mergeCell ref="CV13:CX13"/>
-    <mergeCell ref="CY13:DA13"/>
-    <mergeCell ref="DB13:DD13"/>
-    <mergeCell ref="CA13:CC13"/>
-    <mergeCell ref="CD13:CF13"/>
-    <mergeCell ref="CG13:CI13"/>
-    <mergeCell ref="AT11:BN12"/>
-    <mergeCell ref="BO11:CI12"/>
-    <mergeCell ref="BL13:BN13"/>
-    <mergeCell ref="BO13:BQ13"/>
-    <mergeCell ref="BR13:BT13"/>
-    <mergeCell ref="BU13:BW13"/>
-    <mergeCell ref="BX13:BZ13"/>
-    <mergeCell ref="BC13:BE13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:R13"/>
     <mergeCell ref="D11:X12"/>
     <mergeCell ref="Y11:AS12"/>
     <mergeCell ref="BF13:BH13"/>
@@ -5694,11 +5680,25 @@
     <mergeCell ref="AB13:AD13"/>
     <mergeCell ref="AE13:AG13"/>
     <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="CA13:CC13"/>
+    <mergeCell ref="CD13:CF13"/>
+    <mergeCell ref="CG13:CI13"/>
+    <mergeCell ref="AT11:BN12"/>
+    <mergeCell ref="BO11:CI12"/>
+    <mergeCell ref="BL13:BN13"/>
+    <mergeCell ref="BO13:BQ13"/>
+    <mergeCell ref="BR13:BT13"/>
+    <mergeCell ref="BU13:BW13"/>
+    <mergeCell ref="BX13:BZ13"/>
+    <mergeCell ref="BC13:BE13"/>
+    <mergeCell ref="CJ11:DD12"/>
+    <mergeCell ref="CJ13:CL13"/>
+    <mergeCell ref="CM13:CO13"/>
+    <mergeCell ref="CP13:CR13"/>
+    <mergeCell ref="CS13:CU13"/>
+    <mergeCell ref="CV13:CX13"/>
+    <mergeCell ref="CY13:DA13"/>
+    <mergeCell ref="DB13:DD13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5710,8 +5710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625F224F-3EB0-436A-9277-708D05AA5922}">
   <dimension ref="C5:DD42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5723,407 +5723,407 @@
     <row r="5" spans="3:108" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C6" s="50"/>
-      <c r="D6" s="111" t="s">
+      <c r="D6" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="112"/>
-      <c r="R6" s="112"/>
-      <c r="S6" s="112"/>
-      <c r="T6" s="112"/>
-      <c r="U6" s="112"/>
-      <c r="V6" s="112"/>
-      <c r="W6" s="112"/>
-      <c r="X6" s="113"/>
-      <c r="Y6" s="117" t="s">
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
+      <c r="T6" s="109"/>
+      <c r="U6" s="109"/>
+      <c r="V6" s="109"/>
+      <c r="W6" s="109"/>
+      <c r="X6" s="110"/>
+      <c r="Y6" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="Z6" s="118"/>
-      <c r="AA6" s="118"/>
-      <c r="AB6" s="118"/>
-      <c r="AC6" s="118"/>
-      <c r="AD6" s="118"/>
-      <c r="AE6" s="118"/>
-      <c r="AF6" s="118"/>
-      <c r="AG6" s="118"/>
-      <c r="AH6" s="118"/>
-      <c r="AI6" s="118"/>
-      <c r="AJ6" s="118"/>
-      <c r="AK6" s="118"/>
-      <c r="AL6" s="118"/>
-      <c r="AM6" s="118"/>
-      <c r="AN6" s="118"/>
-      <c r="AO6" s="118"/>
-      <c r="AP6" s="118"/>
-      <c r="AQ6" s="118"/>
-      <c r="AR6" s="118"/>
-      <c r="AS6" s="119"/>
-      <c r="AT6" s="111" t="s">
+      <c r="Z6" s="121"/>
+      <c r="AA6" s="121"/>
+      <c r="AB6" s="121"/>
+      <c r="AC6" s="121"/>
+      <c r="AD6" s="121"/>
+      <c r="AE6" s="121"/>
+      <c r="AF6" s="121"/>
+      <c r="AG6" s="121"/>
+      <c r="AH6" s="121"/>
+      <c r="AI6" s="121"/>
+      <c r="AJ6" s="121"/>
+      <c r="AK6" s="121"/>
+      <c r="AL6" s="121"/>
+      <c r="AM6" s="121"/>
+      <c r="AN6" s="121"/>
+      <c r="AO6" s="121"/>
+      <c r="AP6" s="121"/>
+      <c r="AQ6" s="121"/>
+      <c r="AR6" s="121"/>
+      <c r="AS6" s="122"/>
+      <c r="AT6" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="AU6" s="112"/>
-      <c r="AV6" s="112"/>
-      <c r="AW6" s="112"/>
-      <c r="AX6" s="112"/>
-      <c r="AY6" s="112"/>
-      <c r="AZ6" s="112"/>
-      <c r="BA6" s="112"/>
-      <c r="BB6" s="112"/>
-      <c r="BC6" s="112"/>
-      <c r="BD6" s="112"/>
-      <c r="BE6" s="112"/>
-      <c r="BF6" s="112"/>
-      <c r="BG6" s="112"/>
-      <c r="BH6" s="112"/>
-      <c r="BI6" s="112"/>
-      <c r="BJ6" s="112"/>
-      <c r="BK6" s="112"/>
-      <c r="BL6" s="112"/>
-      <c r="BM6" s="112"/>
-      <c r="BN6" s="113"/>
-      <c r="BO6" s="117" t="s">
+      <c r="AU6" s="109"/>
+      <c r="AV6" s="109"/>
+      <c r="AW6" s="109"/>
+      <c r="AX6" s="109"/>
+      <c r="AY6" s="109"/>
+      <c r="AZ6" s="109"/>
+      <c r="BA6" s="109"/>
+      <c r="BB6" s="109"/>
+      <c r="BC6" s="109"/>
+      <c r="BD6" s="109"/>
+      <c r="BE6" s="109"/>
+      <c r="BF6" s="109"/>
+      <c r="BG6" s="109"/>
+      <c r="BH6" s="109"/>
+      <c r="BI6" s="109"/>
+      <c r="BJ6" s="109"/>
+      <c r="BK6" s="109"/>
+      <c r="BL6" s="109"/>
+      <c r="BM6" s="109"/>
+      <c r="BN6" s="110"/>
+      <c r="BO6" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="BP6" s="118"/>
-      <c r="BQ6" s="118"/>
-      <c r="BR6" s="118"/>
-      <c r="BS6" s="118"/>
-      <c r="BT6" s="118"/>
-      <c r="BU6" s="118"/>
-      <c r="BV6" s="118"/>
-      <c r="BW6" s="118"/>
-      <c r="BX6" s="118"/>
-      <c r="BY6" s="118"/>
-      <c r="BZ6" s="118"/>
-      <c r="CA6" s="118"/>
-      <c r="CB6" s="118"/>
-      <c r="CC6" s="118"/>
-      <c r="CD6" s="118"/>
-      <c r="CE6" s="118"/>
-      <c r="CF6" s="118"/>
-      <c r="CG6" s="118"/>
-      <c r="CH6" s="118"/>
-      <c r="CI6" s="119"/>
-      <c r="CJ6" s="111" t="s">
+      <c r="BP6" s="121"/>
+      <c r="BQ6" s="121"/>
+      <c r="BR6" s="121"/>
+      <c r="BS6" s="121"/>
+      <c r="BT6" s="121"/>
+      <c r="BU6" s="121"/>
+      <c r="BV6" s="121"/>
+      <c r="BW6" s="121"/>
+      <c r="BX6" s="121"/>
+      <c r="BY6" s="121"/>
+      <c r="BZ6" s="121"/>
+      <c r="CA6" s="121"/>
+      <c r="CB6" s="121"/>
+      <c r="CC6" s="121"/>
+      <c r="CD6" s="121"/>
+      <c r="CE6" s="121"/>
+      <c r="CF6" s="121"/>
+      <c r="CG6" s="121"/>
+      <c r="CH6" s="121"/>
+      <c r="CI6" s="122"/>
+      <c r="CJ6" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="CK6" s="112"/>
-      <c r="CL6" s="112"/>
-      <c r="CM6" s="112"/>
-      <c r="CN6" s="112"/>
-      <c r="CO6" s="112"/>
-      <c r="CP6" s="112"/>
-      <c r="CQ6" s="112"/>
-      <c r="CR6" s="112"/>
-      <c r="CS6" s="112"/>
-      <c r="CT6" s="112"/>
-      <c r="CU6" s="112"/>
-      <c r="CV6" s="112"/>
-      <c r="CW6" s="112"/>
-      <c r="CX6" s="112"/>
-      <c r="CY6" s="112"/>
-      <c r="CZ6" s="112"/>
-      <c r="DA6" s="112"/>
-      <c r="DB6" s="112"/>
-      <c r="DC6" s="112"/>
-      <c r="DD6" s="113"/>
+      <c r="CK6" s="109"/>
+      <c r="CL6" s="109"/>
+      <c r="CM6" s="109"/>
+      <c r="CN6" s="109"/>
+      <c r="CO6" s="109"/>
+      <c r="CP6" s="109"/>
+      <c r="CQ6" s="109"/>
+      <c r="CR6" s="109"/>
+      <c r="CS6" s="109"/>
+      <c r="CT6" s="109"/>
+      <c r="CU6" s="109"/>
+      <c r="CV6" s="109"/>
+      <c r="CW6" s="109"/>
+      <c r="CX6" s="109"/>
+      <c r="CY6" s="109"/>
+      <c r="CZ6" s="109"/>
+      <c r="DA6" s="109"/>
+      <c r="DB6" s="109"/>
+      <c r="DC6" s="109"/>
+      <c r="DD6" s="110"/>
     </row>
     <row r="7" spans="3:108" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="51"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="120"/>
-      <c r="Z7" s="121"/>
-      <c r="AA7" s="121"/>
-      <c r="AB7" s="121"/>
-      <c r="AC7" s="121"/>
-      <c r="AD7" s="121"/>
-      <c r="AE7" s="121"/>
-      <c r="AF7" s="121"/>
-      <c r="AG7" s="121"/>
-      <c r="AH7" s="121"/>
-      <c r="AI7" s="121"/>
-      <c r="AJ7" s="121"/>
-      <c r="AK7" s="121"/>
-      <c r="AL7" s="121"/>
-      <c r="AM7" s="121"/>
-      <c r="AN7" s="121"/>
-      <c r="AO7" s="121"/>
-      <c r="AP7" s="121"/>
-      <c r="AQ7" s="121"/>
-      <c r="AR7" s="121"/>
-      <c r="AS7" s="122"/>
-      <c r="AT7" s="114"/>
-      <c r="AU7" s="115"/>
-      <c r="AV7" s="115"/>
-      <c r="AW7" s="115"/>
-      <c r="AX7" s="115"/>
-      <c r="AY7" s="115"/>
-      <c r="AZ7" s="115"/>
-      <c r="BA7" s="115"/>
-      <c r="BB7" s="115"/>
-      <c r="BC7" s="115"/>
-      <c r="BD7" s="115"/>
-      <c r="BE7" s="115"/>
-      <c r="BF7" s="115"/>
-      <c r="BG7" s="115"/>
-      <c r="BH7" s="115"/>
-      <c r="BI7" s="115"/>
-      <c r="BJ7" s="115"/>
-      <c r="BK7" s="115"/>
-      <c r="BL7" s="115"/>
-      <c r="BM7" s="115"/>
-      <c r="BN7" s="116"/>
-      <c r="BO7" s="120"/>
-      <c r="BP7" s="121"/>
-      <c r="BQ7" s="121"/>
-      <c r="BR7" s="121"/>
-      <c r="BS7" s="121"/>
-      <c r="BT7" s="121"/>
-      <c r="BU7" s="121"/>
-      <c r="BV7" s="121"/>
-      <c r="BW7" s="121"/>
-      <c r="BX7" s="121"/>
-      <c r="BY7" s="121"/>
-      <c r="BZ7" s="121"/>
-      <c r="CA7" s="121"/>
-      <c r="CB7" s="121"/>
-      <c r="CC7" s="121"/>
-      <c r="CD7" s="121"/>
-      <c r="CE7" s="121"/>
-      <c r="CF7" s="121"/>
-      <c r="CG7" s="121"/>
-      <c r="CH7" s="121"/>
-      <c r="CI7" s="122"/>
-      <c r="CJ7" s="114"/>
-      <c r="CK7" s="115"/>
-      <c r="CL7" s="115"/>
-      <c r="CM7" s="115"/>
-      <c r="CN7" s="115"/>
-      <c r="CO7" s="115"/>
-      <c r="CP7" s="115"/>
-      <c r="CQ7" s="115"/>
-      <c r="CR7" s="115"/>
-      <c r="CS7" s="115"/>
-      <c r="CT7" s="115"/>
-      <c r="CU7" s="115"/>
-      <c r="CV7" s="115"/>
-      <c r="CW7" s="115"/>
-      <c r="CX7" s="115"/>
-      <c r="CY7" s="115"/>
-      <c r="CZ7" s="115"/>
-      <c r="DA7" s="115"/>
-      <c r="DB7" s="115"/>
-      <c r="DC7" s="115"/>
-      <c r="DD7" s="116"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="113"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="124"/>
+      <c r="AA7" s="124"/>
+      <c r="AB7" s="124"/>
+      <c r="AC7" s="124"/>
+      <c r="AD7" s="124"/>
+      <c r="AE7" s="124"/>
+      <c r="AF7" s="124"/>
+      <c r="AG7" s="124"/>
+      <c r="AH7" s="124"/>
+      <c r="AI7" s="124"/>
+      <c r="AJ7" s="124"/>
+      <c r="AK7" s="124"/>
+      <c r="AL7" s="124"/>
+      <c r="AM7" s="124"/>
+      <c r="AN7" s="124"/>
+      <c r="AO7" s="124"/>
+      <c r="AP7" s="124"/>
+      <c r="AQ7" s="124"/>
+      <c r="AR7" s="124"/>
+      <c r="AS7" s="125"/>
+      <c r="AT7" s="111"/>
+      <c r="AU7" s="112"/>
+      <c r="AV7" s="112"/>
+      <c r="AW7" s="112"/>
+      <c r="AX7" s="112"/>
+      <c r="AY7" s="112"/>
+      <c r="AZ7" s="112"/>
+      <c r="BA7" s="112"/>
+      <c r="BB7" s="112"/>
+      <c r="BC7" s="112"/>
+      <c r="BD7" s="112"/>
+      <c r="BE7" s="112"/>
+      <c r="BF7" s="112"/>
+      <c r="BG7" s="112"/>
+      <c r="BH7" s="112"/>
+      <c r="BI7" s="112"/>
+      <c r="BJ7" s="112"/>
+      <c r="BK7" s="112"/>
+      <c r="BL7" s="112"/>
+      <c r="BM7" s="112"/>
+      <c r="BN7" s="113"/>
+      <c r="BO7" s="123"/>
+      <c r="BP7" s="124"/>
+      <c r="BQ7" s="124"/>
+      <c r="BR7" s="124"/>
+      <c r="BS7" s="124"/>
+      <c r="BT7" s="124"/>
+      <c r="BU7" s="124"/>
+      <c r="BV7" s="124"/>
+      <c r="BW7" s="124"/>
+      <c r="BX7" s="124"/>
+      <c r="BY7" s="124"/>
+      <c r="BZ7" s="124"/>
+      <c r="CA7" s="124"/>
+      <c r="CB7" s="124"/>
+      <c r="CC7" s="124"/>
+      <c r="CD7" s="124"/>
+      <c r="CE7" s="124"/>
+      <c r="CF7" s="124"/>
+      <c r="CG7" s="124"/>
+      <c r="CH7" s="124"/>
+      <c r="CI7" s="125"/>
+      <c r="CJ7" s="111"/>
+      <c r="CK7" s="112"/>
+      <c r="CL7" s="112"/>
+      <c r="CM7" s="112"/>
+      <c r="CN7" s="112"/>
+      <c r="CO7" s="112"/>
+      <c r="CP7" s="112"/>
+      <c r="CQ7" s="112"/>
+      <c r="CR7" s="112"/>
+      <c r="CS7" s="112"/>
+      <c r="CT7" s="112"/>
+      <c r="CU7" s="112"/>
+      <c r="CV7" s="112"/>
+      <c r="CW7" s="112"/>
+      <c r="CX7" s="112"/>
+      <c r="CY7" s="112"/>
+      <c r="CZ7" s="112"/>
+      <c r="DA7" s="112"/>
+      <c r="DB7" s="112"/>
+      <c r="DC7" s="112"/>
+      <c r="DD7" s="113"/>
     </row>
     <row r="8" spans="3:108" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="86"/>
-      <c r="D8" s="108" t="s">
+      <c r="D8" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="109"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="108" t="s">
+      <c r="E8" s="115"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="109"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="108" t="s">
+      <c r="H8" s="115"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="109"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="108" t="s">
+      <c r="K8" s="115"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="109"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="108" t="s">
+      <c r="N8" s="115"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="109"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="108" t="s">
+      <c r="Q8" s="115"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="T8" s="109"/>
-      <c r="U8" s="110"/>
-      <c r="V8" s="108" t="s">
+      <c r="T8" s="115"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="W8" s="109"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="123" t="s">
+      <c r="W8" s="115"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="Z8" s="124"/>
-      <c r="AA8" s="125"/>
-      <c r="AB8" s="123" t="s">
+      <c r="Z8" s="118"/>
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="AC8" s="124"/>
-      <c r="AD8" s="125"/>
-      <c r="AE8" s="123" t="s">
+      <c r="AC8" s="118"/>
+      <c r="AD8" s="119"/>
+      <c r="AE8" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="AF8" s="124"/>
-      <c r="AG8" s="125"/>
-      <c r="AH8" s="123" t="s">
+      <c r="AF8" s="118"/>
+      <c r="AG8" s="119"/>
+      <c r="AH8" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="AI8" s="124"/>
-      <c r="AJ8" s="125"/>
-      <c r="AK8" s="123" t="s">
+      <c r="AI8" s="118"/>
+      <c r="AJ8" s="119"/>
+      <c r="AK8" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="AL8" s="124"/>
-      <c r="AM8" s="125"/>
-      <c r="AN8" s="123" t="s">
+      <c r="AL8" s="118"/>
+      <c r="AM8" s="119"/>
+      <c r="AN8" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="AO8" s="124"/>
-      <c r="AP8" s="125"/>
-      <c r="AQ8" s="123" t="s">
+      <c r="AO8" s="118"/>
+      <c r="AP8" s="119"/>
+      <c r="AQ8" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="AR8" s="124"/>
-      <c r="AS8" s="125"/>
-      <c r="AT8" s="108" t="s">
+      <c r="AR8" s="118"/>
+      <c r="AS8" s="119"/>
+      <c r="AT8" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="AU8" s="109"/>
-      <c r="AV8" s="110"/>
-      <c r="AW8" s="108" t="s">
+      <c r="AU8" s="115"/>
+      <c r="AV8" s="116"/>
+      <c r="AW8" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="AX8" s="109"/>
-      <c r="AY8" s="110"/>
-      <c r="AZ8" s="108" t="s">
+      <c r="AX8" s="115"/>
+      <c r="AY8" s="116"/>
+      <c r="AZ8" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="BA8" s="109"/>
-      <c r="BB8" s="110"/>
-      <c r="BC8" s="108" t="s">
+      <c r="BA8" s="115"/>
+      <c r="BB8" s="116"/>
+      <c r="BC8" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="BD8" s="109"/>
-      <c r="BE8" s="110"/>
-      <c r="BF8" s="108" t="s">
+      <c r="BD8" s="115"/>
+      <c r="BE8" s="116"/>
+      <c r="BF8" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="BG8" s="109"/>
-      <c r="BH8" s="110"/>
-      <c r="BI8" s="108" t="s">
+      <c r="BG8" s="115"/>
+      <c r="BH8" s="116"/>
+      <c r="BI8" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="BJ8" s="109"/>
-      <c r="BK8" s="110"/>
-      <c r="BL8" s="108" t="s">
+      <c r="BJ8" s="115"/>
+      <c r="BK8" s="116"/>
+      <c r="BL8" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="BM8" s="109"/>
-      <c r="BN8" s="110"/>
-      <c r="BO8" s="123" t="s">
+      <c r="BM8" s="115"/>
+      <c r="BN8" s="116"/>
+      <c r="BO8" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="BP8" s="124"/>
-      <c r="BQ8" s="125"/>
-      <c r="BR8" s="123" t="s">
+      <c r="BP8" s="118"/>
+      <c r="BQ8" s="119"/>
+      <c r="BR8" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="BS8" s="124"/>
-      <c r="BT8" s="125"/>
-      <c r="BU8" s="123" t="s">
+      <c r="BS8" s="118"/>
+      <c r="BT8" s="119"/>
+      <c r="BU8" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="BV8" s="124"/>
-      <c r="BW8" s="125"/>
-      <c r="BX8" s="123" t="s">
+      <c r="BV8" s="118"/>
+      <c r="BW8" s="119"/>
+      <c r="BX8" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="BY8" s="124"/>
-      <c r="BZ8" s="125"/>
-      <c r="CA8" s="123" t="s">
+      <c r="BY8" s="118"/>
+      <c r="BZ8" s="119"/>
+      <c r="CA8" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="CB8" s="124"/>
-      <c r="CC8" s="125"/>
-      <c r="CD8" s="123" t="s">
+      <c r="CB8" s="118"/>
+      <c r="CC8" s="119"/>
+      <c r="CD8" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="CE8" s="124"/>
-      <c r="CF8" s="125"/>
-      <c r="CG8" s="123" t="s">
+      <c r="CE8" s="118"/>
+      <c r="CF8" s="119"/>
+      <c r="CG8" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="CH8" s="124"/>
-      <c r="CI8" s="125"/>
-      <c r="CJ8" s="108" t="s">
+      <c r="CH8" s="118"/>
+      <c r="CI8" s="119"/>
+      <c r="CJ8" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="CK8" s="109"/>
-      <c r="CL8" s="110"/>
-      <c r="CM8" s="108" t="s">
+      <c r="CK8" s="115"/>
+      <c r="CL8" s="116"/>
+      <c r="CM8" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="CN8" s="109"/>
-      <c r="CO8" s="110"/>
-      <c r="CP8" s="108" t="s">
+      <c r="CN8" s="115"/>
+      <c r="CO8" s="116"/>
+      <c r="CP8" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="CQ8" s="109"/>
-      <c r="CR8" s="110"/>
-      <c r="CS8" s="108" t="s">
+      <c r="CQ8" s="115"/>
+      <c r="CR8" s="116"/>
+      <c r="CS8" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="CT8" s="109"/>
-      <c r="CU8" s="110"/>
-      <c r="CV8" s="108" t="s">
+      <c r="CT8" s="115"/>
+      <c r="CU8" s="116"/>
+      <c r="CV8" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="CW8" s="109"/>
-      <c r="CX8" s="110"/>
-      <c r="CY8" s="108" t="s">
+      <c r="CW8" s="115"/>
+      <c r="CX8" s="116"/>
+      <c r="CY8" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="CZ8" s="109"/>
-      <c r="DA8" s="110"/>
-      <c r="DB8" s="108" t="s">
+      <c r="CZ8" s="115"/>
+      <c r="DA8" s="116"/>
+      <c r="DB8" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="DC8" s="109"/>
-      <c r="DD8" s="110"/>
+      <c r="DC8" s="115"/>
+      <c r="DD8" s="116"/>
     </row>
     <row r="9" spans="3:108" x14ac:dyDescent="0.25">
       <c r="C9" s="52" t="s">
@@ -9867,30 +9867,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="DB8:DD8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CA8:CC8"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="CM8:CO8"/>
-    <mergeCell ref="CP8:CR8"/>
-    <mergeCell ref="CS8:CU8"/>
-    <mergeCell ref="CV8:CX8"/>
-    <mergeCell ref="CY8:DA8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BK8"/>
-    <mergeCell ref="BL8:BN8"/>
-    <mergeCell ref="BO8:BQ8"/>
     <mergeCell ref="CJ6:DD7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
@@ -9907,6 +9883,30 @@
     <mergeCell ref="Y8:AA8"/>
     <mergeCell ref="AB8:AD8"/>
     <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="BL8:BN8"/>
+    <mergeCell ref="BO8:BQ8"/>
+    <mergeCell ref="DB8:DD8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CA8:CC8"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="CM8:CO8"/>
+    <mergeCell ref="CP8:CR8"/>
+    <mergeCell ref="CS8:CU8"/>
+    <mergeCell ref="CV8:CX8"/>
+    <mergeCell ref="CY8:DA8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tids plan.xlsx
+++ b/tids plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\H5SvendeProeve\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uncha\Desktop\svendeprøveH5-vaskemaskine\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59856D7B-0CAB-496B-9E12-D58297864190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90819EFE-7752-4472-A86D-589549EE7036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{51BDBD2F-21D4-47AF-9E17-74A1F69E1583}"/>
+    <workbookView xWindow="-6922" yWindow="-16297" windowWidth="28995" windowHeight="15794" activeTab="2" xr2:uid="{51BDBD2F-21D4-47AF-9E17-74A1F69E1583}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark2" sheetId="2" r:id="rId1"/>
@@ -840,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -949,6 +949,15 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -966,24 +975,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1003,6 +994,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1011,11 +1013,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC0066"/>
       <color rgb="FFFF018C"/>
       <color rgb="FFCEE4DE"/>
       <color rgb="FFFAB8B8"/>
       <color rgb="FFFAFCB6"/>
-      <color rgb="FFCC0066"/>
       <color rgb="FFBFE9F3"/>
       <color rgb="FFEDC5EB"/>
       <color rgb="FFFFFF00"/>
@@ -1336,159 +1338,159 @@
       <selection activeCell="D2" sqref="D2:D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>42</v>
       </c>
@@ -1506,418 +1508,418 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="108" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="4" max="108" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="3:108" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="3:108" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:108" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="3:108" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="50"/>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="109"/>
-      <c r="W11" s="109"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="120" t="s">
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="112"/>
+      <c r="T11" s="112"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="112"/>
+      <c r="W11" s="112"/>
+      <c r="X11" s="113"/>
+      <c r="Y11" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="Z11" s="121"/>
-      <c r="AA11" s="121"/>
-      <c r="AB11" s="121"/>
-      <c r="AC11" s="121"/>
-      <c r="AD11" s="121"/>
-      <c r="AE11" s="121"/>
-      <c r="AF11" s="121"/>
-      <c r="AG11" s="121"/>
-      <c r="AH11" s="121"/>
-      <c r="AI11" s="121"/>
-      <c r="AJ11" s="121"/>
-      <c r="AK11" s="121"/>
-      <c r="AL11" s="121"/>
-      <c r="AM11" s="121"/>
-      <c r="AN11" s="121"/>
-      <c r="AO11" s="121"/>
-      <c r="AP11" s="121"/>
-      <c r="AQ11" s="121"/>
-      <c r="AR11" s="121"/>
-      <c r="AS11" s="122"/>
-      <c r="AT11" s="108" t="s">
+      <c r="Z11" s="118"/>
+      <c r="AA11" s="118"/>
+      <c r="AB11" s="118"/>
+      <c r="AC11" s="118"/>
+      <c r="AD11" s="118"/>
+      <c r="AE11" s="118"/>
+      <c r="AF11" s="118"/>
+      <c r="AG11" s="118"/>
+      <c r="AH11" s="118"/>
+      <c r="AI11" s="118"/>
+      <c r="AJ11" s="118"/>
+      <c r="AK11" s="118"/>
+      <c r="AL11" s="118"/>
+      <c r="AM11" s="118"/>
+      <c r="AN11" s="118"/>
+      <c r="AO11" s="118"/>
+      <c r="AP11" s="118"/>
+      <c r="AQ11" s="118"/>
+      <c r="AR11" s="118"/>
+      <c r="AS11" s="119"/>
+      <c r="AT11" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="AU11" s="109"/>
-      <c r="AV11" s="109"/>
-      <c r="AW11" s="109"/>
-      <c r="AX11" s="109"/>
-      <c r="AY11" s="109"/>
-      <c r="AZ11" s="109"/>
-      <c r="BA11" s="109"/>
-      <c r="BB11" s="109"/>
-      <c r="BC11" s="109"/>
-      <c r="BD11" s="109"/>
-      <c r="BE11" s="109"/>
-      <c r="BF11" s="109"/>
-      <c r="BG11" s="109"/>
-      <c r="BH11" s="109"/>
-      <c r="BI11" s="109"/>
-      <c r="BJ11" s="109"/>
-      <c r="BK11" s="109"/>
-      <c r="BL11" s="109"/>
-      <c r="BM11" s="109"/>
-      <c r="BN11" s="110"/>
-      <c r="BO11" s="120" t="s">
+      <c r="AU11" s="112"/>
+      <c r="AV11" s="112"/>
+      <c r="AW11" s="112"/>
+      <c r="AX11" s="112"/>
+      <c r="AY11" s="112"/>
+      <c r="AZ11" s="112"/>
+      <c r="BA11" s="112"/>
+      <c r="BB11" s="112"/>
+      <c r="BC11" s="112"/>
+      <c r="BD11" s="112"/>
+      <c r="BE11" s="112"/>
+      <c r="BF11" s="112"/>
+      <c r="BG11" s="112"/>
+      <c r="BH11" s="112"/>
+      <c r="BI11" s="112"/>
+      <c r="BJ11" s="112"/>
+      <c r="BK11" s="112"/>
+      <c r="BL11" s="112"/>
+      <c r="BM11" s="112"/>
+      <c r="BN11" s="113"/>
+      <c r="BO11" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="BP11" s="121"/>
-      <c r="BQ11" s="121"/>
-      <c r="BR11" s="121"/>
-      <c r="BS11" s="121"/>
-      <c r="BT11" s="121"/>
-      <c r="BU11" s="121"/>
-      <c r="BV11" s="121"/>
-      <c r="BW11" s="121"/>
-      <c r="BX11" s="121"/>
-      <c r="BY11" s="121"/>
-      <c r="BZ11" s="121"/>
-      <c r="CA11" s="121"/>
-      <c r="CB11" s="121"/>
-      <c r="CC11" s="121"/>
-      <c r="CD11" s="121"/>
-      <c r="CE11" s="121"/>
-      <c r="CF11" s="121"/>
-      <c r="CG11" s="121"/>
-      <c r="CH11" s="121"/>
-      <c r="CI11" s="122"/>
-      <c r="CJ11" s="108" t="s">
+      <c r="BP11" s="118"/>
+      <c r="BQ11" s="118"/>
+      <c r="BR11" s="118"/>
+      <c r="BS11" s="118"/>
+      <c r="BT11" s="118"/>
+      <c r="BU11" s="118"/>
+      <c r="BV11" s="118"/>
+      <c r="BW11" s="118"/>
+      <c r="BX11" s="118"/>
+      <c r="BY11" s="118"/>
+      <c r="BZ11" s="118"/>
+      <c r="CA11" s="118"/>
+      <c r="CB11" s="118"/>
+      <c r="CC11" s="118"/>
+      <c r="CD11" s="118"/>
+      <c r="CE11" s="118"/>
+      <c r="CF11" s="118"/>
+      <c r="CG11" s="118"/>
+      <c r="CH11" s="118"/>
+      <c r="CI11" s="119"/>
+      <c r="CJ11" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="CK11" s="109"/>
-      <c r="CL11" s="109"/>
-      <c r="CM11" s="109"/>
-      <c r="CN11" s="109"/>
-      <c r="CO11" s="109"/>
-      <c r="CP11" s="109"/>
-      <c r="CQ11" s="109"/>
-      <c r="CR11" s="109"/>
-      <c r="CS11" s="109"/>
-      <c r="CT11" s="109"/>
-      <c r="CU11" s="109"/>
-      <c r="CV11" s="109"/>
-      <c r="CW11" s="109"/>
-      <c r="CX11" s="109"/>
-      <c r="CY11" s="109"/>
-      <c r="CZ11" s="109"/>
-      <c r="DA11" s="109"/>
-      <c r="DB11" s="109"/>
-      <c r="DC11" s="109"/>
-      <c r="DD11" s="110"/>
-    </row>
-    <row r="12" spans="3:108" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CK11" s="112"/>
+      <c r="CL11" s="112"/>
+      <c r="CM11" s="112"/>
+      <c r="CN11" s="112"/>
+      <c r="CO11" s="112"/>
+      <c r="CP11" s="112"/>
+      <c r="CQ11" s="112"/>
+      <c r="CR11" s="112"/>
+      <c r="CS11" s="112"/>
+      <c r="CT11" s="112"/>
+      <c r="CU11" s="112"/>
+      <c r="CV11" s="112"/>
+      <c r="CW11" s="112"/>
+      <c r="CX11" s="112"/>
+      <c r="CY11" s="112"/>
+      <c r="CZ11" s="112"/>
+      <c r="DA11" s="112"/>
+      <c r="DB11" s="112"/>
+      <c r="DC11" s="112"/>
+      <c r="DD11" s="113"/>
+    </row>
+    <row r="12" spans="3:108" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="51"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
-      <c r="R12" s="112"/>
-      <c r="S12" s="112"/>
-      <c r="T12" s="112"/>
-      <c r="U12" s="112"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="112"/>
-      <c r="X12" s="113"/>
-      <c r="Y12" s="123"/>
-      <c r="Z12" s="124"/>
-      <c r="AA12" s="124"/>
-      <c r="AB12" s="124"/>
-      <c r="AC12" s="124"/>
-      <c r="AD12" s="124"/>
-      <c r="AE12" s="124"/>
-      <c r="AF12" s="124"/>
-      <c r="AG12" s="124"/>
-      <c r="AH12" s="124"/>
-      <c r="AI12" s="124"/>
-      <c r="AJ12" s="124"/>
-      <c r="AK12" s="124"/>
-      <c r="AL12" s="124"/>
-      <c r="AM12" s="124"/>
-      <c r="AN12" s="124"/>
-      <c r="AO12" s="124"/>
-      <c r="AP12" s="124"/>
-      <c r="AQ12" s="124"/>
-      <c r="AR12" s="124"/>
-      <c r="AS12" s="125"/>
-      <c r="AT12" s="111"/>
-      <c r="AU12" s="112"/>
-      <c r="AV12" s="112"/>
-      <c r="AW12" s="112"/>
-      <c r="AX12" s="112"/>
-      <c r="AY12" s="112"/>
-      <c r="AZ12" s="112"/>
-      <c r="BA12" s="112"/>
-      <c r="BB12" s="112"/>
-      <c r="BC12" s="112"/>
-      <c r="BD12" s="112"/>
-      <c r="BE12" s="112"/>
-      <c r="BF12" s="112"/>
-      <c r="BG12" s="112"/>
-      <c r="BH12" s="112"/>
-      <c r="BI12" s="112"/>
-      <c r="BJ12" s="112"/>
-      <c r="BK12" s="112"/>
-      <c r="BL12" s="112"/>
-      <c r="BM12" s="112"/>
-      <c r="BN12" s="113"/>
-      <c r="BO12" s="123"/>
-      <c r="BP12" s="124"/>
-      <c r="BQ12" s="124"/>
-      <c r="BR12" s="124"/>
-      <c r="BS12" s="124"/>
-      <c r="BT12" s="124"/>
-      <c r="BU12" s="124"/>
-      <c r="BV12" s="124"/>
-      <c r="BW12" s="124"/>
-      <c r="BX12" s="124"/>
-      <c r="BY12" s="124"/>
-      <c r="BZ12" s="124"/>
-      <c r="CA12" s="124"/>
-      <c r="CB12" s="124"/>
-      <c r="CC12" s="124"/>
-      <c r="CD12" s="124"/>
-      <c r="CE12" s="124"/>
-      <c r="CF12" s="124"/>
-      <c r="CG12" s="124"/>
-      <c r="CH12" s="124"/>
-      <c r="CI12" s="125"/>
-      <c r="CJ12" s="111"/>
-      <c r="CK12" s="112"/>
-      <c r="CL12" s="112"/>
-      <c r="CM12" s="112"/>
-      <c r="CN12" s="112"/>
-      <c r="CO12" s="112"/>
-      <c r="CP12" s="112"/>
-      <c r="CQ12" s="112"/>
-      <c r="CR12" s="112"/>
-      <c r="CS12" s="112"/>
-      <c r="CT12" s="112"/>
-      <c r="CU12" s="112"/>
-      <c r="CV12" s="112"/>
-      <c r="CW12" s="112"/>
-      <c r="CX12" s="112"/>
-      <c r="CY12" s="112"/>
-      <c r="CZ12" s="112"/>
-      <c r="DA12" s="112"/>
-      <c r="DB12" s="112"/>
-      <c r="DC12" s="112"/>
-      <c r="DD12" s="113"/>
-    </row>
-    <row r="13" spans="3:108" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="114"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="115"/>
+      <c r="S12" s="115"/>
+      <c r="T12" s="115"/>
+      <c r="U12" s="115"/>
+      <c r="V12" s="115"/>
+      <c r="W12" s="115"/>
+      <c r="X12" s="116"/>
+      <c r="Y12" s="120"/>
+      <c r="Z12" s="121"/>
+      <c r="AA12" s="121"/>
+      <c r="AB12" s="121"/>
+      <c r="AC12" s="121"/>
+      <c r="AD12" s="121"/>
+      <c r="AE12" s="121"/>
+      <c r="AF12" s="121"/>
+      <c r="AG12" s="121"/>
+      <c r="AH12" s="121"/>
+      <c r="AI12" s="121"/>
+      <c r="AJ12" s="121"/>
+      <c r="AK12" s="121"/>
+      <c r="AL12" s="121"/>
+      <c r="AM12" s="121"/>
+      <c r="AN12" s="121"/>
+      <c r="AO12" s="121"/>
+      <c r="AP12" s="121"/>
+      <c r="AQ12" s="121"/>
+      <c r="AR12" s="121"/>
+      <c r="AS12" s="122"/>
+      <c r="AT12" s="114"/>
+      <c r="AU12" s="115"/>
+      <c r="AV12" s="115"/>
+      <c r="AW12" s="115"/>
+      <c r="AX12" s="115"/>
+      <c r="AY12" s="115"/>
+      <c r="AZ12" s="115"/>
+      <c r="BA12" s="115"/>
+      <c r="BB12" s="115"/>
+      <c r="BC12" s="115"/>
+      <c r="BD12" s="115"/>
+      <c r="BE12" s="115"/>
+      <c r="BF12" s="115"/>
+      <c r="BG12" s="115"/>
+      <c r="BH12" s="115"/>
+      <c r="BI12" s="115"/>
+      <c r="BJ12" s="115"/>
+      <c r="BK12" s="115"/>
+      <c r="BL12" s="115"/>
+      <c r="BM12" s="115"/>
+      <c r="BN12" s="116"/>
+      <c r="BO12" s="120"/>
+      <c r="BP12" s="121"/>
+      <c r="BQ12" s="121"/>
+      <c r="BR12" s="121"/>
+      <c r="BS12" s="121"/>
+      <c r="BT12" s="121"/>
+      <c r="BU12" s="121"/>
+      <c r="BV12" s="121"/>
+      <c r="BW12" s="121"/>
+      <c r="BX12" s="121"/>
+      <c r="BY12" s="121"/>
+      <c r="BZ12" s="121"/>
+      <c r="CA12" s="121"/>
+      <c r="CB12" s="121"/>
+      <c r="CC12" s="121"/>
+      <c r="CD12" s="121"/>
+      <c r="CE12" s="121"/>
+      <c r="CF12" s="121"/>
+      <c r="CG12" s="121"/>
+      <c r="CH12" s="121"/>
+      <c r="CI12" s="122"/>
+      <c r="CJ12" s="114"/>
+      <c r="CK12" s="115"/>
+      <c r="CL12" s="115"/>
+      <c r="CM12" s="115"/>
+      <c r="CN12" s="115"/>
+      <c r="CO12" s="115"/>
+      <c r="CP12" s="115"/>
+      <c r="CQ12" s="115"/>
+      <c r="CR12" s="115"/>
+      <c r="CS12" s="115"/>
+      <c r="CT12" s="115"/>
+      <c r="CU12" s="115"/>
+      <c r="CV12" s="115"/>
+      <c r="CW12" s="115"/>
+      <c r="CX12" s="115"/>
+      <c r="CY12" s="115"/>
+      <c r="CZ12" s="115"/>
+      <c r="DA12" s="115"/>
+      <c r="DB12" s="115"/>
+      <c r="DC12" s="115"/>
+      <c r="DD12" s="116"/>
+    </row>
+    <row r="13" spans="3:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="86"/>
-      <c r="D13" s="114" t="s">
+      <c r="D13" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="115"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="114" t="s">
+      <c r="E13" s="109"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="115"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="114" t="s">
+      <c r="H13" s="109"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="115"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="114" t="s">
+      <c r="K13" s="109"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="115"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="114" t="s">
+      <c r="N13" s="109"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="115"/>
-      <c r="R13" s="116"/>
-      <c r="S13" s="114" t="s">
+      <c r="Q13" s="109"/>
+      <c r="R13" s="110"/>
+      <c r="S13" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="115"/>
-      <c r="U13" s="116"/>
-      <c r="V13" s="114" t="s">
+      <c r="T13" s="109"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="W13" s="115"/>
-      <c r="X13" s="116"/>
-      <c r="Y13" s="117" t="s">
+      <c r="W13" s="109"/>
+      <c r="X13" s="110"/>
+      <c r="Y13" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="Z13" s="118"/>
-      <c r="AA13" s="119"/>
-      <c r="AB13" s="117" t="s">
+      <c r="Z13" s="124"/>
+      <c r="AA13" s="125"/>
+      <c r="AB13" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="AC13" s="118"/>
-      <c r="AD13" s="119"/>
-      <c r="AE13" s="117" t="s">
+      <c r="AC13" s="124"/>
+      <c r="AD13" s="125"/>
+      <c r="AE13" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="AF13" s="118"/>
-      <c r="AG13" s="119"/>
-      <c r="AH13" s="117" t="s">
+      <c r="AF13" s="124"/>
+      <c r="AG13" s="125"/>
+      <c r="AH13" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="AI13" s="118"/>
-      <c r="AJ13" s="119"/>
-      <c r="AK13" s="117" t="s">
+      <c r="AI13" s="124"/>
+      <c r="AJ13" s="125"/>
+      <c r="AK13" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="AL13" s="118"/>
-      <c r="AM13" s="119"/>
-      <c r="AN13" s="117" t="s">
+      <c r="AL13" s="124"/>
+      <c r="AM13" s="125"/>
+      <c r="AN13" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="AO13" s="118"/>
-      <c r="AP13" s="119"/>
-      <c r="AQ13" s="117" t="s">
+      <c r="AO13" s="124"/>
+      <c r="AP13" s="125"/>
+      <c r="AQ13" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="AR13" s="118"/>
-      <c r="AS13" s="119"/>
-      <c r="AT13" s="114" t="s">
+      <c r="AR13" s="124"/>
+      <c r="AS13" s="125"/>
+      <c r="AT13" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="AU13" s="115"/>
-      <c r="AV13" s="116"/>
-      <c r="AW13" s="114" t="s">
+      <c r="AU13" s="109"/>
+      <c r="AV13" s="110"/>
+      <c r="AW13" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="AX13" s="115"/>
-      <c r="AY13" s="116"/>
-      <c r="AZ13" s="114" t="s">
+      <c r="AX13" s="109"/>
+      <c r="AY13" s="110"/>
+      <c r="AZ13" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="BA13" s="115"/>
-      <c r="BB13" s="116"/>
-      <c r="BC13" s="114" t="s">
+      <c r="BA13" s="109"/>
+      <c r="BB13" s="110"/>
+      <c r="BC13" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="BD13" s="115"/>
-      <c r="BE13" s="116"/>
-      <c r="BF13" s="114" t="s">
+      <c r="BD13" s="109"/>
+      <c r="BE13" s="110"/>
+      <c r="BF13" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="BG13" s="115"/>
-      <c r="BH13" s="116"/>
-      <c r="BI13" s="114" t="s">
+      <c r="BG13" s="109"/>
+      <c r="BH13" s="110"/>
+      <c r="BI13" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="BJ13" s="115"/>
-      <c r="BK13" s="116"/>
-      <c r="BL13" s="114" t="s">
+      <c r="BJ13" s="109"/>
+      <c r="BK13" s="110"/>
+      <c r="BL13" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="BM13" s="115"/>
-      <c r="BN13" s="116"/>
-      <c r="BO13" s="117" t="s">
+      <c r="BM13" s="109"/>
+      <c r="BN13" s="110"/>
+      <c r="BO13" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="BP13" s="118"/>
-      <c r="BQ13" s="119"/>
-      <c r="BR13" s="117" t="s">
+      <c r="BP13" s="124"/>
+      <c r="BQ13" s="125"/>
+      <c r="BR13" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="BS13" s="118"/>
-      <c r="BT13" s="119"/>
-      <c r="BU13" s="117" t="s">
+      <c r="BS13" s="124"/>
+      <c r="BT13" s="125"/>
+      <c r="BU13" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="BV13" s="118"/>
-      <c r="BW13" s="119"/>
-      <c r="BX13" s="117" t="s">
+      <c r="BV13" s="124"/>
+      <c r="BW13" s="125"/>
+      <c r="BX13" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="BY13" s="118"/>
-      <c r="BZ13" s="119"/>
-      <c r="CA13" s="117" t="s">
+      <c r="BY13" s="124"/>
+      <c r="BZ13" s="125"/>
+      <c r="CA13" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="CB13" s="118"/>
-      <c r="CC13" s="119"/>
-      <c r="CD13" s="117" t="s">
+      <c r="CB13" s="124"/>
+      <c r="CC13" s="125"/>
+      <c r="CD13" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="CE13" s="118"/>
-      <c r="CF13" s="119"/>
-      <c r="CG13" s="117" t="s">
+      <c r="CE13" s="124"/>
+      <c r="CF13" s="125"/>
+      <c r="CG13" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="CH13" s="118"/>
-      <c r="CI13" s="119"/>
-      <c r="CJ13" s="114" t="s">
+      <c r="CH13" s="124"/>
+      <c r="CI13" s="125"/>
+      <c r="CJ13" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="CK13" s="115"/>
-      <c r="CL13" s="116"/>
-      <c r="CM13" s="114" t="s">
+      <c r="CK13" s="109"/>
+      <c r="CL13" s="110"/>
+      <c r="CM13" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="CN13" s="115"/>
-      <c r="CO13" s="116"/>
-      <c r="CP13" s="114" t="s">
+      <c r="CN13" s="109"/>
+      <c r="CO13" s="110"/>
+      <c r="CP13" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="CQ13" s="115"/>
-      <c r="CR13" s="116"/>
-      <c r="CS13" s="114" t="s">
+      <c r="CQ13" s="109"/>
+      <c r="CR13" s="110"/>
+      <c r="CS13" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="CT13" s="115"/>
-      <c r="CU13" s="116"/>
-      <c r="CV13" s="114" t="s">
+      <c r="CT13" s="109"/>
+      <c r="CU13" s="110"/>
+      <c r="CV13" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="CW13" s="115"/>
-      <c r="CX13" s="116"/>
-      <c r="CY13" s="114" t="s">
+      <c r="CW13" s="109"/>
+      <c r="CX13" s="110"/>
+      <c r="CY13" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="CZ13" s="115"/>
-      <c r="DA13" s="116"/>
-      <c r="DB13" s="114" t="s">
+      <c r="CZ13" s="109"/>
+      <c r="DA13" s="110"/>
+      <c r="DB13" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="DC13" s="115"/>
-      <c r="DD13" s="116"/>
-    </row>
-    <row r="14" spans="3:108" x14ac:dyDescent="0.25">
+      <c r="DC13" s="109"/>
+      <c r="DD13" s="110"/>
+    </row>
+    <row r="14" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C14" s="52" t="s">
         <v>12</v>
       </c>
@@ -2027,7 +2029,7 @@
       <c r="DC14" s="32"/>
       <c r="DD14" s="84"/>
     </row>
-    <row r="15" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C15" s="53" t="s">
         <v>13</v>
       </c>
@@ -2137,7 +2139,7 @@
       <c r="DC15" s="2"/>
       <c r="DD15" s="42"/>
     </row>
-    <row r="16" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C16" s="53" t="s">
         <v>14</v>
       </c>
@@ -2247,7 +2249,7 @@
       <c r="DC16" s="2"/>
       <c r="DD16" s="42"/>
     </row>
-    <row r="17" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C17" s="53" t="s">
         <v>15</v>
       </c>
@@ -2357,7 +2359,7 @@
       <c r="DC17" s="2"/>
       <c r="DD17" s="42"/>
     </row>
-    <row r="18" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C18" s="53" t="s">
         <v>16</v>
       </c>
@@ -2467,7 +2469,7 @@
       <c r="DC18" s="2"/>
       <c r="DD18" s="42"/>
     </row>
-    <row r="19" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C19" s="53" t="s">
         <v>17</v>
       </c>
@@ -2577,7 +2579,7 @@
       <c r="DC19" s="2"/>
       <c r="DD19" s="42"/>
     </row>
-    <row r="20" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C20" s="53" t="s">
         <v>18</v>
       </c>
@@ -2687,7 +2689,7 @@
       <c r="DC20" s="2"/>
       <c r="DD20" s="42"/>
     </row>
-    <row r="21" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C21" s="53" t="s">
         <v>19</v>
       </c>
@@ -2797,7 +2799,7 @@
       <c r="DC21" s="2"/>
       <c r="DD21" s="42"/>
     </row>
-    <row r="22" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C22" s="53" t="s">
         <v>20</v>
       </c>
@@ -2907,7 +2909,7 @@
       <c r="DC22" s="2"/>
       <c r="DD22" s="42"/>
     </row>
-    <row r="23" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C23" s="53" t="s">
         <v>44</v>
       </c>
@@ -3017,7 +3019,7 @@
       <c r="DC23" s="2"/>
       <c r="DD23" s="42"/>
     </row>
-    <row r="24" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C24" s="53" t="s">
         <v>22</v>
       </c>
@@ -3127,7 +3129,7 @@
       <c r="DC24" s="2"/>
       <c r="DD24" s="42"/>
     </row>
-    <row r="25" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C25" s="53" t="s">
         <v>23</v>
       </c>
@@ -3237,7 +3239,7 @@
       <c r="DC25" s="2"/>
       <c r="DD25" s="42"/>
     </row>
-    <row r="26" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C26" s="53" t="s">
         <v>24</v>
       </c>
@@ -3347,7 +3349,7 @@
       <c r="DC26" s="2"/>
       <c r="DD26" s="42"/>
     </row>
-    <row r="27" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C27" s="53" t="s">
         <v>25</v>
       </c>
@@ -3457,7 +3459,7 @@
       <c r="DC27" s="2"/>
       <c r="DD27" s="42"/>
     </row>
-    <row r="28" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C28" s="53" t="s">
         <v>26</v>
       </c>
@@ -3567,7 +3569,7 @@
       <c r="DC28" s="2"/>
       <c r="DD28" s="42"/>
     </row>
-    <row r="29" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C29" s="53" t="s">
         <v>27</v>
       </c>
@@ -3677,7 +3679,7 @@
       <c r="DC29" s="2"/>
       <c r="DD29" s="42"/>
     </row>
-    <row r="30" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C30" s="53" t="s">
         <v>28</v>
       </c>
@@ -3787,7 +3789,7 @@
       <c r="DC30" s="2"/>
       <c r="DD30" s="42"/>
     </row>
-    <row r="31" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C31" s="53" t="s">
         <v>45</v>
       </c>
@@ -3897,7 +3899,7 @@
       <c r="DC31" s="2"/>
       <c r="DD31" s="42"/>
     </row>
-    <row r="32" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C32" s="53" t="s">
         <v>46</v>
       </c>
@@ -4007,7 +4009,7 @@
       <c r="DC32" s="2"/>
       <c r="DD32" s="42"/>
     </row>
-    <row r="33" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C33" s="53" t="s">
         <v>47</v>
       </c>
@@ -4117,7 +4119,7 @@
       <c r="DC33" s="2"/>
       <c r="DD33" s="42"/>
     </row>
-    <row r="34" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C34" s="53" t="s">
         <v>48</v>
       </c>
@@ -4227,7 +4229,7 @@
       <c r="DC34" s="2"/>
       <c r="DD34" s="42"/>
     </row>
-    <row r="35" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -4337,7 +4339,7 @@
       <c r="DC35" s="2"/>
       <c r="DD35" s="42"/>
     </row>
-    <row r="36" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C36" s="53" t="s">
         <v>50</v>
       </c>
@@ -4447,7 +4449,7 @@
       <c r="DC36" s="2"/>
       <c r="DD36" s="42"/>
     </row>
-    <row r="37" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C37" s="53" t="s">
         <v>35</v>
       </c>
@@ -4557,7 +4559,7 @@
       <c r="DC37" s="2"/>
       <c r="DD37" s="42"/>
     </row>
-    <row r="38" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C38" s="53" t="s">
         <v>36</v>
       </c>
@@ -4667,7 +4669,7 @@
       <c r="DC38" s="2"/>
       <c r="DD38" s="42"/>
     </row>
-    <row r="39" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C39" s="53" t="s">
         <v>51</v>
       </c>
@@ -4777,7 +4779,7 @@
       <c r="DC39" s="2"/>
       <c r="DD39" s="42"/>
     </row>
-    <row r="40" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C40" s="53" t="s">
         <v>38</v>
       </c>
@@ -4887,7 +4889,7 @@
       <c r="DC40" s="2"/>
       <c r="DD40" s="42"/>
     </row>
-    <row r="41" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C41" s="53" t="s">
         <v>52</v>
       </c>
@@ -4997,7 +4999,7 @@
       <c r="DC41" s="2"/>
       <c r="DD41" s="42"/>
     </row>
-    <row r="42" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C42" s="53" t="s">
         <v>53</v>
       </c>
@@ -5107,7 +5109,7 @@
       <c r="DC42" s="2"/>
       <c r="DD42" s="42"/>
     </row>
-    <row r="43" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C43" s="53" t="s">
         <v>54</v>
       </c>
@@ -5217,7 +5219,7 @@
       <c r="DC43" s="2"/>
       <c r="DD43" s="42"/>
     </row>
-    <row r="44" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C44" s="53" t="s">
         <v>55</v>
       </c>
@@ -5327,7 +5329,7 @@
       <c r="DC44" s="2"/>
       <c r="DD44" s="42"/>
     </row>
-    <row r="45" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C45" s="53" t="s">
         <v>43</v>
       </c>
@@ -5437,7 +5439,7 @@
       <c r="DC45" s="2"/>
       <c r="DD45" s="42"/>
     </row>
-    <row r="46" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C46" s="53" t="s">
         <v>56</v>
       </c>
@@ -5547,7 +5549,7 @@
       <c r="DC46" s="2"/>
       <c r="DD46" s="42"/>
     </row>
-    <row r="47" spans="3:108" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C47" s="54" t="s">
         <v>57</v>
       </c>
@@ -5659,11 +5661,25 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="CJ11:DD12"/>
+    <mergeCell ref="CJ13:CL13"/>
+    <mergeCell ref="CM13:CO13"/>
+    <mergeCell ref="CP13:CR13"/>
+    <mergeCell ref="CS13:CU13"/>
+    <mergeCell ref="CV13:CX13"/>
+    <mergeCell ref="CY13:DA13"/>
+    <mergeCell ref="DB13:DD13"/>
+    <mergeCell ref="CA13:CC13"/>
+    <mergeCell ref="CD13:CF13"/>
+    <mergeCell ref="CG13:CI13"/>
+    <mergeCell ref="AT11:BN12"/>
+    <mergeCell ref="BO11:CI12"/>
+    <mergeCell ref="BL13:BN13"/>
+    <mergeCell ref="BO13:BQ13"/>
+    <mergeCell ref="BR13:BT13"/>
+    <mergeCell ref="BU13:BW13"/>
+    <mergeCell ref="BX13:BZ13"/>
+    <mergeCell ref="BC13:BE13"/>
     <mergeCell ref="D11:X12"/>
     <mergeCell ref="Y11:AS12"/>
     <mergeCell ref="BF13:BH13"/>
@@ -5680,25 +5696,11 @@
     <mergeCell ref="AB13:AD13"/>
     <mergeCell ref="AE13:AG13"/>
     <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="CA13:CC13"/>
-    <mergeCell ref="CD13:CF13"/>
-    <mergeCell ref="CG13:CI13"/>
-    <mergeCell ref="AT11:BN12"/>
-    <mergeCell ref="BO11:CI12"/>
-    <mergeCell ref="BL13:BN13"/>
-    <mergeCell ref="BO13:BQ13"/>
-    <mergeCell ref="BR13:BT13"/>
-    <mergeCell ref="BU13:BW13"/>
-    <mergeCell ref="BX13:BZ13"/>
-    <mergeCell ref="BC13:BE13"/>
-    <mergeCell ref="CJ11:DD12"/>
-    <mergeCell ref="CJ13:CL13"/>
-    <mergeCell ref="CM13:CO13"/>
-    <mergeCell ref="CP13:CR13"/>
-    <mergeCell ref="CS13:CU13"/>
-    <mergeCell ref="CV13:CX13"/>
-    <mergeCell ref="CY13:DA13"/>
-    <mergeCell ref="DB13:DD13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:R13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5710,422 +5712,422 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625F224F-3EB0-436A-9277-708D05AA5922}">
   <dimension ref="C5:DD42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BN46" sqref="BN46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="108" width="2.7109375" customWidth="1"/>
+    <col min="4" max="108" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:108" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:108" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C6" s="50"/>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="109"/>
-      <c r="U6" s="109"/>
-      <c r="V6" s="109"/>
-      <c r="W6" s="109"/>
-      <c r="X6" s="110"/>
-      <c r="Y6" s="120" t="s">
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="112"/>
+      <c r="R6" s="112"/>
+      <c r="S6" s="112"/>
+      <c r="T6" s="112"/>
+      <c r="U6" s="112"/>
+      <c r="V6" s="112"/>
+      <c r="W6" s="112"/>
+      <c r="X6" s="113"/>
+      <c r="Y6" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="Z6" s="121"/>
-      <c r="AA6" s="121"/>
-      <c r="AB6" s="121"/>
-      <c r="AC6" s="121"/>
-      <c r="AD6" s="121"/>
-      <c r="AE6" s="121"/>
-      <c r="AF6" s="121"/>
-      <c r="AG6" s="121"/>
-      <c r="AH6" s="121"/>
-      <c r="AI6" s="121"/>
-      <c r="AJ6" s="121"/>
-      <c r="AK6" s="121"/>
-      <c r="AL6" s="121"/>
-      <c r="AM6" s="121"/>
-      <c r="AN6" s="121"/>
-      <c r="AO6" s="121"/>
-      <c r="AP6" s="121"/>
-      <c r="AQ6" s="121"/>
-      <c r="AR6" s="121"/>
-      <c r="AS6" s="122"/>
-      <c r="AT6" s="108" t="s">
+      <c r="Z6" s="118"/>
+      <c r="AA6" s="118"/>
+      <c r="AB6" s="118"/>
+      <c r="AC6" s="118"/>
+      <c r="AD6" s="118"/>
+      <c r="AE6" s="118"/>
+      <c r="AF6" s="118"/>
+      <c r="AG6" s="118"/>
+      <c r="AH6" s="118"/>
+      <c r="AI6" s="118"/>
+      <c r="AJ6" s="118"/>
+      <c r="AK6" s="118"/>
+      <c r="AL6" s="118"/>
+      <c r="AM6" s="118"/>
+      <c r="AN6" s="118"/>
+      <c r="AO6" s="118"/>
+      <c r="AP6" s="118"/>
+      <c r="AQ6" s="118"/>
+      <c r="AR6" s="118"/>
+      <c r="AS6" s="119"/>
+      <c r="AT6" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="AU6" s="109"/>
-      <c r="AV6" s="109"/>
-      <c r="AW6" s="109"/>
-      <c r="AX6" s="109"/>
-      <c r="AY6" s="109"/>
-      <c r="AZ6" s="109"/>
-      <c r="BA6" s="109"/>
-      <c r="BB6" s="109"/>
-      <c r="BC6" s="109"/>
-      <c r="BD6" s="109"/>
-      <c r="BE6" s="109"/>
-      <c r="BF6" s="109"/>
-      <c r="BG6" s="109"/>
-      <c r="BH6" s="109"/>
-      <c r="BI6" s="109"/>
-      <c r="BJ6" s="109"/>
-      <c r="BK6" s="109"/>
-      <c r="BL6" s="109"/>
-      <c r="BM6" s="109"/>
-      <c r="BN6" s="110"/>
-      <c r="BO6" s="120" t="s">
+      <c r="AU6" s="112"/>
+      <c r="AV6" s="112"/>
+      <c r="AW6" s="112"/>
+      <c r="AX6" s="112"/>
+      <c r="AY6" s="112"/>
+      <c r="AZ6" s="112"/>
+      <c r="BA6" s="112"/>
+      <c r="BB6" s="112"/>
+      <c r="BC6" s="112"/>
+      <c r="BD6" s="112"/>
+      <c r="BE6" s="112"/>
+      <c r="BF6" s="112"/>
+      <c r="BG6" s="112"/>
+      <c r="BH6" s="112"/>
+      <c r="BI6" s="112"/>
+      <c r="BJ6" s="112"/>
+      <c r="BK6" s="112"/>
+      <c r="BL6" s="112"/>
+      <c r="BM6" s="112"/>
+      <c r="BN6" s="113"/>
+      <c r="BO6" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="BP6" s="121"/>
-      <c r="BQ6" s="121"/>
-      <c r="BR6" s="121"/>
-      <c r="BS6" s="121"/>
-      <c r="BT6" s="121"/>
-      <c r="BU6" s="121"/>
-      <c r="BV6" s="121"/>
-      <c r="BW6" s="121"/>
-      <c r="BX6" s="121"/>
-      <c r="BY6" s="121"/>
-      <c r="BZ6" s="121"/>
-      <c r="CA6" s="121"/>
-      <c r="CB6" s="121"/>
-      <c r="CC6" s="121"/>
-      <c r="CD6" s="121"/>
-      <c r="CE6" s="121"/>
-      <c r="CF6" s="121"/>
-      <c r="CG6" s="121"/>
-      <c r="CH6" s="121"/>
-      <c r="CI6" s="122"/>
-      <c r="CJ6" s="108" t="s">
+      <c r="BP6" s="118"/>
+      <c r="BQ6" s="118"/>
+      <c r="BR6" s="118"/>
+      <c r="BS6" s="118"/>
+      <c r="BT6" s="118"/>
+      <c r="BU6" s="118"/>
+      <c r="BV6" s="118"/>
+      <c r="BW6" s="118"/>
+      <c r="BX6" s="118"/>
+      <c r="BY6" s="118"/>
+      <c r="BZ6" s="118"/>
+      <c r="CA6" s="118"/>
+      <c r="CB6" s="118"/>
+      <c r="CC6" s="118"/>
+      <c r="CD6" s="118"/>
+      <c r="CE6" s="118"/>
+      <c r="CF6" s="118"/>
+      <c r="CG6" s="118"/>
+      <c r="CH6" s="118"/>
+      <c r="CI6" s="119"/>
+      <c r="CJ6" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="CK6" s="109"/>
-      <c r="CL6" s="109"/>
-      <c r="CM6" s="109"/>
-      <c r="CN6" s="109"/>
-      <c r="CO6" s="109"/>
-      <c r="CP6" s="109"/>
-      <c r="CQ6" s="109"/>
-      <c r="CR6" s="109"/>
-      <c r="CS6" s="109"/>
-      <c r="CT6" s="109"/>
-      <c r="CU6" s="109"/>
-      <c r="CV6" s="109"/>
-      <c r="CW6" s="109"/>
-      <c r="CX6" s="109"/>
-      <c r="CY6" s="109"/>
-      <c r="CZ6" s="109"/>
-      <c r="DA6" s="109"/>
-      <c r="DB6" s="109"/>
-      <c r="DC6" s="109"/>
-      <c r="DD6" s="110"/>
-    </row>
-    <row r="7" spans="3:108" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CK6" s="112"/>
+      <c r="CL6" s="112"/>
+      <c r="CM6" s="112"/>
+      <c r="CN6" s="112"/>
+      <c r="CO6" s="112"/>
+      <c r="CP6" s="112"/>
+      <c r="CQ6" s="112"/>
+      <c r="CR6" s="112"/>
+      <c r="CS6" s="112"/>
+      <c r="CT6" s="112"/>
+      <c r="CU6" s="112"/>
+      <c r="CV6" s="112"/>
+      <c r="CW6" s="112"/>
+      <c r="CX6" s="112"/>
+      <c r="CY6" s="112"/>
+      <c r="CZ6" s="112"/>
+      <c r="DA6" s="112"/>
+      <c r="DB6" s="112"/>
+      <c r="DC6" s="112"/>
+      <c r="DD6" s="113"/>
+    </row>
+    <row r="7" spans="3:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="51"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="113"/>
-      <c r="Y7" s="123"/>
-      <c r="Z7" s="124"/>
-      <c r="AA7" s="124"/>
-      <c r="AB7" s="124"/>
-      <c r="AC7" s="124"/>
-      <c r="AD7" s="124"/>
-      <c r="AE7" s="124"/>
-      <c r="AF7" s="124"/>
-      <c r="AG7" s="124"/>
-      <c r="AH7" s="124"/>
-      <c r="AI7" s="124"/>
-      <c r="AJ7" s="124"/>
-      <c r="AK7" s="124"/>
-      <c r="AL7" s="124"/>
-      <c r="AM7" s="124"/>
-      <c r="AN7" s="124"/>
-      <c r="AO7" s="124"/>
-      <c r="AP7" s="124"/>
-      <c r="AQ7" s="124"/>
-      <c r="AR7" s="124"/>
-      <c r="AS7" s="125"/>
-      <c r="AT7" s="111"/>
-      <c r="AU7" s="112"/>
-      <c r="AV7" s="112"/>
-      <c r="AW7" s="112"/>
-      <c r="AX7" s="112"/>
-      <c r="AY7" s="112"/>
-      <c r="AZ7" s="112"/>
-      <c r="BA7" s="112"/>
-      <c r="BB7" s="112"/>
-      <c r="BC7" s="112"/>
-      <c r="BD7" s="112"/>
-      <c r="BE7" s="112"/>
-      <c r="BF7" s="112"/>
-      <c r="BG7" s="112"/>
-      <c r="BH7" s="112"/>
-      <c r="BI7" s="112"/>
-      <c r="BJ7" s="112"/>
-      <c r="BK7" s="112"/>
-      <c r="BL7" s="112"/>
-      <c r="BM7" s="112"/>
-      <c r="BN7" s="113"/>
-      <c r="BO7" s="123"/>
-      <c r="BP7" s="124"/>
-      <c r="BQ7" s="124"/>
-      <c r="BR7" s="124"/>
-      <c r="BS7" s="124"/>
-      <c r="BT7" s="124"/>
-      <c r="BU7" s="124"/>
-      <c r="BV7" s="124"/>
-      <c r="BW7" s="124"/>
-      <c r="BX7" s="124"/>
-      <c r="BY7" s="124"/>
-      <c r="BZ7" s="124"/>
-      <c r="CA7" s="124"/>
-      <c r="CB7" s="124"/>
-      <c r="CC7" s="124"/>
-      <c r="CD7" s="124"/>
-      <c r="CE7" s="124"/>
-      <c r="CF7" s="124"/>
-      <c r="CG7" s="124"/>
-      <c r="CH7" s="124"/>
-      <c r="CI7" s="125"/>
-      <c r="CJ7" s="111"/>
-      <c r="CK7" s="112"/>
-      <c r="CL7" s="112"/>
-      <c r="CM7" s="112"/>
-      <c r="CN7" s="112"/>
-      <c r="CO7" s="112"/>
-      <c r="CP7" s="112"/>
-      <c r="CQ7" s="112"/>
-      <c r="CR7" s="112"/>
-      <c r="CS7" s="112"/>
-      <c r="CT7" s="112"/>
-      <c r="CU7" s="112"/>
-      <c r="CV7" s="112"/>
-      <c r="CW7" s="112"/>
-      <c r="CX7" s="112"/>
-      <c r="CY7" s="112"/>
-      <c r="CZ7" s="112"/>
-      <c r="DA7" s="112"/>
-      <c r="DB7" s="112"/>
-      <c r="DC7" s="112"/>
-      <c r="DD7" s="113"/>
-    </row>
-    <row r="8" spans="3:108" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="114"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="120"/>
+      <c r="Z7" s="121"/>
+      <c r="AA7" s="121"/>
+      <c r="AB7" s="121"/>
+      <c r="AC7" s="121"/>
+      <c r="AD7" s="121"/>
+      <c r="AE7" s="121"/>
+      <c r="AF7" s="121"/>
+      <c r="AG7" s="121"/>
+      <c r="AH7" s="121"/>
+      <c r="AI7" s="121"/>
+      <c r="AJ7" s="121"/>
+      <c r="AK7" s="121"/>
+      <c r="AL7" s="121"/>
+      <c r="AM7" s="121"/>
+      <c r="AN7" s="121"/>
+      <c r="AO7" s="121"/>
+      <c r="AP7" s="121"/>
+      <c r="AQ7" s="121"/>
+      <c r="AR7" s="121"/>
+      <c r="AS7" s="122"/>
+      <c r="AT7" s="114"/>
+      <c r="AU7" s="115"/>
+      <c r="AV7" s="115"/>
+      <c r="AW7" s="115"/>
+      <c r="AX7" s="115"/>
+      <c r="AY7" s="115"/>
+      <c r="AZ7" s="115"/>
+      <c r="BA7" s="115"/>
+      <c r="BB7" s="115"/>
+      <c r="BC7" s="115"/>
+      <c r="BD7" s="115"/>
+      <c r="BE7" s="115"/>
+      <c r="BF7" s="115"/>
+      <c r="BG7" s="115"/>
+      <c r="BH7" s="115"/>
+      <c r="BI7" s="115"/>
+      <c r="BJ7" s="115"/>
+      <c r="BK7" s="115"/>
+      <c r="BL7" s="115"/>
+      <c r="BM7" s="115"/>
+      <c r="BN7" s="116"/>
+      <c r="BO7" s="120"/>
+      <c r="BP7" s="121"/>
+      <c r="BQ7" s="121"/>
+      <c r="BR7" s="121"/>
+      <c r="BS7" s="121"/>
+      <c r="BT7" s="121"/>
+      <c r="BU7" s="121"/>
+      <c r="BV7" s="121"/>
+      <c r="BW7" s="121"/>
+      <c r="BX7" s="121"/>
+      <c r="BY7" s="121"/>
+      <c r="BZ7" s="121"/>
+      <c r="CA7" s="121"/>
+      <c r="CB7" s="121"/>
+      <c r="CC7" s="121"/>
+      <c r="CD7" s="121"/>
+      <c r="CE7" s="121"/>
+      <c r="CF7" s="121"/>
+      <c r="CG7" s="121"/>
+      <c r="CH7" s="121"/>
+      <c r="CI7" s="122"/>
+      <c r="CJ7" s="114"/>
+      <c r="CK7" s="115"/>
+      <c r="CL7" s="115"/>
+      <c r="CM7" s="115"/>
+      <c r="CN7" s="115"/>
+      <c r="CO7" s="115"/>
+      <c r="CP7" s="115"/>
+      <c r="CQ7" s="115"/>
+      <c r="CR7" s="115"/>
+      <c r="CS7" s="115"/>
+      <c r="CT7" s="115"/>
+      <c r="CU7" s="115"/>
+      <c r="CV7" s="115"/>
+      <c r="CW7" s="115"/>
+      <c r="CX7" s="115"/>
+      <c r="CY7" s="115"/>
+      <c r="CZ7" s="115"/>
+      <c r="DA7" s="115"/>
+      <c r="DB7" s="115"/>
+      <c r="DC7" s="115"/>
+      <c r="DD7" s="116"/>
+    </row>
+    <row r="8" spans="3:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="86"/>
-      <c r="D8" s="114" t="s">
+      <c r="D8" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="115"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="114" t="s">
+      <c r="E8" s="109"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="115"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="114" t="s">
+      <c r="H8" s="109"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="115"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="114" t="s">
+      <c r="K8" s="109"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="115"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="114" t="s">
+      <c r="N8" s="109"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="114" t="s">
+      <c r="Q8" s="109"/>
+      <c r="R8" s="110"/>
+      <c r="S8" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="T8" s="115"/>
-      <c r="U8" s="116"/>
-      <c r="V8" s="114" t="s">
+      <c r="T8" s="109"/>
+      <c r="U8" s="110"/>
+      <c r="V8" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="W8" s="115"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="117" t="s">
+      <c r="W8" s="109"/>
+      <c r="X8" s="110"/>
+      <c r="Y8" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="Z8" s="118"/>
-      <c r="AA8" s="119"/>
-      <c r="AB8" s="117" t="s">
+      <c r="Z8" s="124"/>
+      <c r="AA8" s="125"/>
+      <c r="AB8" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="AC8" s="118"/>
-      <c r="AD8" s="119"/>
-      <c r="AE8" s="117" t="s">
+      <c r="AC8" s="124"/>
+      <c r="AD8" s="125"/>
+      <c r="AE8" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="AF8" s="118"/>
-      <c r="AG8" s="119"/>
-      <c r="AH8" s="117" t="s">
+      <c r="AF8" s="124"/>
+      <c r="AG8" s="125"/>
+      <c r="AH8" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="AI8" s="118"/>
-      <c r="AJ8" s="119"/>
-      <c r="AK8" s="117" t="s">
+      <c r="AI8" s="124"/>
+      <c r="AJ8" s="125"/>
+      <c r="AK8" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="AL8" s="118"/>
-      <c r="AM8" s="119"/>
-      <c r="AN8" s="117" t="s">
+      <c r="AL8" s="124"/>
+      <c r="AM8" s="125"/>
+      <c r="AN8" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="AO8" s="118"/>
-      <c r="AP8" s="119"/>
-      <c r="AQ8" s="117" t="s">
+      <c r="AO8" s="124"/>
+      <c r="AP8" s="125"/>
+      <c r="AQ8" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="AR8" s="118"/>
-      <c r="AS8" s="119"/>
-      <c r="AT8" s="114" t="s">
+      <c r="AR8" s="124"/>
+      <c r="AS8" s="125"/>
+      <c r="AT8" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="AU8" s="115"/>
-      <c r="AV8" s="116"/>
-      <c r="AW8" s="114" t="s">
+      <c r="AU8" s="109"/>
+      <c r="AV8" s="110"/>
+      <c r="AW8" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="AX8" s="115"/>
-      <c r="AY8" s="116"/>
-      <c r="AZ8" s="114" t="s">
+      <c r="AX8" s="109"/>
+      <c r="AY8" s="110"/>
+      <c r="AZ8" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="BA8" s="115"/>
-      <c r="BB8" s="116"/>
-      <c r="BC8" s="114" t="s">
+      <c r="BA8" s="109"/>
+      <c r="BB8" s="110"/>
+      <c r="BC8" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="BD8" s="115"/>
-      <c r="BE8" s="116"/>
-      <c r="BF8" s="114" t="s">
+      <c r="BD8" s="109"/>
+      <c r="BE8" s="110"/>
+      <c r="BF8" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="BG8" s="115"/>
-      <c r="BH8" s="116"/>
-      <c r="BI8" s="114" t="s">
+      <c r="BG8" s="109"/>
+      <c r="BH8" s="110"/>
+      <c r="BI8" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="BJ8" s="115"/>
-      <c r="BK8" s="116"/>
-      <c r="BL8" s="114" t="s">
+      <c r="BJ8" s="109"/>
+      <c r="BK8" s="110"/>
+      <c r="BL8" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="BM8" s="115"/>
-      <c r="BN8" s="116"/>
-      <c r="BO8" s="117" t="s">
+      <c r="BM8" s="109"/>
+      <c r="BN8" s="110"/>
+      <c r="BO8" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="BP8" s="118"/>
-      <c r="BQ8" s="119"/>
-      <c r="BR8" s="117" t="s">
+      <c r="BP8" s="124"/>
+      <c r="BQ8" s="125"/>
+      <c r="BR8" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="BS8" s="118"/>
-      <c r="BT8" s="119"/>
-      <c r="BU8" s="117" t="s">
+      <c r="BS8" s="124"/>
+      <c r="BT8" s="125"/>
+      <c r="BU8" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="BV8" s="118"/>
-      <c r="BW8" s="119"/>
-      <c r="BX8" s="117" t="s">
+      <c r="BV8" s="124"/>
+      <c r="BW8" s="125"/>
+      <c r="BX8" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="BY8" s="118"/>
-      <c r="BZ8" s="119"/>
-      <c r="CA8" s="117" t="s">
+      <c r="BY8" s="124"/>
+      <c r="BZ8" s="125"/>
+      <c r="CA8" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="CB8" s="118"/>
-      <c r="CC8" s="119"/>
-      <c r="CD8" s="117" t="s">
+      <c r="CB8" s="124"/>
+      <c r="CC8" s="125"/>
+      <c r="CD8" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="CE8" s="118"/>
-      <c r="CF8" s="119"/>
-      <c r="CG8" s="117" t="s">
+      <c r="CE8" s="124"/>
+      <c r="CF8" s="125"/>
+      <c r="CG8" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="CH8" s="118"/>
-      <c r="CI8" s="119"/>
-      <c r="CJ8" s="114" t="s">
+      <c r="CH8" s="124"/>
+      <c r="CI8" s="125"/>
+      <c r="CJ8" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="CK8" s="115"/>
-      <c r="CL8" s="116"/>
-      <c r="CM8" s="114" t="s">
+      <c r="CK8" s="109"/>
+      <c r="CL8" s="110"/>
+      <c r="CM8" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="CN8" s="115"/>
-      <c r="CO8" s="116"/>
-      <c r="CP8" s="114" t="s">
+      <c r="CN8" s="109"/>
+      <c r="CO8" s="110"/>
+      <c r="CP8" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="CQ8" s="115"/>
-      <c r="CR8" s="116"/>
-      <c r="CS8" s="114" t="s">
+      <c r="CQ8" s="109"/>
+      <c r="CR8" s="110"/>
+      <c r="CS8" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="CT8" s="115"/>
-      <c r="CU8" s="116"/>
-      <c r="CV8" s="114" t="s">
+      <c r="CT8" s="109"/>
+      <c r="CU8" s="110"/>
+      <c r="CV8" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="CW8" s="115"/>
-      <c r="CX8" s="116"/>
-      <c r="CY8" s="114" t="s">
+      <c r="CW8" s="109"/>
+      <c r="CX8" s="110"/>
+      <c r="CY8" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="CZ8" s="115"/>
-      <c r="DA8" s="116"/>
-      <c r="DB8" s="114" t="s">
+      <c r="CZ8" s="109"/>
+      <c r="DA8" s="110"/>
+      <c r="DB8" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="DC8" s="115"/>
-      <c r="DD8" s="116"/>
-    </row>
-    <row r="9" spans="3:108" x14ac:dyDescent="0.25">
+      <c r="DC8" s="109"/>
+      <c r="DD8" s="110"/>
+    </row>
+    <row r="9" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C9" s="52" t="s">
         <v>12</v>
       </c>
@@ -6235,7 +6237,7 @@
       <c r="DC9" s="32"/>
       <c r="DD9" s="84"/>
     </row>
-    <row r="10" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C10" s="53" t="s">
         <v>13</v>
       </c>
@@ -6345,7 +6347,7 @@
       <c r="DC10" s="2"/>
       <c r="DD10" s="42"/>
     </row>
-    <row r="11" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C11" s="53" t="s">
         <v>14</v>
       </c>
@@ -6455,7 +6457,7 @@
       <c r="DC11" s="2"/>
       <c r="DD11" s="42"/>
     </row>
-    <row r="12" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C12" s="53" t="s">
         <v>15</v>
       </c>
@@ -6565,7 +6567,7 @@
       <c r="DC12" s="2"/>
       <c r="DD12" s="42"/>
     </row>
-    <row r="13" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C13" s="53" t="s">
         <v>16</v>
       </c>
@@ -6675,7 +6677,7 @@
       <c r="DC13" s="2"/>
       <c r="DD13" s="42"/>
     </row>
-    <row r="14" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C14" s="53" t="s">
         <v>17</v>
       </c>
@@ -6785,7 +6787,7 @@
       <c r="DC14" s="2"/>
       <c r="DD14" s="42"/>
     </row>
-    <row r="15" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C15" s="53" t="s">
         <v>18</v>
       </c>
@@ -6895,7 +6897,7 @@
       <c r="DC15" s="2"/>
       <c r="DD15" s="42"/>
     </row>
-    <row r="16" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C16" s="53" t="s">
         <v>19</v>
       </c>
@@ -6967,11 +6969,11 @@
       <c r="BQ16" s="1"/>
       <c r="BR16" s="1"/>
       <c r="BS16" s="1"/>
-      <c r="BT16" s="1"/>
-      <c r="BU16" s="1"/>
-      <c r="BV16" s="1"/>
-      <c r="BW16" s="1"/>
-      <c r="BX16" s="1"/>
+      <c r="BT16" s="12"/>
+      <c r="BU16" s="12"/>
+      <c r="BV16" s="12"/>
+      <c r="BW16" s="12"/>
+      <c r="BX16" s="12"/>
       <c r="BY16" s="1"/>
       <c r="BZ16" s="1"/>
       <c r="CA16" s="1"/>
@@ -7005,7 +7007,7 @@
       <c r="DC16" s="2"/>
       <c r="DD16" s="42"/>
     </row>
-    <row r="17" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C17" s="53" t="s">
         <v>20</v>
       </c>
@@ -7115,7 +7117,7 @@
       <c r="DC17" s="2"/>
       <c r="DD17" s="42"/>
     </row>
-    <row r="18" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C18" s="53" t="s">
         <v>44</v>
       </c>
@@ -7225,7 +7227,7 @@
       <c r="DC18" s="2"/>
       <c r="DD18" s="42"/>
     </row>
-    <row r="19" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C19" s="53" t="s">
         <v>22</v>
       </c>
@@ -7335,7 +7337,7 @@
       <c r="DC19" s="2"/>
       <c r="DD19" s="42"/>
     </row>
-    <row r="20" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C20" s="53" t="s">
         <v>23</v>
       </c>
@@ -7402,16 +7404,16 @@
       <c r="BL20" s="2"/>
       <c r="BM20" s="2"/>
       <c r="BN20" s="42"/>
-      <c r="BO20" s="43"/>
-      <c r="BP20" s="1"/>
-      <c r="BQ20" s="1"/>
-      <c r="BR20" s="1"/>
-      <c r="BS20" s="1"/>
-      <c r="BT20" s="1"/>
-      <c r="BU20" s="1"/>
-      <c r="BV20" s="1"/>
-      <c r="BW20" s="1"/>
-      <c r="BX20" s="1"/>
+      <c r="BO20" s="93"/>
+      <c r="BP20" s="16"/>
+      <c r="BQ20" s="16"/>
+      <c r="BR20" s="16"/>
+      <c r="BS20" s="16"/>
+      <c r="BT20" s="16"/>
+      <c r="BU20" s="16"/>
+      <c r="BV20" s="16"/>
+      <c r="BW20" s="16"/>
+      <c r="BX20" s="16"/>
       <c r="BY20" s="1"/>
       <c r="BZ20" s="1"/>
       <c r="CA20" s="1"/>
@@ -7445,7 +7447,7 @@
       <c r="DC20" s="2"/>
       <c r="DD20" s="42"/>
     </row>
-    <row r="21" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C21" s="53" t="s">
         <v>24</v>
       </c>
@@ -7555,7 +7557,7 @@
       <c r="DC21" s="2"/>
       <c r="DD21" s="42"/>
     </row>
-    <row r="22" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C22" s="53" t="s">
         <v>25</v>
       </c>
@@ -7622,16 +7624,16 @@
       <c r="BL22" s="2"/>
       <c r="BM22" s="2"/>
       <c r="BN22" s="42"/>
-      <c r="BO22" s="43"/>
-      <c r="BP22" s="1"/>
-      <c r="BQ22" s="1"/>
-      <c r="BR22" s="1"/>
-      <c r="BS22" s="1"/>
-      <c r="BT22" s="1"/>
-      <c r="BU22" s="1"/>
-      <c r="BV22" s="1"/>
-      <c r="BW22" s="1"/>
-      <c r="BX22" s="1"/>
+      <c r="BO22" s="127"/>
+      <c r="BP22" s="18"/>
+      <c r="BQ22" s="18"/>
+      <c r="BR22" s="18"/>
+      <c r="BS22" s="18"/>
+      <c r="BT22" s="18"/>
+      <c r="BU22" s="18"/>
+      <c r="BV22" s="18"/>
+      <c r="BW22" s="18"/>
+      <c r="BX22" s="18"/>
       <c r="BY22" s="1"/>
       <c r="BZ22" s="1"/>
       <c r="CA22" s="1"/>
@@ -7665,7 +7667,7 @@
       <c r="DC22" s="2"/>
       <c r="DD22" s="42"/>
     </row>
-    <row r="23" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C23" s="53" t="s">
         <v>26</v>
       </c>
@@ -7735,8 +7737,8 @@
       <c r="BO23" s="43"/>
       <c r="BP23" s="1"/>
       <c r="BQ23" s="1"/>
-      <c r="BR23" s="1"/>
-      <c r="BS23" s="1"/>
+      <c r="BR23" s="92"/>
+      <c r="BS23" s="92"/>
       <c r="BT23" s="1"/>
       <c r="BU23" s="1"/>
       <c r="BV23" s="1"/>
@@ -7775,7 +7777,7 @@
       <c r="DC23" s="2"/>
       <c r="DD23" s="42"/>
     </row>
-    <row r="24" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C24" s="53" t="s">
         <v>27</v>
       </c>
@@ -7885,7 +7887,7 @@
       <c r="DC24" s="2"/>
       <c r="DD24" s="42"/>
     </row>
-    <row r="25" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C25" s="53" t="s">
         <v>28</v>
       </c>
@@ -7995,7 +7997,7 @@
       <c r="DC25" s="2"/>
       <c r="DD25" s="42"/>
     </row>
-    <row r="26" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C26" s="53" t="s">
         <v>45</v>
       </c>
@@ -8062,16 +8064,16 @@
       <c r="BL26" s="21"/>
       <c r="BM26" s="21"/>
       <c r="BN26" s="99"/>
-      <c r="BO26" s="43"/>
-      <c r="BP26" s="1"/>
-      <c r="BQ26" s="1"/>
-      <c r="BR26" s="1"/>
-      <c r="BS26" s="1"/>
-      <c r="BT26" s="1"/>
-      <c r="BU26" s="1"/>
-      <c r="BV26" s="1"/>
-      <c r="BW26" s="1"/>
-      <c r="BX26" s="1"/>
+      <c r="BO26" s="100"/>
+      <c r="BP26" s="21"/>
+      <c r="BQ26" s="21"/>
+      <c r="BR26" s="21"/>
+      <c r="BS26" s="21"/>
+      <c r="BT26" s="21"/>
+      <c r="BU26" s="21"/>
+      <c r="BV26" s="21"/>
+      <c r="BW26" s="21"/>
+      <c r="BX26" s="21"/>
       <c r="BY26" s="1"/>
       <c r="BZ26" s="1"/>
       <c r="CA26" s="1"/>
@@ -8105,7 +8107,7 @@
       <c r="DC26" s="2"/>
       <c r="DD26" s="42"/>
     </row>
-    <row r="27" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C27" s="53" t="s">
         <v>46</v>
       </c>
@@ -8172,16 +8174,16 @@
       <c r="BL27" s="22"/>
       <c r="BM27" s="22"/>
       <c r="BN27" s="107"/>
-      <c r="BO27" s="43"/>
-      <c r="BP27" s="1"/>
-      <c r="BQ27" s="1"/>
-      <c r="BR27" s="1"/>
-      <c r="BS27" s="1"/>
-      <c r="BT27" s="1"/>
-      <c r="BU27" s="1"/>
-      <c r="BV27" s="1"/>
-      <c r="BW27" s="1"/>
-      <c r="BX27" s="1"/>
+      <c r="BO27" s="126"/>
+      <c r="BP27" s="22"/>
+      <c r="BQ27" s="22"/>
+      <c r="BR27" s="22"/>
+      <c r="BS27" s="22"/>
+      <c r="BT27" s="22"/>
+      <c r="BU27" s="22"/>
+      <c r="BV27" s="22"/>
+      <c r="BW27" s="22"/>
+      <c r="BX27" s="22"/>
       <c r="BY27" s="1"/>
       <c r="BZ27" s="1"/>
       <c r="CA27" s="1"/>
@@ -8215,7 +8217,7 @@
       <c r="DC27" s="2"/>
       <c r="DD27" s="42"/>
     </row>
-    <row r="28" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C28" s="53" t="s">
         <v>47</v>
       </c>
@@ -8325,7 +8327,7 @@
       <c r="DC28" s="2"/>
       <c r="DD28" s="42"/>
     </row>
-    <row r="29" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C29" s="53" t="s">
         <v>48</v>
       </c>
@@ -8435,7 +8437,7 @@
       <c r="DC29" s="2"/>
       <c r="DD29" s="42"/>
     </row>
-    <row r="30" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C30" s="53" t="s">
         <v>49</v>
       </c>
@@ -8545,7 +8547,7 @@
       <c r="DC30" s="2"/>
       <c r="DD30" s="42"/>
     </row>
-    <row r="31" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C31" s="53" t="s">
         <v>50</v>
       </c>
@@ -8655,7 +8657,7 @@
       <c r="DC31" s="2"/>
       <c r="DD31" s="42"/>
     </row>
-    <row r="32" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C32" s="53" t="s">
         <v>35</v>
       </c>
@@ -8765,7 +8767,7 @@
       <c r="DC32" s="2"/>
       <c r="DD32" s="42"/>
     </row>
-    <row r="33" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C33" s="53" t="s">
         <v>36</v>
       </c>
@@ -8875,7 +8877,7 @@
       <c r="DC33" s="2"/>
       <c r="DD33" s="42"/>
     </row>
-    <row r="34" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C34" s="53" t="s">
         <v>51</v>
       </c>
@@ -8985,7 +8987,7 @@
       <c r="DC34" s="2"/>
       <c r="DD34" s="42"/>
     </row>
-    <row r="35" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C35" s="53" t="s">
         <v>38</v>
       </c>
@@ -9095,7 +9097,7 @@
       <c r="DC35" s="2"/>
       <c r="DD35" s="42"/>
     </row>
-    <row r="36" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C36" s="53" t="s">
         <v>52</v>
       </c>
@@ -9205,7 +9207,7 @@
       <c r="DC36" s="2"/>
       <c r="DD36" s="42"/>
     </row>
-    <row r="37" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C37" s="53" t="s">
         <v>53</v>
       </c>
@@ -9315,7 +9317,7 @@
       <c r="DC37" s="2"/>
       <c r="DD37" s="42"/>
     </row>
-    <row r="38" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C38" s="53" t="s">
         <v>54</v>
       </c>
@@ -9425,7 +9427,7 @@
       <c r="DC38" s="2"/>
       <c r="DD38" s="42"/>
     </row>
-    <row r="39" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C39" s="53" t="s">
         <v>55</v>
       </c>
@@ -9535,7 +9537,7 @@
       <c r="DC39" s="2"/>
       <c r="DD39" s="42"/>
     </row>
-    <row r="40" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C40" s="53" t="s">
         <v>43</v>
       </c>
@@ -9608,9 +9610,9 @@
       <c r="BR40" s="1"/>
       <c r="BS40" s="1"/>
       <c r="BT40" s="1"/>
-      <c r="BU40" s="1"/>
-      <c r="BV40" s="1"/>
-      <c r="BW40" s="1"/>
+      <c r="BU40" s="39"/>
+      <c r="BV40" s="39"/>
+      <c r="BW40" s="39"/>
       <c r="BX40" s="1"/>
       <c r="BY40" s="1"/>
       <c r="BZ40" s="1"/>
@@ -9645,7 +9647,7 @@
       <c r="DC40" s="2"/>
       <c r="DD40" s="42"/>
     </row>
-    <row r="41" spans="3:108" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:108" x14ac:dyDescent="0.3">
       <c r="C41" s="53" t="s">
         <v>56</v>
       </c>
@@ -9755,7 +9757,7 @@
       <c r="DC41" s="2"/>
       <c r="DD41" s="42"/>
     </row>
-    <row r="42" spans="3:108" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C42" s="54" t="s">
         <v>57</v>
       </c>
@@ -9867,6 +9869,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="DB8:DD8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CA8:CC8"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="CM8:CO8"/>
+    <mergeCell ref="CP8:CR8"/>
+    <mergeCell ref="CS8:CU8"/>
+    <mergeCell ref="CV8:CX8"/>
+    <mergeCell ref="CY8:DA8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="BL8:BN8"/>
+    <mergeCell ref="BO8:BQ8"/>
     <mergeCell ref="CJ6:DD7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
@@ -9883,30 +9909,6 @@
     <mergeCell ref="Y8:AA8"/>
     <mergeCell ref="AB8:AD8"/>
     <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BK8"/>
-    <mergeCell ref="BL8:BN8"/>
-    <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="DB8:DD8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CA8:CC8"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="CM8:CO8"/>
-    <mergeCell ref="CP8:CR8"/>
-    <mergeCell ref="CS8:CU8"/>
-    <mergeCell ref="CV8:CX8"/>
-    <mergeCell ref="CY8:DA8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
